--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B08152AF-695F-4C9B-B465-51862547B29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{73812ACF-68FF-4D0A-9A88-5141FCC7FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE117" authorId="6" shapeId="1069" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
+    <comment ref="BE117" authorId="6" shapeId="1031" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -282,9 +282,9 @@
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>58</xdr:col>
+                <xdr:col>62</xdr:col>
                 <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>135</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -292,7 +292,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AZ167" authorId="7" shapeId="1031" xr:uid="{6346A040-CAA6-426D-B88B-F179BD3EDF56}">
+    <comment ref="AZ167" authorId="7" shapeId="1032" xr:uid="{6346A040-CAA6-426D-B88B-F179BD3EDF56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -321,7 +321,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S170" authorId="8" shapeId="1032" xr:uid="{36544B68-53D1-48A6-ABDC-6532664667F5}">
+    <comment ref="S170" authorId="8" shapeId="1033" xr:uid="{36544B68-53D1-48A6-ABDC-6532664667F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -350,7 +350,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF172" authorId="9" shapeId="1033" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
+    <comment ref="BF172" authorId="9" shapeId="1034" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -379,7 +379,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL173" authorId="10" shapeId="1034" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
+    <comment ref="AL173" authorId="10" shapeId="1035" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -408,7 +408,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BA174" authorId="11" shapeId="1035" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
+    <comment ref="BA174" authorId="11" shapeId="1036" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +437,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL175" authorId="12" shapeId="1036" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
+    <comment ref="AL175" authorId="12" shapeId="1037" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +466,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP187" authorId="13" shapeId="1037" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
+    <comment ref="AP187" authorId="13" shapeId="1038" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -495,7 +495,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF188" authorId="14" shapeId="1038" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
+    <comment ref="BF188" authorId="14" shapeId="1039" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +524,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF195" authorId="15" shapeId="1039" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
+    <comment ref="BF195" authorId="15" shapeId="1040" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -553,7 +553,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D197" authorId="16" shapeId="1040" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
+    <comment ref="D197" authorId="16" shapeId="1041" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -582,7 +582,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G197" authorId="17" shapeId="1041" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
+    <comment ref="G197" authorId="17" shapeId="1042" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -611,7 +611,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T197" authorId="18" shapeId="1042" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
+    <comment ref="T197" authorId="18" shapeId="1043" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -640,7 +640,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP199" authorId="19" shapeId="1043" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
+    <comment ref="AP199" authorId="19" shapeId="1044" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -669,7 +669,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE202" authorId="20" shapeId="1044" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
+    <comment ref="BE202" authorId="20" shapeId="1045" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -698,7 +698,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="K210" authorId="21" shapeId="1045" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
+    <comment ref="K210" authorId="21" shapeId="1046" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -727,7 +727,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S210" authorId="22" shapeId="1046" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
+    <comment ref="S210" authorId="22" shapeId="1047" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -756,7 +756,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF215" authorId="23" shapeId="1047" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
+    <comment ref="BF215" authorId="23" shapeId="1048" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -785,7 +785,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF216" authorId="24" shapeId="1048" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
+    <comment ref="BF216" authorId="24" shapeId="1049" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -814,7 +814,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF217" authorId="25" shapeId="1049" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
+    <comment ref="BF217" authorId="25" shapeId="1050" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -843,7 +843,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F218" authorId="26" shapeId="1050" xr:uid="{0384FECB-12F4-4A35-A1B7-B638B2E44523}">
+    <comment ref="F218" authorId="26" shapeId="1051" xr:uid="{0384FECB-12F4-4A35-A1B7-B638B2E44523}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -872,7 +872,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F219" authorId="27" shapeId="1051" xr:uid="{9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}">
+    <comment ref="F219" authorId="27" shapeId="1052" xr:uid="{9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -901,7 +901,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F228" authorId="28" shapeId="1052" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
+    <comment ref="F228" authorId="28" shapeId="1053" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -930,7 +930,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AY243" authorId="29" shapeId="1053" xr:uid="{D578FCD3-0BC5-43E7-8A35-6445BB3C1B4E}">
+    <comment ref="AY243" authorId="29" shapeId="1054" xr:uid="{D578FCD3-0BC5-43E7-8A35-6445BB3C1B4E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -959,7 +959,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC243" authorId="30" shapeId="1054" xr:uid="{721A5F74-8915-46A8-BBD9-25D5FBB217B9}">
+    <comment ref="BC243" authorId="30" shapeId="1055" xr:uid="{721A5F74-8915-46A8-BBD9-25D5FBB217B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -988,7 +988,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AN255" authorId="31" shapeId="1055" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
+    <comment ref="AN255" authorId="31" shapeId="1056" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1017,7 +1017,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL256" authorId="32" shapeId="1056" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
+    <comment ref="AL256" authorId="32" shapeId="1057" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1046,7 +1046,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="P257" authorId="33" shapeId="1057" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
+    <comment ref="P257" authorId="33" shapeId="1058" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1075,7 +1075,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AF270" authorId="34" shapeId="1058" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
+    <comment ref="AF270" authorId="34" shapeId="1059" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1104,7 +1104,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T274" authorId="35" shapeId="1059" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
+    <comment ref="T274" authorId="35" shapeId="1060" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1133,7 +1133,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA274" authorId="36" shapeId="1060" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
+    <comment ref="AA274" authorId="36" shapeId="1061" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1162,7 +1162,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU274" authorId="37" shapeId="1061" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
+    <comment ref="AU274" authorId="37" shapeId="1062" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1191,7 +1191,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC274" authorId="38" shapeId="1062" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
+    <comment ref="BC274" authorId="38" shapeId="1063" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1220,7 +1220,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T275" authorId="39" shapeId="1063" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
+    <comment ref="T275" authorId="39" shapeId="1064" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1249,7 +1249,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA275" authorId="40" shapeId="1064" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
+    <comment ref="AA275" authorId="40" shapeId="1065" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1278,7 +1278,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU275" authorId="41" shapeId="1065" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
+    <comment ref="AU275" authorId="41" shapeId="1066" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1307,7 +1307,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC275" authorId="42" shapeId="1066" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
+    <comment ref="BC275" authorId="42" shapeId="1067" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1336,7 +1336,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU276" authorId="43" shapeId="1067" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
+    <comment ref="AU276" authorId="43" shapeId="1068" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1365,7 +1365,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T291" authorId="44" shapeId="1068" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
+    <comment ref="T291" authorId="44" shapeId="1069" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2503,7 +2503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2650,12 +2650,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3153,7 +3147,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FF69AA-AE26-401C-2E0D-D16373D01416}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723408CD-CCFD-8962-700E-6A725C1C16CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3222,7 +3216,7 @@
             <xdr:cNvPr id="1026" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A4205D-1169-6811-8BF5-62C7C8887CDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B199CE4-A149-7B1B-5A82-D8FA05540A61}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3291,7 +3285,7 @@
             <xdr:cNvPr id="1027" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAE5DEF-F202-CB34-E70A-9DB0B7F8C5E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4502FB-47CC-9E0F-577D-8FBAA86F5F10}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3360,7 +3354,7 @@
             <xdr:cNvPr id="1028" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90074222-67CB-CE69-A3B3-D9050B79F99A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3491557F-D671-8F16-CD6A-716974929989}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3429,7 +3423,7 @@
             <xdr:cNvPr id="1029" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FCB074-E309-093D-639F-7037679555A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3FC8A7-D043-4DCD-7852-60FB199C67F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3498,7 +3492,7 @@
             <xdr:cNvPr id="1030" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CFDBFC-DA1D-57B8-E7B0-38A835D9DBC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE041A8D-D815-4FDE-7D5D-5FE5F6C4B714}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3510,6 +3504,75 @@
             <a:xfrm>
               <a:off x="37309425" y="23107650"/>
               <a:ext cx="4714875" cy="3933825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>57</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>62</xdr:col>
+          <xdr:colOff>695325</xdr:colOff>
+          <xdr:row>135</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Comment 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0609E497-0A0A-A4A4-EF8B-D289D0991050}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="48206025" y="23107650"/>
+              <a:ext cx="4724400" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3564,10 +3627,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Comment 11" hidden="1">
+            <xdr:cNvPr id="1032" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE1AC3B-DB1A-CCC2-3F54-36FA2B0332E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4532B738-D077-23CA-4F76-FF5BE62E001D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3577,7 +3640,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="44015025" y="33108900"/>
+              <a:off x="44015025" y="33089850"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3633,10 +3696,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Comment 5" hidden="1">
+            <xdr:cNvPr id="1033" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB92018-55E3-93F0-D9B2-E84D06D1A047}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794CA43E-B826-7C5D-F114-6A0A85BF7BAF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3646,7 +3709,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16030575" y="33708975"/>
+              <a:off x="16030575" y="33689925"/>
               <a:ext cx="4695825" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3702,10 +3765,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Comment 19" hidden="1">
+            <xdr:cNvPr id="1034" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E70DC7-2945-C529-9492-090DB7B1BF84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CB4DE8-E29A-782F-07D1-F15D5D0CAA67}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3715,7 +3778,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="34109025"/>
+              <a:off x="49034700" y="34089975"/>
               <a:ext cx="4762500" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3771,10 +3834,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Comment 21" hidden="1">
+            <xdr:cNvPr id="1035" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C53F91-13BC-9EF7-E000-0D1686D8730F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FA180D-AD78-8CD2-2AF1-AA67F6086ED2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3784,7 +3847,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="32280225" y="34309050"/>
+              <a:off x="32280225" y="34290000"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3840,10 +3903,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Comment 20" hidden="1">
+            <xdr:cNvPr id="1036" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3477E40-C388-36AD-28B5-C9D2EA2B1A5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0FC29A-7625-F45D-E8A5-F4389705796E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3853,7 +3916,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="44853225" y="34509075"/>
+              <a:off x="44853225" y="34490025"/>
               <a:ext cx="4705350" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3909,10 +3972,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Comment 22" hidden="1">
+            <xdr:cNvPr id="1037" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14A3B05-4174-3A17-1392-A114FAF209D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059163A-3051-4292-AEA6-4CE85C1FFCA0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3922,7 +3985,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="32280225" y="34709100"/>
+              <a:off x="32280225" y="34690050"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3978,10 +4041,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Comment 23" hidden="1">
+            <xdr:cNvPr id="1038" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AF55BF-BB9C-70CB-0E75-D4DD32C79DD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF83C6-4783-E6B5-8F94-063A48BDED9B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3991,7 +4054,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="35633025" y="37109400"/>
+              <a:off x="35633025" y="37090350"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4047,10 +4110,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Comment 9" hidden="1">
+            <xdr:cNvPr id="1039" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA458CB1-3B1C-9B8F-8F0C-370CBBF8E99A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2DA904-188D-62B3-BD54-6699686684EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4060,7 +4123,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="37309425"/>
+              <a:off x="49034700" y="37290375"/>
               <a:ext cx="4762500" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4116,10 +4179,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Comment 10" hidden="1">
+            <xdr:cNvPr id="1040" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EABF821-3C23-8369-96CD-F87889C77A52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AE325B-B3D2-0954-B855-2755B99C119A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4129,7 +4192,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="38709600"/>
+              <a:off x="49034700" y="38690550"/>
               <a:ext cx="4762500" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4185,10 +4248,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Comment 6" hidden="1">
+            <xdr:cNvPr id="1041" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AAAA74-077C-D119-337D-FC222CC3F21A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7E143C-4F85-BF36-67F3-E3933F55DB2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4198,7 +4261,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3495675" y="39109650"/>
+              <a:off x="3495675" y="39090600"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4254,10 +4317,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Comment 7" hidden="1">
+            <xdr:cNvPr id="1042" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19D4B74-BAB3-A04F-5351-56AC35A84C16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227E09CB-E987-24C1-B1A5-094B01084404}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4267,7 +4330,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6010275" y="39109650"/>
+              <a:off x="6010275" y="39090600"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4323,10 +4386,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Comment 8" hidden="1">
+            <xdr:cNvPr id="1043" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F64164-DD9C-26A7-3403-A2930985CA1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57318FA-C321-BEF1-8E62-7815B05BBF81}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4336,7 +4399,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16859250" y="39109650"/>
+              <a:off x="16859250" y="39090600"/>
               <a:ext cx="4686300" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4392,10 +4455,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Comment 24" hidden="1">
+            <xdr:cNvPr id="1044" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D1326C-6BCB-2271-AEFC-EBD833F0A468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2D0B71-469A-2411-F38A-493AB0DEDD02}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4405,7 +4468,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="35633025" y="39509700"/>
+              <a:off x="35633025" y="39490650"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4461,10 +4524,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Comment 32" hidden="1">
+            <xdr:cNvPr id="1045" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589E8B4B-CDD9-8C27-01F4-930451EFAE36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188649B9-3B21-4ED3-AB5B-51A82CAF5CA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4474,7 +4537,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="48206025" y="40109775"/>
+              <a:off x="48206025" y="40090725"/>
               <a:ext cx="4705350" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4530,10 +4593,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Comment 25" hidden="1">
+            <xdr:cNvPr id="1046" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF58FE51-3E49-A92E-1176-1688A5FBC988}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D90E142-7DA6-906A-75F8-1CEC012B8FCF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4543,7 +4606,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9363075" y="41709975"/>
+              <a:off x="9363075" y="41690925"/>
               <a:ext cx="4705350" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4599,10 +4662,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Comment 26" hidden="1">
+            <xdr:cNvPr id="1047" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A1DE88-CC2A-421B-5B53-6C35873CC6A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EED9E9F-4BB6-D21F-8F97-EBA4732A1DF9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,7 +4675,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16030575" y="41709975"/>
+              <a:off x="16030575" y="41690925"/>
               <a:ext cx="4695825" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4668,10 +4731,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1047" name="Comment 12" hidden="1">
+            <xdr:cNvPr id="1048" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3D708C-BF4D-5E38-F0A5-C9E3832AE432}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8903A76A-E48A-6132-A59B-1E68FB27F296}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4681,7 +4744,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="42710100"/>
+              <a:off x="49034700" y="42691050"/>
               <a:ext cx="4762500" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4737,10 +4800,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="Comment 13" hidden="1">
+            <xdr:cNvPr id="1049" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BE0832-87DE-DAF0-A31B-DB4BD8924AA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D10893A-2510-A0C4-BEB4-E7F037A3EC69}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4750,7 +4813,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="42910125"/>
+              <a:off x="49034700" y="42891075"/>
               <a:ext cx="4762500" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4806,10 +4869,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Comment 16" hidden="1">
+            <xdr:cNvPr id="1050" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4680A62-5FC4-8965-EF91-6C3308600CBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D55EA58-6BB3-7D6F-C8C8-A4B8DA0B9272}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4819,7 +4882,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="49034700" y="43110150"/>
+              <a:off x="49034700" y="43091100"/>
               <a:ext cx="4762500" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4875,10 +4938,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Comment 27" hidden="1">
+            <xdr:cNvPr id="1051" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E89DDC-BAB2-563F-976D-3899C99DB02E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67CB557-30E8-FFE3-EC41-13776E499283}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4888,7 +4951,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5172075" y="43310175"/>
+              <a:off x="5172075" y="43291125"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4944,10 +5007,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Comment 28" hidden="1">
+            <xdr:cNvPr id="1052" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF86A655-A324-C02A-C3B6-7E321660EAE5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7847B31A-E799-929D-4DDF-03493AEB2A50}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4957,7 +5020,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5172075" y="43510200"/>
+              <a:off x="5172075" y="43491150"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5013,10 +5076,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1052" name="Comment 18" hidden="1">
+            <xdr:cNvPr id="1053" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73E45F1-1FBC-91A6-D566-DE7226631149}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1134FD9D-ADD2-E826-D40C-A15D93BEBCB3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5026,7 +5089,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5172075" y="45310425"/>
+              <a:off x="5172075" y="45291375"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5082,10 +5145,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Comment 34" hidden="1">
+            <xdr:cNvPr id="1054" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43079594-A3C9-CB0C-AB36-B8986880EFB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698C2F6D-8663-5641-CDD9-F9BC9C5323E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5095,7 +5158,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="43176825" y="48310800"/>
+              <a:off x="43176825" y="48291750"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5151,10 +5214,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Comment 31" hidden="1">
+            <xdr:cNvPr id="1055" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B16EE32-EA26-64CF-B642-EDA83070E829}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE79420-E5D5-F8B6-CD7E-B6EAFF9F0A95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5164,7 +5227,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="46529625" y="48310800"/>
+              <a:off x="46529625" y="48291750"/>
               <a:ext cx="4705350" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5220,10 +5283,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Comment 33" hidden="1">
+            <xdr:cNvPr id="1056" name="Comment 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0850D587-4984-4939-E549-479A8E7D8A9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203B7402-2838-BC1D-8E2E-0BB207866DCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5233,7 +5296,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="33956625" y="50711100"/>
+              <a:off x="33956625" y="50692050"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5289,10 +5352,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Comment 35" hidden="1">
+            <xdr:cNvPr id="1057" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7B2B69-17D9-4925-D0BB-0C6E1F5FE52D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C54D8D3-A38F-231C-7A93-EC781D6E248A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5302,7 +5365,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="32280225" y="50911125"/>
+              <a:off x="32280225" y="50892075"/>
               <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5358,10 +5421,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1057" name="Comment 36" hidden="1">
+            <xdr:cNvPr id="1058" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE1C5B4-608B-A40F-3BEE-73138054C70D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E348EC-402D-FDA5-5F29-A267874A217F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5371,7 +5434,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="13544550" y="51111150"/>
+              <a:off x="13544550" y="51092100"/>
               <a:ext cx="4667250" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5427,10 +5490,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Comment 34" hidden="1">
+            <xdr:cNvPr id="1059" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB7DCD3-FE18-C9E7-44A2-384EDCE28548}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE0E3B7-3492-EC2F-0AD7-2AAC934FE27A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5440,7 +5503,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="26908125" y="53711475"/>
+              <a:off x="26908125" y="53692425"/>
               <a:ext cx="4981575" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5496,10 +5559,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Comment 35" hidden="1">
+            <xdr:cNvPr id="1060" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B319DD51-A50A-BC87-4A3E-B81CB3345B83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E1BE0E-0FEE-C8DC-DD2A-C2BF597A9924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5509,7 +5572,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16859250" y="54511575"/>
+              <a:off x="16859250" y="54492525"/>
               <a:ext cx="4724400" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5565,10 +5628,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Comment 37" hidden="1">
+            <xdr:cNvPr id="1061" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BF01D7-0072-B9FB-A347-7FFEF2EF99B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B2B7D-11D4-28EE-F881-BBD63DBDD5D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5578,7 +5641,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="22717125" y="54511575"/>
+              <a:off x="22717125" y="54492525"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5634,10 +5697,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Comment 41" hidden="1">
+            <xdr:cNvPr id="1062" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7652A8EF-C94E-B330-4442-6299CD4718F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499C8234-9544-182A-6B96-4D77D1208CC2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5647,7 +5710,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="39824025" y="54511575"/>
+              <a:off x="39824025" y="54492525"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5703,10 +5766,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Comment 43" hidden="1">
+            <xdr:cNvPr id="1063" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2480573F-7D65-F556-F09F-5F39FFA697BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0884B34E-1827-79CF-18AB-824719371951}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5716,7 +5779,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="46529625" y="54511575"/>
+              <a:off x="46529625" y="54492525"/>
               <a:ext cx="4705350" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5772,10 +5835,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Comment 39" hidden="1">
+            <xdr:cNvPr id="1064" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB310B1-738E-9938-05D0-3F8D1D0FF4B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEF0B23-6ED5-EAA8-3555-475866768320}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5785,7 +5848,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16859250" y="54711600"/>
+              <a:off x="16859250" y="54692550"/>
               <a:ext cx="4724400" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5841,10 +5904,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Comment 40" hidden="1">
+            <xdr:cNvPr id="1065" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44EFF8A-0F95-5528-460B-9E1782FB8B36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C71722-3854-D950-0202-F94631E28F77}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5854,7 +5917,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="22717125" y="54711600"/>
+              <a:off x="22717125" y="54692550"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5910,10 +5973,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Comment 42" hidden="1">
+            <xdr:cNvPr id="1066" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBF32BE-C06D-AC17-E019-46995052E0D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9AB1D4-9A5D-9070-8D6D-AAA3493BEB07}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5923,7 +5986,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="39824025" y="54711600"/>
+              <a:off x="39824025" y="54692550"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5979,10 +6042,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Comment 44" hidden="1">
+            <xdr:cNvPr id="1067" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5806FE9A-17E5-B20F-767E-E13D7519D216}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1707D54E-9517-7429-AE47-E20C859075DA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5992,7 +6055,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="46529625" y="54711600"/>
+              <a:off x="46529625" y="54692550"/>
               <a:ext cx="4705350" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6048,10 +6111,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Comment 45" hidden="1">
+            <xdr:cNvPr id="1068" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8FE337-ACFF-943E-AAE2-1D2BAF3E5150}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F18410D-1188-F837-6ADB-0F57C0B77542}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6061,7 +6124,7 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="39824025" y="54911625"/>
+              <a:off x="39824025" y="54892575"/>
               <a:ext cx="4714875" cy="3933825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6117,10 +6180,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Comment 44" hidden="1">
+            <xdr:cNvPr id="1069" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B88973-625B-6A63-EE37-B91EB9C32717}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06E3CF1-3F2C-502E-1494-E0BB7697B1C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6130,77 +6193,8 @@
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16859250" y="57912000"/>
+              <a:off x="16859250" y="57892950"/>
               <a:ext cx="4724400" cy="3933825"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>57</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>115</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>58</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
-          <xdr:row>119</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1069" name="Comment 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76667764-C53E-BF07-BEE2-BE974CD9C670}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="48206025" y="23107650"/>
-              <a:ext cx="1371600" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6685,10 +6679,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C273" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C149" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C233" sqref="C233"/>
-      <selection pane="topRight" activeCell="BE293" sqref="BE293:BE294"/>
+      <selection pane="topRight" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32926,7 +32920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>217</v>
       </c>
@@ -32988,7 +32982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>218</v>
       </c>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{73812ACF-68FF-4D0A-9A88-5141FCC7FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C89DE103-8562-4FA3-A4F1-8CD747E91D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={196220C9-B76D-44C6-8703-347D904F0920}</author>
+    <author>tc={94E7B30B-21B6-4E8F-A581-A724B67769EB}</author>
     <author>tc={6319BB84-C044-49DC-92A3-4A530C7B7FBE}</author>
     <author>tc={176F5DC3-7060-4515-837F-1A41A3605F27}</author>
     <author>tc={DCBE5D4D-CB86-4A34-96D1-993989B602AE}</author>
@@ -49,6 +51,7 @@
     <author>tc={1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}</author>
     <author>tc={7B4BDEE1-68E2-40AF-A376-ABC491205995}</author>
     <author>tc={4117C750-D748-45DB-A58C-9D09163F25D0}</author>
+    <author>tc={EA153B60-6DDC-4614-A52C-BAD4452D2B6A}</author>
     <author>tc={6346A040-CAA6-426D-B88B-F179BD3EDF56}</author>
     <author>tc={36544B68-53D1-48A6-ABDC-6532664667F5}</author>
     <author>tc={A3EC3A92-D717-4190-BE2F-64BEE1461758}</author>
@@ -89,7 +92,65 @@
     <author>tc={F711E1B0-DCCE-4DAD-A782-87D6B49D8137}</author>
   </authors>
   <commentList>
-    <comment ref="S97" authorId="0" shapeId="1025" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
+    <comment ref="V81" authorId="0" shapeId="1070" xr:uid="{196220C9-B76D-44C6-8703-347D904F0920}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    REJ</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="V82" authorId="1" shapeId="1071" xr:uid="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    REJ</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="S97" authorId="2" shapeId="1025" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +179,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D100" authorId="1" shapeId="1026" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
+    <comment ref="D100" authorId="3" shapeId="1026" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +208,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G100" authorId="2" shapeId="1027" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
+    <comment ref="G100" authorId="4" shapeId="1027" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +237,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T100" authorId="3" shapeId="1028" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
+    <comment ref="T100" authorId="5" shapeId="1028" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +266,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR106" authorId="4" shapeId="1029" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
+    <comment ref="AR106" authorId="6" shapeId="1029" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,7 +295,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR117" authorId="5" shapeId="1030" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
+    <comment ref="AR117" authorId="7" shapeId="1030" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -263,7 +324,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE117" authorId="6" shapeId="1031" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
+    <comment ref="BE117" authorId="8" shapeId="1031" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -292,7 +353,36 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AZ167" authorId="7" shapeId="1032" xr:uid="{6346A040-CAA6-426D-B88B-F179BD3EDF56}">
+    <comment ref="AX142" authorId="9" shapeId="1072" xr:uid="{EA153B60-6DDC-4614-A52C-BAD4452D2B6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Total Loss Amount to HASE</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>50</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>140</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>144</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="AZ167" authorId="10" shapeId="1032" xr:uid="{6346A040-CAA6-426D-B88B-F179BD3EDF56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -321,7 +411,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S170" authorId="8" shapeId="1033" xr:uid="{36544B68-53D1-48A6-ABDC-6532664667F5}">
+    <comment ref="S170" authorId="11" shapeId="1033" xr:uid="{36544B68-53D1-48A6-ABDC-6532664667F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -350,7 +440,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF172" authorId="9" shapeId="1034" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
+    <comment ref="BF172" authorId="12" shapeId="1034" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -379,7 +469,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL173" authorId="10" shapeId="1035" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
+    <comment ref="AL173" authorId="13" shapeId="1035" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -408,7 +498,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BA174" authorId="11" shapeId="1036" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
+    <comment ref="BA174" authorId="14" shapeId="1036" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +527,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL175" authorId="12" shapeId="1037" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
+    <comment ref="AL175" authorId="15" shapeId="1037" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +556,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP187" authorId="13" shapeId="1038" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
+    <comment ref="AP187" authorId="16" shapeId="1038" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -495,7 +585,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF188" authorId="14" shapeId="1039" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
+    <comment ref="BF188" authorId="17" shapeId="1039" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +614,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF195" authorId="15" shapeId="1040" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
+    <comment ref="BF195" authorId="18" shapeId="1040" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -553,7 +643,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D197" authorId="16" shapeId="1041" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
+    <comment ref="D197" authorId="19" shapeId="1041" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -582,7 +672,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G197" authorId="17" shapeId="1042" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
+    <comment ref="G197" authorId="20" shapeId="1042" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -611,7 +701,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T197" authorId="18" shapeId="1043" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
+    <comment ref="T197" authorId="21" shapeId="1043" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -640,7 +730,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP199" authorId="19" shapeId="1044" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
+    <comment ref="AP199" authorId="22" shapeId="1044" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -669,7 +759,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE202" authorId="20" shapeId="1045" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
+    <comment ref="BE202" authorId="23" shapeId="1045" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -698,7 +788,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="K210" authorId="21" shapeId="1046" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
+    <comment ref="K210" authorId="24" shapeId="1046" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -727,7 +817,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S210" authorId="22" shapeId="1047" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
+    <comment ref="S210" authorId="25" shapeId="1047" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -756,7 +846,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF215" authorId="23" shapeId="1048" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
+    <comment ref="BF215" authorId="26" shapeId="1048" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -785,7 +875,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF216" authorId="24" shapeId="1049" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
+    <comment ref="BF216" authorId="27" shapeId="1049" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -814,7 +904,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF217" authorId="25" shapeId="1050" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
+    <comment ref="BF217" authorId="28" shapeId="1050" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -843,7 +933,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F218" authorId="26" shapeId="1051" xr:uid="{0384FECB-12F4-4A35-A1B7-B638B2E44523}">
+    <comment ref="F218" authorId="29" shapeId="1051" xr:uid="{0384FECB-12F4-4A35-A1B7-B638B2E44523}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -872,7 +962,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F219" authorId="27" shapeId="1052" xr:uid="{9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}">
+    <comment ref="F219" authorId="30" shapeId="1052" xr:uid="{9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -901,7 +991,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F228" authorId="28" shapeId="1053" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
+    <comment ref="F228" authorId="31" shapeId="1053" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -930,7 +1020,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AY243" authorId="29" shapeId="1054" xr:uid="{D578FCD3-0BC5-43E7-8A35-6445BB3C1B4E}">
+    <comment ref="AY243" authorId="32" shapeId="1054" xr:uid="{D578FCD3-0BC5-43E7-8A35-6445BB3C1B4E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -959,7 +1049,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC243" authorId="30" shapeId="1055" xr:uid="{721A5F74-8915-46A8-BBD9-25D5FBB217B9}">
+    <comment ref="BC243" authorId="33" shapeId="1055" xr:uid="{721A5F74-8915-46A8-BBD9-25D5FBB217B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -988,7 +1078,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AN255" authorId="31" shapeId="1056" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
+    <comment ref="AN255" authorId="34" shapeId="1056" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1017,7 +1107,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL256" authorId="32" shapeId="1057" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
+    <comment ref="AL256" authorId="35" shapeId="1057" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1046,7 +1136,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="P257" authorId="33" shapeId="1058" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
+    <comment ref="P257" authorId="36" shapeId="1058" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1075,7 +1165,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AF270" authorId="34" shapeId="1059" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
+    <comment ref="AF270" authorId="37" shapeId="1059" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1104,7 +1194,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T274" authorId="35" shapeId="1060" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
+    <comment ref="T274" authorId="38" shapeId="1060" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1133,7 +1223,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA274" authorId="36" shapeId="1061" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
+    <comment ref="AA274" authorId="39" shapeId="1061" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1162,7 +1252,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU274" authorId="37" shapeId="1062" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
+    <comment ref="AU274" authorId="40" shapeId="1062" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1191,7 +1281,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC274" authorId="38" shapeId="1063" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
+    <comment ref="BC274" authorId="41" shapeId="1063" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1220,7 +1310,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T275" authorId="39" shapeId="1064" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
+    <comment ref="T275" authorId="42" shapeId="1064" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1249,7 +1339,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA275" authorId="40" shapeId="1065" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
+    <comment ref="AA275" authorId="43" shapeId="1065" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1278,7 +1368,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU275" authorId="41" shapeId="1066" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
+    <comment ref="AU275" authorId="44" shapeId="1066" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1307,7 +1397,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC275" authorId="42" shapeId="1067" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
+    <comment ref="BC275" authorId="45" shapeId="1067" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1336,7 +1426,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU276" authorId="43" shapeId="1068" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
+    <comment ref="AU276" authorId="46" shapeId="1068" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1365,7 +1455,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T291" authorId="44" shapeId="1069" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
+    <comment ref="T291" authorId="47" shapeId="1069" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1399,7 +1489,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10532" uniqueCount="365">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10557" uniqueCount="367">
   <si>
     <t>Type</t>
   </si>
@@ -2495,6 +2585,12 @@
   <si>
     <t>UBHKH■■■■■■;;;UBHK■■■■</t>
   </si>
+  <si>
+    <t>07-Aug-24</t>
+  </si>
+  <si>
+    <t>滙豐</t>
+  </si>
 </sst>
 </file>
 
@@ -2503,9 +2599,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2650,6 +2753,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2991,49 +3123,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3045,9 +3180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3065,9 +3200,9 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3097,14 +3232,17 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Good 2" xfId="43" xr:uid="{35150A59-AB61-4604-BC84-0E03FD68553C}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink 2" xfId="44" xr:uid="{1820A293-26A6-4C8B-99E7-7F94314CB686}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{C7E3C259-9A0F-46E9-AAA3-CEB527A14795}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -3147,7 +3285,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723408CD-CCFD-8962-700E-6A725C1C16CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8782DEA-CF15-52A7-B68D-C4E9F626C7C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3216,7 +3354,7 @@
             <xdr:cNvPr id="1026" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B199CE4-A149-7B1B-5A82-D8FA05540A61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7120424-D4D0-F9F7-C155-A9706F3E2970}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3285,7 +3423,7 @@
             <xdr:cNvPr id="1027" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4502FB-47CC-9E0F-577D-8FBAA86F5F10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E129EE29-D02F-F744-3F21-0B1EB50C5077}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3354,7 +3492,7 @@
             <xdr:cNvPr id="1028" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3491557F-D671-8F16-CD6A-716974929989}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0974E742-7F88-7A00-0304-DD80ED42F9F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3423,7 +3561,7 @@
             <xdr:cNvPr id="1029" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3FC8A7-D043-4DCD-7852-60FB199C67F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D7E3D4-AD4A-9D52-32B4-A1C419334C08}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3492,7 +3630,7 @@
             <xdr:cNvPr id="1030" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE041A8D-D815-4FDE-7D5D-5FE5F6C4B714}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE6D876-DF8C-B56D-A699-78F51543F465}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3561,7 +3699,7 @@
             <xdr:cNvPr id="1031" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0609E497-0A0A-A4A4-EF8B-D289D0991050}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FACF28-F156-75A1-82D1-94981DEA9544}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3630,7 +3768,7 @@
             <xdr:cNvPr id="1032" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4532B738-D077-23CA-4F76-FF5BE62E001D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497058F3-5C68-FE83-0AF7-E4EF13A4142B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3699,7 +3837,7 @@
             <xdr:cNvPr id="1033" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794CA43E-B826-7C5D-F114-6A0A85BF7BAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66716A4-89DF-DBF5-4DBC-18489D2E9FB2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3768,7 +3906,7 @@
             <xdr:cNvPr id="1034" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CB4DE8-E29A-782F-07D1-F15D5D0CAA67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D869C2-119B-8437-8C27-F53F04C50A0F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3837,7 +3975,7 @@
             <xdr:cNvPr id="1035" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FA180D-AD78-8CD2-2AF1-AA67F6086ED2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8979A71B-7314-1636-25BA-44305AAA1FD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3906,7 +4044,7 @@
             <xdr:cNvPr id="1036" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0FC29A-7625-F45D-E8A5-F4389705796E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F796FF69-62B0-5AE7-0D1E-FA6199B6FF64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3975,7 +4113,7 @@
             <xdr:cNvPr id="1037" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059163A-3051-4292-AEA6-4CE85C1FFCA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E068A6-85C2-8D64-1D89-0B12EE8D3BD1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4044,7 +4182,7 @@
             <xdr:cNvPr id="1038" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF83C6-4783-E6B5-8F94-063A48BDED9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFD276E-B110-23DA-2864-9FEEE54907DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4113,7 +4251,7 @@
             <xdr:cNvPr id="1039" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2DA904-188D-62B3-BD54-6699686684EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B617414-1733-1DE4-C33C-2BF364735D39}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4182,7 +4320,7 @@
             <xdr:cNvPr id="1040" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AE325B-B3D2-0954-B855-2755B99C119A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE0483-2792-7BA6-F02D-5DC268D95B58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4251,7 +4389,7 @@
             <xdr:cNvPr id="1041" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7E143C-4F85-BF36-67F3-E3933F55DB2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA7A5BB-D31F-9668-2A74-143AABD10281}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4320,7 +4458,7 @@
             <xdr:cNvPr id="1042" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227E09CB-E987-24C1-B1A5-094B01084404}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BB7993-6A7E-88E2-85FA-CA6868263D88}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4389,7 +4527,7 @@
             <xdr:cNvPr id="1043" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57318FA-C321-BEF1-8E62-7815B05BBF81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E0EAEF-A1B0-0810-3F41-F30DCB590301}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4458,7 +4596,7 @@
             <xdr:cNvPr id="1044" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2D0B71-469A-2411-F38A-493AB0DEDD02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B8D33-B7CD-4815-69D4-6D1D7596C25D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4527,7 +4665,7 @@
             <xdr:cNvPr id="1045" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188649B9-3B21-4ED3-AB5B-51A82CAF5CA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC79461-25C9-9FBF-04E0-8E4A71F775FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4596,7 +4734,7 @@
             <xdr:cNvPr id="1046" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D90E142-7DA6-906A-75F8-1CEC012B8FCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE038DE0-A086-69EE-9EFC-90FF61FEB385}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4665,7 +4803,7 @@
             <xdr:cNvPr id="1047" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EED9E9F-4BB6-D21F-8F97-EBA4732A1DF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097612C2-8DF7-A045-00D1-2B87707B8A8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4734,7 +4872,7 @@
             <xdr:cNvPr id="1048" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8903A76A-E48A-6132-A59B-1E68FB27F296}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C534838-FB20-0348-D175-0187D821B19A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4803,7 +4941,7 @@
             <xdr:cNvPr id="1049" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D10893A-2510-A0C4-BEB4-E7F037A3EC69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3336AD7C-E99A-5024-EDC2-A3CC51D66480}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4872,7 +5010,7 @@
             <xdr:cNvPr id="1050" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D55EA58-6BB3-7D6F-C8C8-A4B8DA0B9272}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3A047B-9282-F652-C95D-157AAB4E357F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4941,7 +5079,7 @@
             <xdr:cNvPr id="1051" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67CB557-30E8-FFE3-EC41-13776E499283}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DCAA73-2234-95FE-EABD-59CFE776B36D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5010,7 +5148,7 @@
             <xdr:cNvPr id="1052" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7847B31A-E799-929D-4DDF-03493AEB2A50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9694160-DC58-61D9-F142-0ECD19AB7911}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5079,7 +5217,7 @@
             <xdr:cNvPr id="1053" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1134FD9D-ADD2-E826-D40C-A15D93BEBCB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A7E24E-9954-19D3-1479-1D74DE8BAAF8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5148,7 +5286,7 @@
             <xdr:cNvPr id="1054" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698C2F6D-8663-5641-CDD9-F9BC9C5323E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CDDCCE-A18A-3FEC-8608-880866A1021A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5217,7 +5355,7 @@
             <xdr:cNvPr id="1055" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE79420-E5D5-F8B6-CD7E-B6EAFF9F0A95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD90BA69-7EF1-0E65-7C48-BE937890E230}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5286,7 +5424,7 @@
             <xdr:cNvPr id="1056" name="Comment 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203B7402-2838-BC1D-8E2E-0BB207866DCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86501C8-E180-A759-0A30-9F85F42B41E4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5355,7 +5493,7 @@
             <xdr:cNvPr id="1057" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C54D8D3-A38F-231C-7A93-EC781D6E248A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AC4DAC-97C8-38A5-AFA9-7D8FA5B8F5F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5424,7 +5562,7 @@
             <xdr:cNvPr id="1058" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E348EC-402D-FDA5-5F29-A267874A217F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2551CBA-1FA0-EE13-C08B-CF614DEED0FC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5493,7 +5631,7 @@
             <xdr:cNvPr id="1059" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE0E3B7-3492-EC2F-0AD7-2AAC934FE27A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27E1FEA-9FF0-7D27-30D8-E1489628AE86}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5562,7 +5700,7 @@
             <xdr:cNvPr id="1060" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E1BE0E-0FEE-C8DC-DD2A-C2BF597A9924}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473F5FE9-99CC-1426-80F5-D09AF6168AD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5631,7 +5769,7 @@
             <xdr:cNvPr id="1061" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B2B7D-11D4-28EE-F881-BBD63DBDD5D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206447D9-1B95-1FEE-99F6-E6A0D5417F92}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5700,7 +5838,7 @@
             <xdr:cNvPr id="1062" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499C8234-9544-182A-6B96-4D77D1208CC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA6ADA1-97B2-D852-2B3B-BF2A0CE42973}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5769,7 +5907,7 @@
             <xdr:cNvPr id="1063" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0884B34E-1827-79CF-18AB-824719371951}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CED70AD-F738-03F7-0863-92FDDDC75E2A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5838,7 +5976,7 @@
             <xdr:cNvPr id="1064" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEF0B23-6ED5-EAA8-3555-475866768320}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC118D1-B82B-706C-FB38-FC91FF1CD3C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5907,7 +6045,7 @@
             <xdr:cNvPr id="1065" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C71722-3854-D950-0202-F94631E28F77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368A5F89-9A1C-A08D-D870-9BB47EBC1AA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5976,7 +6114,7 @@
             <xdr:cNvPr id="1066" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9AB1D4-9A5D-9070-8D6D-AAA3493BEB07}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962EFCCE-18D5-A932-5B42-E819E91A317D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6045,7 +6183,7 @@
             <xdr:cNvPr id="1067" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1707D54E-9517-7429-AE47-E20C859075DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55D5B33-C9A2-4071-6C74-440E2DB24268}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6114,7 +6252,7 @@
             <xdr:cNvPr id="1068" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F18410D-1188-F837-6ADB-0F57C0B77542}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C8D5C4-8D47-7255-4A6A-845334246C69}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6183,7 +6321,7 @@
             <xdr:cNvPr id="1069" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06E3CF1-3F2C-502E-1494-E0BB7697B1C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B22B07E-12F5-111C-DA99-041840C415DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6195,6 +6333,213 @@
             <a:xfrm>
               <a:off x="16859250" y="57892950"/>
               <a:ext cx="4724400" cy="3933825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Comment 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE3A4CC-7CE8-91E9-1B6D-030A4C8B794D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="18516600" y="15906750"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Comment 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5BAC84-CDB9-8D06-A8FE-D5EB0AA6AFD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="18516600" y="16106775"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>140</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>51</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>144</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Comment 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FAF803-60BC-A9A8-98DA-70EDB711F3CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="42329100" y="28108275"/>
+              <a:ext cx="1371600" cy="742950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6537,6 +6882,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main">
+  <threadedComment ref="V81" dT="2025-06-27T17:58:31.98" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{196220C9-B76D-44C6-8703-347D904F0920}">
+    <text>REJ</text>
+  </threadedComment>
+  <threadedComment ref="V82" dT="2025-06-27T17:58:38.37" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
+    <text>REJ</text>
+  </threadedComment>
   <threadedComment ref="S97" dT="2025-06-26T16:07:34.66" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
     <text>Missing originating amount to be added based on converted amount</text>
   </threadedComment>
@@ -6557,6 +6908,9 @@
   </threadedComment>
   <threadedComment ref="BE117" dT="2025-06-27T02:11:19.16" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{4117C750-D748-45DB-A58C-9D09163F25D0}">
     <text>Does FPWICT imply FPS?</text>
+  </threadedComment>
+  <threadedComment ref="AX142" dT="2025-06-27T18:06:42.03" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{EA153B60-6DDC-4614-A52C-BAD4452D2B6A}">
+    <text>Total Loss Amount to HASE</text>
   </threadedComment>
   <threadedComment ref="AZ167" dT="2025-06-26T16:37:41.88" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{6346A040-CAA6-426D-B88B-F179BD3EDF56}">
     <text>Can turn null to HASE afterwards, in the solution level</text>
@@ -6679,13 +7033,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C149" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C233" sqref="C233"/>
-      <selection pane="topRight" activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC142" sqref="BC142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="2"/>
@@ -6698,7 +7051,7 @@
     <col min="58" max="58" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>131</v>
       </c>
@@ -6877,7 +7230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>50</v>
       </c>
@@ -7019,6 +7372,9 @@
       <c r="AU2" t="s">
         <v>47</v>
       </c>
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
       <c r="AW2" t="s">
         <v>49</v>
       </c>
@@ -7047,7 +7403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3">
         <v>51</v>
       </c>
@@ -7189,6 +7545,9 @@
       <c r="AU3" t="s">
         <v>47</v>
       </c>
+      <c r="AV3" t="s">
+        <v>47</v>
+      </c>
       <c r="AW3" t="s">
         <v>147</v>
       </c>
@@ -7217,7 +7576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59">
       <c r="A4">
         <v>52</v>
       </c>
@@ -7359,6 +7718,9 @@
       <c r="AU4" t="s">
         <v>47</v>
       </c>
+      <c r="AV4" t="s">
+        <v>47</v>
+      </c>
       <c r="AW4" t="s">
         <v>49</v>
       </c>
@@ -7387,7 +7749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5">
         <v>53</v>
       </c>
@@ -7529,6 +7891,9 @@
       <c r="AU5" t="s">
         <v>47</v>
       </c>
+      <c r="AV5" t="s">
+        <v>47</v>
+      </c>
       <c r="AW5" t="s">
         <v>49</v>
       </c>
@@ -7557,7 +7922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="A6">
         <v>54</v>
       </c>
@@ -7699,6 +8064,9 @@
       <c r="AU6" t="s">
         <v>47</v>
       </c>
+      <c r="AV6" t="s">
+        <v>47</v>
+      </c>
       <c r="AW6" t="s">
         <v>49</v>
       </c>
@@ -7727,7 +8095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7">
         <v>55</v>
       </c>
@@ -7869,6 +8237,9 @@
       <c r="AU7" t="s">
         <v>47</v>
       </c>
+      <c r="AV7" t="s">
+        <v>47</v>
+      </c>
       <c r="AW7" t="s">
         <v>49</v>
       </c>
@@ -7897,7 +8268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8">
         <v>56</v>
       </c>
@@ -8039,6 +8410,9 @@
       <c r="AU8" t="s">
         <v>47</v>
       </c>
+      <c r="AV8" t="s">
+        <v>47</v>
+      </c>
       <c r="AW8" t="s">
         <v>49</v>
       </c>
@@ -8067,7 +8441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="A9">
         <v>57</v>
       </c>
@@ -8209,6 +8583,9 @@
       <c r="AU9" t="s">
         <v>53</v>
       </c>
+      <c r="AV9" t="s">
+        <v>53</v>
+      </c>
       <c r="AW9" t="s">
         <v>49</v>
       </c>
@@ -8237,7 +8614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10">
         <v>58</v>
       </c>
@@ -8379,6 +8756,9 @@
       <c r="AU10" t="s">
         <v>53</v>
       </c>
+      <c r="AV10" t="s">
+        <v>53</v>
+      </c>
       <c r="AW10" t="s">
         <v>49</v>
       </c>
@@ -8407,7 +8787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11">
         <v>60</v>
       </c>
@@ -8580,7 +8960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="A12">
         <v>74</v>
       </c>
@@ -8753,7 +9133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13">
         <v>86</v>
       </c>
@@ -8926,7 +9306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14">
         <v>98</v>
       </c>
@@ -9099,7 +9479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="A15">
         <v>129</v>
       </c>
@@ -9272,7 +9652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16">
         <v>151</v>
       </c>
@@ -9445,7 +9825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57">
       <c r="A17">
         <v>152</v>
       </c>
@@ -9618,7 +9998,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57">
       <c r="A18">
         <v>153</v>
       </c>
@@ -9791,7 +10171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57">
       <c r="A19">
         <v>154</v>
       </c>
@@ -9964,7 +10344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57">
       <c r="A20">
         <v>155</v>
       </c>
@@ -10137,7 +10517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57">
       <c r="A21">
         <v>156</v>
       </c>
@@ -10310,7 +10690,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57">
       <c r="A22">
         <v>178</v>
       </c>
@@ -10481,7 +10861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57">
       <c r="A23">
         <v>179</v>
       </c>
@@ -10654,7 +11034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57">
       <c r="A24">
         <v>180</v>
       </c>
@@ -10827,7 +11207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57">
       <c r="A25">
         <v>181</v>
       </c>
@@ -11000,7 +11380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57">
       <c r="A26">
         <v>209</v>
       </c>
@@ -11173,7 +11553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57">
       <c r="A27">
         <v>221</v>
       </c>
@@ -11346,7 +11726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57">
       <c r="A28">
         <v>222</v>
       </c>
@@ -11519,7 +11899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57">
       <c r="A29">
         <v>223</v>
       </c>
@@ -11692,7 +12072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57">
       <c r="A30">
         <v>224</v>
       </c>
@@ -11865,7 +12245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57">
       <c r="A31">
         <v>229</v>
       </c>
@@ -12038,7 +12418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57">
       <c r="A32">
         <v>231</v>
       </c>
@@ -12211,7 +12591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57">
       <c r="A33">
         <v>235</v>
       </c>
@@ -12384,7 +12764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57">
       <c r="A34">
         <v>236</v>
       </c>
@@ -12557,7 +12937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57">
       <c r="A35">
         <v>237</v>
       </c>
@@ -12730,7 +13110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57">
       <c r="A36">
         <v>238</v>
       </c>
@@ -12903,7 +13283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57">
       <c r="A37">
         <v>239</v>
       </c>
@@ -13076,7 +13456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57">
       <c r="A38">
         <v>240</v>
       </c>
@@ -13249,7 +13629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57">
       <c r="A39">
         <v>241</v>
       </c>
@@ -13422,7 +13802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57">
       <c r="A40">
         <v>242</v>
       </c>
@@ -13595,7 +13975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57">
       <c r="A41">
         <v>243</v>
       </c>
@@ -13768,7 +14148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57">
       <c r="A42">
         <v>244</v>
       </c>
@@ -13941,7 +14321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57">
       <c r="A43">
         <v>245</v>
       </c>
@@ -14114,7 +14494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57">
       <c r="A44">
         <v>246</v>
       </c>
@@ -14287,7 +14667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57">
       <c r="A45">
         <v>247</v>
       </c>
@@ -14460,7 +14840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57">
       <c r="A46">
         <v>248</v>
       </c>
@@ -14633,7 +15013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57">
       <c r="A47">
         <v>249</v>
       </c>
@@ -14806,7 +15186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57">
       <c r="A48">
         <v>254</v>
       </c>
@@ -14979,7 +15359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59">
       <c r="A49">
         <v>271</v>
       </c>
@@ -15152,7 +15532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59">
       <c r="A50">
         <v>272</v>
       </c>
@@ -15328,7 +15708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59">
       <c r="A51">
         <v>273</v>
       </c>
@@ -15504,7 +15884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59">
       <c r="A52">
         <v>287</v>
       </c>
@@ -15677,7 +16057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59">
       <c r="A53">
         <v>1</v>
       </c>
@@ -15850,7 +16230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59">
       <c r="A54">
         <v>5</v>
       </c>
@@ -16021,7 +16401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59">
       <c r="A55">
         <v>8</v>
       </c>
@@ -16157,7 +16537,7 @@
       <c r="AS55" t="s">
         <v>47</v>
       </c>
-      <c r="AT55">
+      <c r="AT55" s="13">
         <v>122222221</v>
       </c>
       <c r="AU55" t="s">
@@ -16194,7 +16574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59">
       <c r="A56">
         <v>9</v>
       </c>
@@ -16330,7 +16710,7 @@
       <c r="AS56" t="s">
         <v>47</v>
       </c>
-      <c r="AT56">
+      <c r="AT56" s="13">
         <v>122222221</v>
       </c>
       <c r="AU56" t="s">
@@ -16367,7 +16747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59">
       <c r="A57">
         <v>10</v>
       </c>
@@ -16540,7 +16920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59">
       <c r="A58">
         <v>11</v>
       </c>
@@ -16713,7 +17093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59">
       <c r="A59">
         <v>12</v>
       </c>
@@ -16886,7 +17266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59">
       <c r="A60">
         <v>27</v>
       </c>
@@ -17022,7 +17402,7 @@
       <c r="AS60" t="s">
         <v>47</v>
       </c>
-      <c r="AT60" t="s">
+      <c r="AT60" s="13" t="s">
         <v>218</v>
       </c>
       <c r="AU60" t="s">
@@ -17062,7 +17442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59">
       <c r="A61">
         <v>28</v>
       </c>
@@ -17238,7 +17618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59">
       <c r="A62">
         <v>29</v>
       </c>
@@ -17414,7 +17794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59">
       <c r="A63">
         <v>30</v>
       </c>
@@ -17565,7 +17945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59">
       <c r="A64">
         <v>32</v>
       </c>
@@ -17741,7 +18121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59">
       <c r="A65">
         <v>33</v>
       </c>
@@ -17917,7 +18297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59">
       <c r="A66">
         <v>34</v>
       </c>
@@ -18093,7 +18473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59">
       <c r="A67">
         <v>35</v>
       </c>
@@ -18269,7 +18649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59">
       <c r="A68">
         <v>39</v>
       </c>
@@ -18445,7 +18825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59">
       <c r="A69">
         <v>40</v>
       </c>
@@ -18621,7 +19001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59">
       <c r="A70">
         <v>41</v>
       </c>
@@ -18797,7 +19177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59">
       <c r="A71">
         <v>42</v>
       </c>
@@ -18973,7 +19353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59">
       <c r="A72">
         <v>43</v>
       </c>
@@ -19149,7 +19529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59">
       <c r="A73">
         <v>44</v>
       </c>
@@ -19325,7 +19705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59">
       <c r="A74">
         <v>36</v>
       </c>
@@ -19501,7 +19881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59">
       <c r="A75">
         <v>37</v>
       </c>
@@ -19677,7 +20057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59">
       <c r="A76">
         <v>38</v>
       </c>
@@ -19853,7 +20233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59">
       <c r="A77">
         <v>47</v>
       </c>
@@ -20029,7 +20409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59">
       <c r="A78">
         <v>49</v>
       </c>
@@ -20202,7 +20582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59">
       <c r="A79">
         <v>82</v>
       </c>
@@ -20375,7 +20755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59">
       <c r="A80">
         <v>83</v>
       </c>
@@ -20548,7 +20928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57">
       <c r="A81">
         <v>84</v>
       </c>
@@ -20612,7 +20992,7 @@
       <c r="U81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V81" s="1" t="s">
+      <c r="V81" s="16" t="s">
         <v>49</v>
       </c>
       <c r="W81" s="1" t="s">
@@ -20721,7 +21101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57">
       <c r="A82">
         <v>85</v>
       </c>
@@ -20785,7 +21165,7 @@
       <c r="U82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V82" s="1" t="s">
+      <c r="V82" s="16" t="s">
         <v>49</v>
       </c>
       <c r="W82" s="1" t="s">
@@ -20894,7 +21274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57">
       <c r="A83">
         <v>90</v>
       </c>
@@ -21067,7 +21447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57">
       <c r="A84">
         <v>95</v>
       </c>
@@ -21240,7 +21620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57">
       <c r="A85">
         <v>100</v>
       </c>
@@ -21413,7 +21793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57">
       <c r="A86">
         <v>101</v>
       </c>
@@ -21586,7 +21966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57">
       <c r="A87">
         <v>102</v>
       </c>
@@ -21759,7 +22139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57">
       <c r="A88">
         <v>103</v>
       </c>
@@ -21932,7 +22312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57">
       <c r="A89">
         <v>104</v>
       </c>
@@ -22105,7 +22485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57">
       <c r="A90">
         <v>105</v>
       </c>
@@ -22278,7 +22658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57">
       <c r="A91">
         <v>106</v>
       </c>
@@ -22451,7 +22831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57">
       <c r="A92">
         <v>107</v>
       </c>
@@ -22624,7 +23004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57">
       <c r="A93">
         <v>108</v>
       </c>
@@ -22797,7 +23177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57">
       <c r="A94">
         <v>109</v>
       </c>
@@ -22970,7 +23350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57">
       <c r="A95">
         <v>110</v>
       </c>
@@ -23143,7 +23523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57">
       <c r="A96">
         <v>111</v>
       </c>
@@ -23316,7 +23696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57">
       <c r="A97">
         <v>113</v>
       </c>
@@ -23489,7 +23869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57">
       <c r="A98">
         <v>114</v>
       </c>
@@ -23662,7 +24042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57">
       <c r="A99">
         <v>116</v>
       </c>
@@ -23835,7 +24215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57">
       <c r="A100">
         <v>117</v>
       </c>
@@ -24008,7 +24388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57">
       <c r="A101">
         <v>118</v>
       </c>
@@ -24181,7 +24561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57">
       <c r="A102">
         <v>119</v>
       </c>
@@ -24354,7 +24734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57">
       <c r="A103">
         <v>120</v>
       </c>
@@ -24527,7 +24907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57">
       <c r="A104">
         <v>121</v>
       </c>
@@ -24700,7 +25080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57">
       <c r="A105">
         <v>123</v>
       </c>
@@ -24873,7 +25253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57">
       <c r="A106">
         <v>132</v>
       </c>
@@ -25046,7 +25426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57">
       <c r="A107">
         <v>133</v>
       </c>
@@ -25219,7 +25599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57">
       <c r="A108">
         <v>134</v>
       </c>
@@ -25392,7 +25772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57">
       <c r="A109">
         <v>138</v>
       </c>
@@ -25565,7 +25945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57">
       <c r="A110">
         <v>141</v>
       </c>
@@ -25738,7 +26118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57">
       <c r="A111">
         <v>142</v>
       </c>
@@ -25911,7 +26291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57">
       <c r="A112">
         <v>143</v>
       </c>
@@ -26084,7 +26464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:59">
       <c r="A113">
         <v>144</v>
       </c>
@@ -26260,7 +26640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:59">
       <c r="A114">
         <v>145</v>
       </c>
@@ -26436,7 +26816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:59">
       <c r="A115">
         <v>146</v>
       </c>
@@ -26612,7 +26992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:59">
       <c r="A116">
         <v>147</v>
       </c>
@@ -26788,7 +27168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:59">
       <c r="A117">
         <v>167</v>
       </c>
@@ -26961,7 +27341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:59">
       <c r="A118">
         <v>168</v>
       </c>
@@ -27134,7 +27514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:59">
       <c r="A119">
         <v>172</v>
       </c>
@@ -27307,7 +27687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:59">
       <c r="A120">
         <v>192</v>
       </c>
@@ -27483,7 +27863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:59">
       <c r="A121">
         <v>194</v>
       </c>
@@ -27656,7 +28036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:59">
       <c r="A122">
         <v>195</v>
       </c>
@@ -27829,7 +28209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:59">
       <c r="A123">
         <v>196</v>
       </c>
@@ -28002,7 +28382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:59">
       <c r="A124">
         <v>202</v>
       </c>
@@ -28178,7 +28558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:59">
       <c r="A125">
         <v>203</v>
       </c>
@@ -28354,7 +28734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:59">
       <c r="A126">
         <v>204</v>
       </c>
@@ -28530,7 +28910,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:59">
       <c r="A127">
         <v>205</v>
       </c>
@@ -28706,7 +29086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:59">
       <c r="A128">
         <v>206</v>
       </c>
@@ -28882,7 +29262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:59">
       <c r="A129">
         <v>207</v>
       </c>
@@ -29058,7 +29438,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:59">
       <c r="A130">
         <v>208</v>
       </c>
@@ -29234,7 +29614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:59">
       <c r="A131">
         <v>225</v>
       </c>
@@ -29407,7 +29787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:59">
       <c r="A132">
         <v>251</v>
       </c>
@@ -29580,7 +29960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:59">
       <c r="A133">
         <v>262</v>
       </c>
@@ -29756,7 +30136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:59">
       <c r="A134">
         <v>263</v>
       </c>
@@ -29932,7 +30312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:59">
       <c r="A135">
         <v>264</v>
       </c>
@@ -30108,7 +30488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:59">
       <c r="A136">
         <v>274</v>
       </c>
@@ -30284,7 +30664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:59">
       <c r="A137">
         <v>275</v>
       </c>
@@ -30460,7 +30840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:59">
       <c r="A138">
         <v>278</v>
       </c>
@@ -30636,7 +31016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:59">
       <c r="A139">
         <v>280</v>
       </c>
@@ -30809,7 +31189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:59">
       <c r="A140">
         <v>288</v>
       </c>
@@ -30982,7 +31362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:59">
       <c r="A141">
         <v>289</v>
       </c>
@@ -31155,7 +31535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:59">
       <c r="A142">
         <v>7</v>
       </c>
@@ -31174,6 +31554,12 @@
       <c r="F142">
         <v>1</v>
       </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
       <c r="I142" t="b">
         <v>1</v>
       </c>
@@ -31183,25 +31569,49 @@
       <c r="K142" t="b">
         <v>1</v>
       </c>
+      <c r="L142" t="b">
+        <v>1</v>
+      </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>1</v>
       </c>
       <c r="O142" s="2" t="d">
         <v>2024-08-07</v>
       </c>
+      <c r="P142" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="Q142" s="2" t="d">
         <v>2024-08-07</v>
       </c>
+      <c r="R142" s="2" t="d">
+        <v>2024-08-07</v>
+      </c>
       <c r="S142" s="1">
         <v>5000</v>
       </c>
+      <c r="T142" s="1">
+        <v>5000</v>
+      </c>
       <c r="U142" s="1">
         <v>5000</v>
       </c>
+      <c r="V142" s="1">
+        <v>5000</v>
+      </c>
       <c r="W142" t="s">
         <v>42</v>
       </c>
+      <c r="X142" t="s">
+        <v>42</v>
+      </c>
       <c r="Y142" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z142" t="s">
         <v>42</v>
       </c>
       <c r="AA142" s="1" t="s">
@@ -31213,45 +31623,84 @@
       <c r="AC142" t="s">
         <v>43</v>
       </c>
+      <c r="AD142" t="s">
+        <v>56</v>
+      </c>
       <c r="AE142" t="s">
         <v>43</v>
       </c>
+      <c r="AF142" t="s">
+        <v>43</v>
+      </c>
       <c r="AG142" t="s">
         <v>44</v>
       </c>
+      <c r="AH142" t="s">
+        <v>49</v>
+      </c>
       <c r="AI142" t="s">
         <v>44</v>
       </c>
+      <c r="AJ142" t="s">
+        <v>44</v>
+      </c>
       <c r="AK142" t="s">
         <v>58</v>
       </c>
+      <c r="AL142" s="13" t="s">
+        <v>366</v>
+      </c>
       <c r="AM142" t="s">
         <v>58</v>
       </c>
+      <c r="AN142" t="s">
+        <v>58</v>
+      </c>
       <c r="AO142" t="s">
         <v>152</v>
       </c>
+      <c r="AP142" t="s">
+        <v>94</v>
+      </c>
       <c r="AQ142" t="s">
         <v>46</v>
       </c>
+      <c r="AR142" t="s">
+        <v>96</v>
+      </c>
       <c r="AS142" t="s">
         <v>47</v>
       </c>
+      <c r="AT142" t="s">
+        <v>47</v>
+      </c>
       <c r="AU142" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV142" t="s">
         <v>47</v>
       </c>
       <c r="AW142" t="s">
         <v>147</v>
       </c>
+      <c r="AX142" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="AY142" t="s">
         <v>48</v>
       </c>
+      <c r="AZ142" t="s">
+        <v>147</v>
+      </c>
       <c r="BA142" t="s">
         <v>175</v>
       </c>
       <c r="BB142" t="s">
         <v>176</v>
       </c>
+      <c r="BC142" t="s">
+        <v>49</v>
+      </c>
       <c r="BD142" t="s">
         <v>59</v>
       </c>
@@ -31259,7 +31708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:59">
       <c r="A143">
         <v>21</v>
       </c>
@@ -31293,6 +31742,7 @@
       <c r="O143" s="2" t="d">
         <v>2024-08-07</v>
       </c>
+      <c r="P143" s="19"/>
       <c r="Q143" s="2" t="d">
         <v>2024-08-07</v>
       </c>
@@ -31363,7 +31813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:59">
       <c r="A144">
         <v>22</v>
       </c>
@@ -31397,6 +31847,7 @@
       <c r="O144" s="2" t="d">
         <v>2024-08-07</v>
       </c>
+      <c r="P144" s="19"/>
       <c r="Q144" s="2" t="d">
         <v>2024-08-07</v>
       </c>
@@ -31467,7 +31918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:59">
       <c r="A145">
         <v>66</v>
       </c>
@@ -31501,6 +31952,7 @@
       <c r="O145" s="2" t="d">
         <v>2024-07-17</v>
       </c>
+      <c r="P145" s="19"/>
       <c r="Q145" s="2" t="d">
         <v>2024-07-17</v>
       </c>
@@ -31571,7 +32023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:59">
       <c r="A146">
         <v>77</v>
       </c>
@@ -31605,6 +32057,7 @@
       <c r="O146" s="2" t="d">
         <v>2024-08-10</v>
       </c>
+      <c r="P146" s="19"/>
       <c r="Q146" s="2" t="d">
         <v>2024-08-10</v>
       </c>
@@ -31675,7 +32128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:59">
       <c r="A147">
         <v>80</v>
       </c>
@@ -31709,6 +32162,7 @@
       <c r="O147" s="2" t="d">
         <v>2024-08-10</v>
       </c>
+      <c r="P147" s="19"/>
       <c r="Q147" s="2" t="d">
         <v>2024-08-10</v>
       </c>
@@ -31779,7 +32233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:59">
       <c r="A148">
         <v>81</v>
       </c>
@@ -31813,6 +32267,7 @@
       <c r="O148" s="2" t="d">
         <v>2024-08-11</v>
       </c>
+      <c r="P148" s="19"/>
       <c r="Q148" s="2" t="d">
         <v>2024-08-11</v>
       </c>
@@ -31883,7 +32338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:59">
       <c r="A149">
         <v>96</v>
       </c>
@@ -31917,6 +32372,7 @@
       <c r="O149" s="2" t="d">
         <v>2024-12-10</v>
       </c>
+      <c r="P149" s="19"/>
       <c r="Q149" s="2" t="d">
         <v>2024-12-10</v>
       </c>
@@ -31990,7 +32446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:59">
       <c r="A150">
         <v>97</v>
       </c>
@@ -32024,6 +32480,7 @@
       <c r="O150" s="2" t="d">
         <v>2024-12-11</v>
       </c>
+      <c r="P150" s="19"/>
       <c r="Q150" s="2" t="d">
         <v>2024-12-11</v>
       </c>
@@ -32094,7 +32551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:59">
       <c r="A151">
         <v>130</v>
       </c>
@@ -32128,6 +32585,7 @@
       <c r="O151" s="2" t="d">
         <v>2024-11-29</v>
       </c>
+      <c r="P151" s="19"/>
       <c r="Q151" s="2" t="d">
         <v>2024-11-29</v>
       </c>
@@ -32198,7 +32656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:59">
       <c r="A152">
         <v>163</v>
       </c>
@@ -32232,6 +32690,7 @@
       <c r="O152" s="2" t="d">
         <v>2024-12-27</v>
       </c>
+      <c r="P152" s="19"/>
       <c r="Q152" s="2" t="d">
         <v>2024-12-27</v>
       </c>
@@ -32300,7 +32759,7 @@
       </c>
       <c r="BE152" s="3"/>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:59">
       <c r="A153">
         <v>164</v>
       </c>
@@ -32334,6 +32793,7 @@
       <c r="O153" s="2" t="d">
         <v>2024-12-27</v>
       </c>
+      <c r="P153" s="19"/>
       <c r="Q153" s="2" t="d">
         <v>2024-12-27</v>
       </c>
@@ -32402,7 +32862,7 @@
       </c>
       <c r="BE153" s="3"/>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:59">
       <c r="A154">
         <v>210</v>
       </c>
@@ -32436,6 +32896,7 @@
       <c r="O154" s="2" t="d">
         <v>2025-01-02</v>
       </c>
+      <c r="P154" s="19"/>
       <c r="Q154" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32506,7 +32967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:59">
       <c r="A155">
         <v>211</v>
       </c>
@@ -32540,6 +33001,7 @@
       <c r="O155" s="2" t="d">
         <v>2025-01-02</v>
       </c>
+      <c r="P155" s="19"/>
       <c r="Q155" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32610,7 +33072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:59">
       <c r="A156">
         <v>212</v>
       </c>
@@ -32635,6 +33097,7 @@
       <c r="M156">
         <v>2</v>
       </c>
+      <c r="P156" s="19"/>
       <c r="Q156" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32672,7 +33135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:59">
       <c r="A157">
         <v>213</v>
       </c>
@@ -32697,6 +33160,7 @@
       <c r="M157">
         <v>2</v>
       </c>
+      <c r="P157" s="19"/>
       <c r="Q157" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32734,7 +33198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:59">
       <c r="A158">
         <v>214</v>
       </c>
@@ -32759,6 +33223,7 @@
       <c r="M158">
         <v>2</v>
       </c>
+      <c r="P158" s="19"/>
       <c r="Q158" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32796,7 +33261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:59">
       <c r="A159">
         <v>215</v>
       </c>
@@ -32821,6 +33286,7 @@
       <c r="M159">
         <v>2</v>
       </c>
+      <c r="P159" s="19"/>
       <c r="Q159" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32858,7 +33324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:59">
       <c r="A160">
         <v>216</v>
       </c>
@@ -32883,6 +33349,7 @@
       <c r="M160">
         <v>2</v>
       </c>
+      <c r="P160" s="19"/>
       <c r="Q160" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32920,7 +33387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:59" ht="15" customHeight="1">
       <c r="A161">
         <v>217</v>
       </c>
@@ -32945,6 +33412,7 @@
       <c r="M161">
         <v>1</v>
       </c>
+      <c r="P161" s="19"/>
       <c r="Q161" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -32982,7 +33450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:59" ht="15" customHeight="1">
       <c r="A162">
         <v>218</v>
       </c>
@@ -33007,6 +33475,7 @@
       <c r="M162">
         <v>1</v>
       </c>
+      <c r="P162" s="19"/>
       <c r="Q162" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -33044,7 +33513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:59">
       <c r="A163">
         <v>219</v>
       </c>
@@ -33069,6 +33538,7 @@
       <c r="M163">
         <v>1</v>
       </c>
+      <c r="P163" s="19"/>
       <c r="Q163" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -33106,7 +33576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:59">
       <c r="A164">
         <v>220</v>
       </c>
@@ -33131,6 +33601,7 @@
       <c r="M164">
         <v>1</v>
       </c>
+      <c r="P164" s="19"/>
       <c r="Q164" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -33168,7 +33639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:59">
       <c r="A165">
         <v>255</v>
       </c>
@@ -33202,6 +33673,7 @@
       <c r="O165" s="2" t="d">
         <v>2025-01-02</v>
       </c>
+      <c r="P165" s="19"/>
       <c r="Q165" s="2" t="d">
         <v>2025-01-02</v>
       </c>
@@ -33272,7 +33744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:59">
       <c r="A166">
         <v>286</v>
       </c>
@@ -33306,6 +33778,7 @@
       <c r="O166" s="2" t="d">
         <v>2025-01-16</v>
       </c>
+      <c r="P166" s="19"/>
       <c r="Q166" s="2" t="d">
         <v>2025-01-16</v>
       </c>
@@ -33376,7 +33849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:59">
       <c r="A167">
         <v>4</v>
       </c>
@@ -33552,7 +34025,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:59">
       <c r="A168">
         <v>16</v>
       </c>
@@ -33725,7 +34198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:59">
       <c r="A169">
         <v>19</v>
       </c>
@@ -33901,7 +34374,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:59">
       <c r="A170">
         <v>20</v>
       </c>
@@ -34077,7 +34550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:59">
       <c r="A171">
         <v>23</v>
       </c>
@@ -34248,7 +34721,7 @@
       </c>
       <c r="BE171" s="3"/>
     </row>
-    <row r="172" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:59">
       <c r="A172">
         <v>62</v>
       </c>
@@ -34424,7 +34897,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:59">
       <c r="A173">
         <v>63</v>
       </c>
@@ -34597,7 +35070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:59">
       <c r="A174">
         <v>64</v>
       </c>
@@ -34770,7 +35243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:59">
       <c r="A175">
         <v>65</v>
       </c>
@@ -34943,7 +35416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:59">
       <c r="A176">
         <v>67</v>
       </c>
@@ -35116,7 +35589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:58">
       <c r="A177">
         <v>68</v>
       </c>
@@ -35289,7 +35762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:58">
       <c r="A178">
         <v>70</v>
       </c>
@@ -35462,7 +35935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:58">
       <c r="A179">
         <v>72</v>
       </c>
@@ -35635,7 +36108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:58">
       <c r="A180">
         <v>75</v>
       </c>
@@ -35808,7 +36281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:58">
       <c r="A181">
         <v>76</v>
       </c>
@@ -35981,7 +36454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:58">
       <c r="A182">
         <v>87</v>
       </c>
@@ -36154,7 +36627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:58">
       <c r="A183">
         <v>88</v>
       </c>
@@ -36327,7 +36800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:58">
       <c r="A184">
         <v>89</v>
       </c>
@@ -36500,7 +36973,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:58">
       <c r="A185">
         <v>92</v>
       </c>
@@ -36670,7 +37143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:58">
       <c r="A186">
         <v>94</v>
       </c>
@@ -36840,7 +37313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:58">
       <c r="A187">
         <v>99</v>
       </c>
@@ -37016,7 +37489,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:58">
       <c r="A188">
         <v>157</v>
       </c>
@@ -37192,7 +37665,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:58">
       <c r="A189">
         <v>158</v>
       </c>
@@ -37368,7 +37841,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:58">
       <c r="A190">
         <v>159</v>
       </c>
@@ -37544,7 +38017,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:58">
       <c r="A191">
         <v>161</v>
       </c>
@@ -37720,7 +38193,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:58">
       <c r="A192">
         <v>160</v>
       </c>
@@ -37896,7 +38369,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:58">
       <c r="A193">
         <v>162</v>
       </c>
@@ -38072,7 +38545,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:58">
       <c r="A194">
         <v>177</v>
       </c>
@@ -38248,7 +38721,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:58">
       <c r="A195">
         <v>186</v>
       </c>
@@ -38424,7 +38897,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:58">
       <c r="A196">
         <v>187</v>
       </c>
@@ -38600,7 +39073,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:58">
       <c r="A197">
         <v>188</v>
       </c>
@@ -38776,7 +39249,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:58">
       <c r="A198">
         <v>189</v>
       </c>
@@ -38952,7 +39425,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:58">
       <c r="A199">
         <v>191</v>
       </c>
@@ -39125,7 +39598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:58">
       <c r="A200">
         <v>199</v>
       </c>
@@ -39298,7 +39771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:58">
       <c r="A201">
         <v>200</v>
       </c>
@@ -39471,7 +39944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:58">
       <c r="A202">
         <v>201</v>
       </c>
@@ -39642,7 +40115,7 @@
       </c>
       <c r="BE202" s="14"/>
     </row>
-    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:58">
       <c r="A203">
         <v>233</v>
       </c>
@@ -39813,7 +40286,7 @@
       </c>
       <c r="BE203" s="14"/>
     </row>
-    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:58">
       <c r="A204">
         <v>234</v>
       </c>
@@ -39984,7 +40457,7 @@
       </c>
       <c r="BE204" s="14"/>
     </row>
-    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:58">
       <c r="A205">
         <v>253</v>
       </c>
@@ -40157,7 +40630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:58">
       <c r="A206">
         <v>256</v>
       </c>
@@ -40333,7 +40806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:58">
       <c r="A207">
         <v>257</v>
       </c>
@@ -40509,7 +40982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:58">
       <c r="A208">
         <v>258</v>
       </c>
@@ -40682,7 +41155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:59">
       <c r="A209">
         <v>259</v>
       </c>
@@ -40855,7 +41328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:59">
       <c r="A210">
         <v>261</v>
       </c>
@@ -41031,7 +41504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="211" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:59">
       <c r="A211">
         <v>267</v>
       </c>
@@ -41204,7 +41677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="212" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:59">
       <c r="A212">
         <v>268</v>
       </c>
@@ -41377,7 +41850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="213" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:59">
       <c r="A213">
         <v>269</v>
       </c>
@@ -41550,7 +42023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:59">
       <c r="A214">
         <v>270</v>
       </c>
@@ -41723,7 +42196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:59">
       <c r="A215">
         <v>276</v>
       </c>
@@ -41899,7 +42372,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="216" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:59">
       <c r="A216">
         <v>281</v>
       </c>
@@ -42075,7 +42548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:59">
       <c r="A217">
         <v>282</v>
       </c>
@@ -42251,7 +42724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="218" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:59">
       <c r="A218">
         <v>24</v>
       </c>
@@ -42355,7 +42828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:59">
       <c r="A219">
         <v>25</v>
       </c>
@@ -42423,7 +42896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:59">
       <c r="A220">
         <v>26</v>
       </c>
@@ -42596,7 +43069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="221" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:59">
       <c r="A221">
         <v>48</v>
       </c>
@@ -42769,7 +43242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:59">
       <c r="A222">
         <v>59</v>
       </c>
@@ -42942,7 +43415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:59">
       <c r="A223">
         <v>71</v>
       </c>
@@ -43115,7 +43588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:59">
       <c r="A224">
         <v>73</v>
       </c>
@@ -43288,7 +43761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:57">
       <c r="A225">
         <v>79</v>
       </c>
@@ -43461,7 +43934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:57">
       <c r="A226">
         <v>93</v>
       </c>
@@ -43634,7 +44107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:57">
       <c r="A227">
         <v>112</v>
       </c>
@@ -43807,7 +44280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:57">
       <c r="A228">
         <v>115</v>
       </c>
@@ -43872,7 +44345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:57">
       <c r="A229">
         <v>127</v>
       </c>
@@ -44045,7 +44518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:57">
       <c r="A230">
         <v>137</v>
       </c>
@@ -44218,7 +44691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:57">
       <c r="A231">
         <v>140</v>
       </c>
@@ -44391,7 +44864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:57">
       <c r="A232">
         <v>171</v>
       </c>
@@ -44564,7 +45037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:57">
       <c r="A233">
         <v>173</v>
       </c>
@@ -44737,7 +45210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:57">
       <c r="A234">
         <v>190</v>
       </c>
@@ -44910,7 +45383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:57">
       <c r="A235">
         <v>197</v>
       </c>
@@ -45083,7 +45556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:57">
       <c r="A236">
         <v>228</v>
       </c>
@@ -45256,7 +45729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:57">
       <c r="A237">
         <v>232</v>
       </c>
@@ -45429,7 +45902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:57">
       <c r="A238">
         <v>260</v>
       </c>
@@ -45602,7 +46075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:57">
       <c r="A239">
         <v>265</v>
       </c>
@@ -45775,7 +46248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:57">
       <c r="A240">
         <v>277</v>
       </c>
@@ -45948,7 +46421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:59">
       <c r="A241">
         <v>283</v>
       </c>
@@ -46121,7 +46594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="242" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:59">
       <c r="A242">
         <v>290</v>
       </c>
@@ -46297,7 +46770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="243" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:59">
       <c r="A243">
         <v>2</v>
       </c>
@@ -46470,7 +46943,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:59">
       <c r="A244">
         <v>3</v>
       </c>
@@ -46643,7 +47116,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:59">
       <c r="A245">
         <v>6</v>
       </c>
@@ -46814,7 +47287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:59">
       <c r="A246">
         <v>13</v>
       </c>
@@ -46987,7 +47460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="247" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:59">
       <c r="A247">
         <v>14</v>
       </c>
@@ -47160,7 +47633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:59">
       <c r="A248">
         <v>15</v>
       </c>
@@ -47333,7 +47806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="249" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:59">
       <c r="A249">
         <v>17</v>
       </c>
@@ -47506,7 +47979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="250" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:59">
       <c r="A250">
         <v>18</v>
       </c>
@@ -47679,7 +48152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:59">
       <c r="A251">
         <v>31</v>
       </c>
@@ -47855,7 +48328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="252" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:59">
       <c r="A252">
         <v>45</v>
       </c>
@@ -48031,7 +48504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:59">
       <c r="A253">
         <v>46</v>
       </c>
@@ -48207,7 +48680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:59">
       <c r="A254">
         <v>61</v>
       </c>
@@ -48383,7 +48856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:59">
       <c r="A255">
         <v>69</v>
       </c>
@@ -48429,7 +48902,7 @@
       <c r="O255" s="2" t="d">
         <v>2024-08-21</v>
       </c>
-      <c r="P255" s="19" t="s">
+      <c r="P255" s="21" t="s">
         <v>309</v>
       </c>
       <c r="Q255" s="2" t="d">
@@ -48554,7 +49027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:59">
       <c r="A256">
         <v>78</v>
       </c>
@@ -48600,7 +49073,7 @@
       <c r="O256" s="2" t="d">
         <v>2024-08-11</v>
       </c>
-      <c r="P256" s="19" t="s">
+      <c r="P256" s="21" t="s">
         <v>311</v>
       </c>
       <c r="Q256" s="2" t="d">
@@ -48727,7 +49200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:59">
       <c r="A257">
         <v>91</v>
       </c>
@@ -48898,7 +49371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:59">
       <c r="A258">
         <v>122</v>
       </c>
@@ -49071,7 +49544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:59">
       <c r="A259">
         <v>124</v>
       </c>
@@ -49244,7 +49717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:59">
       <c r="A260">
         <v>125</v>
       </c>
@@ -49417,7 +49890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:59">
       <c r="A261">
         <v>126</v>
       </c>
@@ -49590,7 +50063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:59">
       <c r="A262">
         <v>128</v>
       </c>
@@ -49763,7 +50236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:59">
       <c r="A263">
         <v>131</v>
       </c>
@@ -49936,7 +50409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:59">
       <c r="A264">
         <v>135</v>
       </c>
@@ -50109,7 +50582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:59">
       <c r="A265">
         <v>136</v>
       </c>
@@ -50282,7 +50755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:59">
       <c r="A266">
         <v>139</v>
       </c>
@@ -50455,7 +50928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:59">
       <c r="A267">
         <v>148</v>
       </c>
@@ -50628,7 +51101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="268" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:59">
       <c r="A268">
         <v>149</v>
       </c>
@@ -50801,7 +51274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="269" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:59">
       <c r="A269">
         <v>150</v>
       </c>
@@ -50980,7 +51453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:59">
       <c r="A270">
         <v>165</v>
       </c>
@@ -51026,7 +51499,7 @@
       <c r="O270" s="2" t="d">
         <v>2024-12-27</v>
       </c>
-      <c r="P270" s="19" t="s">
+      <c r="P270" s="21" t="s">
         <v>323</v>
       </c>
       <c r="Q270" s="2" t="d">
@@ -51149,7 +51622,7 @@
       </c>
       <c r="BE270" s="3"/>
     </row>
-    <row r="271" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:59">
       <c r="A271">
         <v>166</v>
       </c>
@@ -51318,7 +51791,7 @@
       </c>
       <c r="BE271" s="3"/>
     </row>
-    <row r="272" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:59">
       <c r="A272">
         <v>169</v>
       </c>
@@ -51491,7 +51964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="273" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:59">
       <c r="A273">
         <v>170</v>
       </c>
@@ -51664,7 +52137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:59">
       <c r="A274">
         <v>174</v>
       </c>
@@ -51837,7 +52310,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:59">
       <c r="A275">
         <v>175</v>
       </c>
@@ -52010,7 +52483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:59">
       <c r="A276">
         <v>176</v>
       </c>
@@ -52183,7 +52656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="277" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:59">
       <c r="A277">
         <v>182</v>
       </c>
@@ -52229,7 +52702,7 @@
       <c r="O277" s="2" t="d">
         <v>2025-02-05</v>
       </c>
-      <c r="P277" s="19" t="s">
+      <c r="P277" s="21" t="s">
         <v>197</v>
       </c>
       <c r="Q277" s="2" t="d">
@@ -52356,7 +52829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="278" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:59">
       <c r="A278">
         <v>183</v>
       </c>
@@ -52529,7 +53002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:59">
       <c r="A279">
         <v>184</v>
       </c>
@@ -52702,7 +53175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="280" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:59">
       <c r="A280">
         <v>185</v>
       </c>
@@ -52875,7 +53348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:59">
       <c r="A281">
         <v>193</v>
       </c>
@@ -53051,7 +53524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="282" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:59">
       <c r="A282">
         <v>198</v>
       </c>
@@ -53224,7 +53697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:59">
       <c r="A283">
         <v>226</v>
       </c>
@@ -53397,7 +53870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:59">
       <c r="A284">
         <v>227</v>
       </c>
@@ -53570,7 +54043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:59">
       <c r="A285">
         <v>230</v>
       </c>
@@ -53743,7 +54216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:59">
       <c r="A286">
         <v>250</v>
       </c>
@@ -53916,7 +54389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:59">
       <c r="A287">
         <v>252</v>
       </c>
@@ -54089,7 +54562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="288" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:59">
       <c r="A288">
         <v>266</v>
       </c>
@@ -54262,7 +54735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:59">
       <c r="A289">
         <v>279</v>
       </c>
@@ -54438,7 +54911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:59">
       <c r="A290">
         <v>284</v>
       </c>
@@ -54611,7 +55084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:59">
       <c r="A291">
         <v>285</v>
       </c>
@@ -54784,7 +55257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="292" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:59">
       <c r="A292">
         <v>291</v>
       </c>
@@ -54898,7 +55371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:59">
       <c r="A293">
         <v>292</v>
       </c>
@@ -55014,7 +55487,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:59">
       <c r="A294">
         <v>293</v>
       </c>
@@ -55156,24 +55629,24 @@
       <selection activeCell="E9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>257</v>
       </c>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1D4C9F8-32F4-4454-BCF3-518887BCDD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A63BDA2-2DF2-4D11-974F-031F488729D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,7 +1699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10635" uniqueCount="371">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10643" uniqueCount="373">
   <si>
     <t>Type</t>
   </si>
@@ -2813,6 +2813,12 @@
   <si>
     <t>客人遭遇支票詐騙</t>
   </si>
+  <si>
+    <t>024N000000000000002</t>
+  </si>
+  <si>
+    <t>Mr CHAN TAI MAN AND OTHERS</t>
+  </si>
 </sst>
 </file>
 
@@ -3508,7 +3514,7 @@
             <xdr:cNvPr id="1025" name="Comment 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADF08DC-3EAA-E1F9-0313-6970FF1E50E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B80C1E-ECF9-634C-201F-54881940869F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3577,7 +3583,7 @@
             <xdr:cNvPr id="1026" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A298C31-DE6B-ECE7-EFCB-8A968E1A1DEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E6391F-F666-13A0-3EFC-A65D4086FA55}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3646,7 +3652,7 @@
             <xdr:cNvPr id="1027" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63043169-24AB-D833-21B5-B07DEB19EC3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7160A444-8F9B-DFC6-BA45-93C64D6A6C74}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3715,7 +3721,7 @@
             <xdr:cNvPr id="1028" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94804315-3D74-B682-FD96-A91AAB3945E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0C1408-BCD6-7843-62C5-00D9505EAD5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3784,7 +3790,7 @@
             <xdr:cNvPr id="1029" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC2D59B-B244-FFBD-82A7-7EC689EC2613}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86ADE836-BC26-3601-CE9C-79500C836DEC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3853,7 +3859,7 @@
             <xdr:cNvPr id="1030" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474089F8-0BA3-88DA-282B-15ECFEE5D0B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5072C9F4-E2FE-B84B-4637-2A231A473DC3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3922,7 +3928,7 @@
             <xdr:cNvPr id="1031" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E071DF0-EA1A-E065-CF78-EC39099282C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBF0167-D5F6-C858-CFD4-8B456BFAAB40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3991,7 +3997,7 @@
             <xdr:cNvPr id="1032" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4FBB9E-CC0E-56D7-5903-7EAB463AFA60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51485E7E-9F48-370C-C836-F5FA4EA1CF78}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4060,7 +4066,7 @@
             <xdr:cNvPr id="1033" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E788D5-E0FD-8452-D9CD-C5F24B2A1959}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2734DBF-425E-86D4-3F83-02947B2809A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4129,7 +4135,7 @@
             <xdr:cNvPr id="1034" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9101B2D6-AB79-BB30-1263-759FEBE33340}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE31BCE-730B-6EB4-02D3-780637FC434C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4198,7 +4204,7 @@
             <xdr:cNvPr id="1035" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BF754B-1C5D-55B4-8FBD-7303923F7446}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948CA201-F3EF-EAE0-A40A-B093D0B8ED90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4267,7 +4273,7 @@
             <xdr:cNvPr id="1036" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2729B6F-C10E-D8EF-8E4E-07676BAE5673}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319397DB-19D9-7DBE-EB00-31045BB406A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4336,7 +4342,7 @@
             <xdr:cNvPr id="1037" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0898CF6C-51EE-E372-FF00-31DF3B8FFAF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA0E6F-A245-6C3D-F496-E2DA55C0B5F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4405,7 +4411,7 @@
             <xdr:cNvPr id="1038" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4136CF-8138-03E7-0823-E65E56789895}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38269F3A-DE32-09D5-7C67-6FF4ED712AEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4474,7 +4480,7 @@
             <xdr:cNvPr id="1039" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1555E580-2C31-8E39-44B7-11824A32437C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD60416-3062-F919-57AC-5B433C77F534}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4543,7 +4549,7 @@
             <xdr:cNvPr id="1040" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED467E3-2F4D-4394-AA74-E9A5460B38B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B680F32-1475-BC27-37B4-404193D08021}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,7 +4618,7 @@
             <xdr:cNvPr id="1041" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FCDEBB-F230-0EFA-4F0E-9F6708E00C00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD4C7AF-B8DB-1C2E-FF06-941F46B70715}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4681,7 +4687,7 @@
             <xdr:cNvPr id="1042" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BA8D32-1CF1-B489-FBD4-6FC268333548}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA61F31-C17E-41CF-10EC-2AA3955655F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4750,7 +4756,7 @@
             <xdr:cNvPr id="1043" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D81485-11F1-C5E4-46F4-BDDCC46250AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287F63AA-EA4B-435D-0FB8-EC0D689DE10D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4819,7 +4825,7 @@
             <xdr:cNvPr id="1044" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EE53A5-3A80-BDDF-3B28-52EEAA40EFDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1385284-CF8A-473C-193B-C0CB85D64138}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4888,7 +4894,7 @@
             <xdr:cNvPr id="1045" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D70D6B-DD12-43EE-3663-AF73670C3896}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9524DA71-5628-98EE-D5DC-4CF0FA89F798}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4957,7 +4963,7 @@
             <xdr:cNvPr id="1046" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4AD721-917B-1796-6F67-1753EB0611EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCC357A-569C-F9EB-C1F2-1F0BEB487A4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5026,7 +5032,7 @@
             <xdr:cNvPr id="1047" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF43F84-A564-2456-230E-AAF40658C8A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2DA949-E2BE-19C6-B2C5-F9143302A607}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5095,7 +5101,7 @@
             <xdr:cNvPr id="1048" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C131CB3-8F8C-EF61-46B0-7873B5AC0AFE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C562452-2CD9-19CD-3231-3EF737252D29}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5164,7 +5170,7 @@
             <xdr:cNvPr id="1049" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8881F795-DBA1-BF1B-0347-AC980720205E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A44A48-A5CA-6002-441A-81BD2717A81A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5233,7 +5239,7 @@
             <xdr:cNvPr id="1050" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD505BF1-3556-E37C-BA4A-6D9AF2BB155C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC89C0-83D6-CCDD-92CA-64E84C19DA18}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5302,7 +5308,7 @@
             <xdr:cNvPr id="1051" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810969BC-F514-4D15-9252-9381E6ABFB4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC8ABB9-8AC0-DC98-FD37-E185BEF784A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5371,7 +5377,7 @@
             <xdr:cNvPr id="1052" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAB25C0-A81A-C0F8-79FE-219D7E5549AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D573B2-0A0A-5BFF-9B1E-189A1E491764}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5440,7 +5446,7 @@
             <xdr:cNvPr id="1053" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224630E1-0808-82DE-A956-7379FB88F467}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A96C86-E8B2-47B5-FF12-BE41A5FC478E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5509,7 +5515,7 @@
             <xdr:cNvPr id="1054" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AD59B2-3786-B875-4864-1E8DD0362211}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38251C12-65D4-05F8-8D66-A39D1ECDE815}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5578,7 +5584,7 @@
             <xdr:cNvPr id="1055" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FC68A5-FE36-34B2-2DCD-05CF58DD7BD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7929406D-E3D2-A18C-14E1-451CB13ECE23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5647,7 +5653,7 @@
             <xdr:cNvPr id="1056" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF3361B-B0FB-1E3C-7DAF-31546C3BE0B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41B0AC4-FDA8-93A1-3631-AB12ADF3AC47}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5716,7 +5722,7 @@
             <xdr:cNvPr id="1057" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1217932-1536-844E-E96D-ADEAC6012E60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C6CF92-E1ED-4671-DCA1-1A4658A5B32B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5785,7 +5791,7 @@
             <xdr:cNvPr id="1058" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB79C3D-EEEB-F0C8-0510-4F2A3B5FA24A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BDACEE-BA6B-1F28-0284-A317AFF7BDB4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5854,7 +5860,7 @@
             <xdr:cNvPr id="1059" name="Comment 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCF785E-92CC-9233-595F-69600B8BB872}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A9150-C8DD-9488-762D-81D1F86EF67A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5923,7 +5929,7 @@
             <xdr:cNvPr id="1060" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDC1A73-F0A4-AA55-B259-36B5BFA36D62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8255FA2-19E5-EB5B-8DAE-AB0CB153BED7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5992,7 +5998,7 @@
             <xdr:cNvPr id="1061" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053CFAD1-8E92-7A62-9FE1-69A514B2F7FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A69831-C12E-1068-2DDC-0703093C1AB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6061,7 +6067,7 @@
             <xdr:cNvPr id="1062" name="Comment 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D179E7-7D75-7935-DA8C-0118E2402FFC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7A2E1D-7319-51C0-E2A7-B74D472C177E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6130,7 +6136,7 @@
             <xdr:cNvPr id="1063" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802C983B-6B95-2261-4A39-EF73833F7039}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A287EC8-1425-11BD-2128-E1B8B51CF35E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6199,7 +6205,7 @@
             <xdr:cNvPr id="1064" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A68766-1A79-9F8C-52EC-636E0287845E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1FB5DF-003C-6435-308A-B8C8A1508164}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6268,7 +6274,7 @@
             <xdr:cNvPr id="1065" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4530FFB-A68D-E4F9-294C-F7D9BA232E48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8685E128-24CB-98FE-B7F2-5F70A9B4B08A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6337,7 +6343,7 @@
             <xdr:cNvPr id="1066" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391EB6F2-CB89-B7EE-E382-B00DFB18F4E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3013314B-3202-27C3-1F59-2D0A61C77CD0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6406,7 +6412,7 @@
             <xdr:cNvPr id="1067" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93C5DB5-905B-98F3-C2B7-4908B02A471B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0F7E26-7266-43CA-9DF9-A6F90ACF3174}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6475,7 +6481,7 @@
             <xdr:cNvPr id="1068" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD839342-3D41-E6CA-1704-D2B120846B82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A3E8C0-31A7-B4DD-6065-02029111B29C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6544,7 +6550,7 @@
             <xdr:cNvPr id="1069" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C45384-0165-8A1D-C0D9-28CC6744C212}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A440C-482A-3E92-FCBE-D41FD43DA032}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6613,7 +6619,7 @@
             <xdr:cNvPr id="1070" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4091F9E-AE92-CE4C-770D-7BDB13F9698D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43DC3F3-BCF2-40C3-D817-CA307820211C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6682,7 +6688,7 @@
             <xdr:cNvPr id="1071" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9572A559-3524-42FD-58A3-E6336A084ADA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFE0B0B-288B-DDFB-58C1-97E8B0D1D57F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6751,7 +6757,7 @@
             <xdr:cNvPr id="1072" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDFE122-53CD-A394-BFB1-8DAF2EE8F6CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2856E1-77C1-C302-C39E-BC775CD232E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6820,7 +6826,7 @@
             <xdr:cNvPr id="1075" name="Comment 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F03C38F-4359-E16C-C74B-FD453560190C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D57F514-C653-BD71-BD14-6FF3157EA8FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6889,7 +6895,7 @@
             <xdr:cNvPr id="1076" name="Comment 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974E42AD-EFBA-888D-C014-B0343F17DD80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED77797C-0056-8CAA-7753-BF524781380F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6958,7 +6964,7 @@
             <xdr:cNvPr id="1077" name="Comment 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF39F9BE-A17A-AFFA-AEE1-30496CF94309}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB9DCDB-02A2-A1EE-7249-0F0109B6B56C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7027,7 +7033,7 @@
             <xdr:cNvPr id="1078" name="Comment 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDAFE9C-F5A5-A330-46BE-2C55743CB5F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCFEB82-A583-68D2-C331-F496485DD162}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7096,7 +7102,7 @@
             <xdr:cNvPr id="1079" name="Comment 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CD5C0E-8531-FB93-B8EB-4C50BE7409A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BA3775-D11C-9A0D-5C67-077A59EBA7C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7165,7 +7171,7 @@
             <xdr:cNvPr id="1080" name="Comment 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D0050F-79A8-3E97-6636-E4BA10918959}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E3BAA9-71DD-7852-AA2F-F5F40D971B76}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7234,7 +7240,7 @@
             <xdr:cNvPr id="1082" name="Comment 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C1B534-01E3-FAAB-D581-ADC656A2B3FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCB0733-884D-9F5D-FD30-14BB0F4B3D5D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7760,9 +7766,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE292" sqref="BE292"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8782,7 +8788,9 @@
       <c r="AQ6" t="s">
         <v>46</v>
       </c>
-      <c r="AR6" s="14"/>
+      <c r="AR6" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AS6" t="s">
         <v>47</v>
       </c>
@@ -8953,7 +8961,9 @@
       <c r="AQ7" t="s">
         <v>46</v>
       </c>
-      <c r="AR7" s="14"/>
+      <c r="AR7" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="AS7" t="s">
         <v>47</v>
       </c>
@@ -11960,6 +11970,9 @@
       <c r="F25" s="3">
         <v>7</v>
       </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
@@ -12023,15 +12036,25 @@
       <c r="AS25" t="s">
         <v>47</v>
       </c>
+      <c r="AT25" s="13" t="s">
+        <v>371</v>
+      </c>
       <c r="AU25" t="s">
         <v>47</v>
       </c>
+      <c r="AV25" t="s">
+        <v>47</v>
+      </c>
       <c r="AW25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX25" t="s">
         <v>49</v>
       </c>
       <c r="AY25" t="s">
         <v>48</v>
       </c>
+      <c r="AZ25" s="26"/>
       <c r="BA25" t="s">
         <v>170</v>
       </c>
@@ -12061,6 +12084,9 @@
       <c r="F26" s="3">
         <v>9</v>
       </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
@@ -12833,7 +12859,9 @@
       <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A63BDA2-2DF2-4D11-974F-031F488729D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F246CAD9-4DC0-472D-BCE7-710DE246505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Questions to FO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaction_From_IR_and_Source!$B$1:$B$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaction_From_IR_and_Source!$BA$1:$BA$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,6 +55,7 @@
     <author>tc={95E994F7-9232-4F2A-BD4C-7AAFF0AE49A4}</author>
     <author>tc={0384FECB-12F4-4A35-A1B7-B638B2E44523}</author>
     <author>tc={9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}</author>
+    <author>tc={2A6A22BB-51D2-48E3-9F93-C4845EC18077}</author>
     <author>tc={A3EC3A92-D717-4190-BE2F-64BEE1461758}</author>
     <author>tc={94C05424-DAC0-4D65-B81D-51EFF7ACB586}</author>
     <author>tc={9BED13F7-064B-4F07-9C5E-3529D3214E08}</author>
@@ -476,7 +477,36 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF63" authorId="13" shapeId="1037" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
+    <comment ref="T38" authorId="13" shapeId="1083" xr:uid="{2A6A22BB-51D2-48E3-9F93-C4845EC18077}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    56000 -&gt; 50000</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="BF63" authorId="14" shapeId="1037" xr:uid="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -505,7 +535,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL64" authorId="14" shapeId="1038" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
+    <comment ref="AL64" authorId="15" shapeId="1038" xr:uid="{94C05424-DAC0-4D65-B81D-51EFF7ACB586}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -534,7 +564,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BA65" authorId="15" shapeId="1039" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
+    <comment ref="BA65" authorId="16" shapeId="1039" xr:uid="{9BED13F7-064B-4F07-9C5E-3529D3214E08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -563,7 +593,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL66" authorId="16" shapeId="1040" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
+    <comment ref="AL66" authorId="17" shapeId="1040" xr:uid="{53077205-203A-4664-A44E-262ECD84000E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -592,7 +622,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AN70" authorId="17" shapeId="1059" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
+    <comment ref="AN70" authorId="18" shapeId="1059" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -621,7 +651,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL79" authorId="18" shapeId="1060" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
+    <comment ref="AL79" authorId="19" shapeId="1060" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -650,7 +680,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="V85" authorId="19" shapeId="1025" xr:uid="{196220C9-B76D-44C6-8703-347D904F0920}">
+    <comment ref="V85" authorId="20" shapeId="1025" xr:uid="{196220C9-B76D-44C6-8703-347D904F0920}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -679,7 +709,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="V86" authorId="20" shapeId="1026" xr:uid="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
+    <comment ref="V86" authorId="21" shapeId="1026" xr:uid="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -708,7 +738,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="P92" authorId="21" shapeId="1061" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
+    <comment ref="P92" authorId="22" shapeId="1061" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -737,7 +767,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP100" authorId="22" shapeId="1041" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
+    <comment ref="AP100" authorId="23" shapeId="1041" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -766,7 +796,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S114" authorId="23" shapeId="1027" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
+    <comment ref="S114" authorId="24" shapeId="1027" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -795,7 +825,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F116" authorId="24" shapeId="1056" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
+    <comment ref="F116" authorId="25" shapeId="1056" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -824,7 +854,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D118" authorId="25" shapeId="1028" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
+    <comment ref="D118" authorId="26" shapeId="1028" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -853,7 +883,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G118" authorId="26" shapeId="1029" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
+    <comment ref="G118" authorId="27" shapeId="1029" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -882,7 +912,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T118" authorId="27" shapeId="1030" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
+    <comment ref="T118" authorId="28" shapeId="1030" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -911,7 +941,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR133" authorId="28" shapeId="1031" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
+    <comment ref="AR133" authorId="29" shapeId="1031" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -940,7 +970,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF158" authorId="29" shapeId="1042" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
+    <comment ref="BF158" authorId="30" shapeId="1042" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -969,7 +999,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AF166" authorId="30" shapeId="1062" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
+    <comment ref="AF166" authorId="31" shapeId="1062" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -998,7 +1028,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR168" authorId="31" shapeId="1032" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
+    <comment ref="AR168" authorId="32" shapeId="1032" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1027,7 +1057,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE168" authorId="32" shapeId="1033" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
+    <comment ref="BE168" authorId="33" shapeId="1033" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1056,7 +1086,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T175" authorId="33" shapeId="1063" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
+    <comment ref="T175" authorId="34" shapeId="1063" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1085,7 +1115,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA175" authorId="34" shapeId="1064" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
+    <comment ref="AA175" authorId="35" shapeId="1064" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1114,7 +1144,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU175" authorId="35" shapeId="1065" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
+    <comment ref="AU175" authorId="36" shapeId="1065" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1143,7 +1173,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC175" authorId="36" shapeId="1066" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
+    <comment ref="BC175" authorId="37" shapeId="1066" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1172,7 +1202,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T176" authorId="37" shapeId="1067" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
+    <comment ref="T176" authorId="38" shapeId="1067" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1201,7 +1231,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA176" authorId="38" shapeId="1068" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
+    <comment ref="AA176" authorId="39" shapeId="1068" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1230,7 +1260,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU176" authorId="39" shapeId="1069" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
+    <comment ref="AU176" authorId="40" shapeId="1069" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1259,7 +1289,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC176" authorId="40" shapeId="1070" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
+    <comment ref="BC176" authorId="41" shapeId="1070" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1288,7 +1318,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU177" authorId="41" shapeId="1071" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
+    <comment ref="AU177" authorId="42" shapeId="1071" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1317,7 +1347,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF187" authorId="42" shapeId="1043" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
+    <comment ref="BF187" authorId="43" shapeId="1043" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1346,7 +1376,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D189" authorId="43" shapeId="1044" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
+    <comment ref="D189" authorId="44" shapeId="1044" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1375,7 +1405,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G189" authorId="44" shapeId="1045" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
+    <comment ref="G189" authorId="45" shapeId="1045" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1404,7 +1434,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T189" authorId="45" shapeId="1046" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
+    <comment ref="T189" authorId="46" shapeId="1046" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1433,7 +1463,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP192" authorId="46" shapeId="1047" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
+    <comment ref="AP192" authorId="47" shapeId="1047" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1462,7 +1492,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE202" authorId="47" shapeId="1048" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
+    <comment ref="BE202" authorId="48" shapeId="1048" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1491,7 +1521,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T211" authorId="48" shapeId="1077" xr:uid="{9ED84B29-ED5F-486C-A404-F0177C800C93}">
+    <comment ref="T211" authorId="49" shapeId="1077" xr:uid="{9ED84B29-ED5F-486C-A404-F0177C800C93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1520,7 +1550,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="K262" authorId="49" shapeId="1049" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
+    <comment ref="K262" authorId="50" shapeId="1049" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1549,7 +1579,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S262" authorId="50" shapeId="1050" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
+    <comment ref="S262" authorId="51" shapeId="1050" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1578,7 +1608,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF277" authorId="51" shapeId="1051" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
+    <comment ref="BF277" authorId="52" shapeId="1051" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1607,7 +1637,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF282" authorId="52" shapeId="1052" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
+    <comment ref="BF282" authorId="53" shapeId="1052" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1636,7 +1666,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF283" authorId="53" shapeId="1053" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
+    <comment ref="BF283" authorId="54" shapeId="1053" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1665,7 +1695,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T286" authorId="54" shapeId="1072" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
+    <comment ref="T286" authorId="55" shapeId="1072" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1699,7 +1729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10643" uniqueCount="373">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10648" uniqueCount="378">
   <si>
     <t>Type</t>
   </si>
@@ -2819,6 +2849,21 @@
   <si>
     <t>Mr CHAN TAI MAN AND OTHERS</t>
   </si>
+  <si>
+    <t>Take Case 24 as an example. The IR shows that various transaction records are via FPS, but there are no clues in the source file stating that it's FPS other than this CWTF in the transaction log.</t>
+  </si>
+  <si>
+    <t>From the previous discussion between FORMS and FO, we agree that whenever the Transaction Type Source is CWTF, the transaction channel will then be FPS.</t>
+  </si>
+  <si>
+    <t>When Transaction Type Source is CWTF in transaction log, we want to confirm whether it means the payment method is FPS:</t>
+  </si>
+  <si>
+    <t>The transactions in Case 29, Case 46 and Case 48 are also CWTF and there are no other clues in the source file, but the Transaction Code Description is different. Can we also regard the payment method as FPS?</t>
+  </si>
+  <si>
+    <t>Case 36: IR shows transactions 3-11 but they do not exist in transaction log or source file (ODFT)</t>
+  </si>
 </sst>
 </file>
 
@@ -3514,7 +3559,7 @@
             <xdr:cNvPr id="1025" name="Comment 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B80C1E-ECF9-634C-201F-54881940869F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D663665C-D6D2-A8B4-67CC-D1510EB306B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3583,7 +3628,7 @@
             <xdr:cNvPr id="1026" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E6391F-F666-13A0-3EFC-A65D4086FA55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6CA49B-2BE7-12D9-4350-A611DF2739FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3652,7 +3697,7 @@
             <xdr:cNvPr id="1027" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7160A444-8F9B-DFC6-BA45-93C64D6A6C74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F373240-4C8B-9D13-670D-4C0703FF6F3F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3721,7 +3766,7 @@
             <xdr:cNvPr id="1028" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0C1408-BCD6-7843-62C5-00D9505EAD5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D506E58-408A-BA4D-0CA3-53DC89FC7854}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3790,7 +3835,7 @@
             <xdr:cNvPr id="1029" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86ADE836-BC26-3601-CE9C-79500C836DEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955DC625-5922-ABF2-B18F-2360FC386F9A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3859,7 +3904,7 @@
             <xdr:cNvPr id="1030" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5072C9F4-E2FE-B84B-4637-2A231A473DC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5597D603-DC3B-D898-091B-FFD7E607F1AF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3928,7 +3973,7 @@
             <xdr:cNvPr id="1031" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBF0167-D5F6-C858-CFD4-8B456BFAAB40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EDB8BD-12B1-034F-C46D-3F00AFA16928}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3997,7 +4042,7 @@
             <xdr:cNvPr id="1032" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51485E7E-9F48-370C-C836-F5FA4EA1CF78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E1731-9F29-4C63-72F9-2729FBD173AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4066,7 +4111,7 @@
             <xdr:cNvPr id="1033" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2734DBF-425E-86D4-3F83-02947B2809A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4354DA28-3A83-B68D-9767-46332B96CD01}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4135,7 +4180,7 @@
             <xdr:cNvPr id="1034" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE31BCE-730B-6EB4-02D3-780637FC434C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32791AFE-DF2B-0613-E486-34DFB34DB884}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4204,7 +4249,7 @@
             <xdr:cNvPr id="1035" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948CA201-F3EF-EAE0-A40A-B093D0B8ED90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38F34A1-B4A7-F3AF-909B-6454CBE9E912}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4273,7 +4318,7 @@
             <xdr:cNvPr id="1036" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319397DB-19D9-7DBE-EB00-31045BB406A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30E6857-A49A-A9DB-1BEE-8438A797F6B6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4342,7 +4387,7 @@
             <xdr:cNvPr id="1037" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA0E6F-A245-6C3D-F496-E2DA55C0B5F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDCF3F0-585B-3450-82F7-5C37903A5E6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4411,7 +4456,7 @@
             <xdr:cNvPr id="1038" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38269F3A-DE32-09D5-7C67-6FF4ED712AEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C4E766-D014-8FCD-983A-0C3CDBC9D5A8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4480,7 +4525,7 @@
             <xdr:cNvPr id="1039" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD60416-3062-F919-57AC-5B433C77F534}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320418DB-9F70-F24B-615D-102474FEB85E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4549,7 +4594,7 @@
             <xdr:cNvPr id="1040" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B680F32-1475-BC27-37B4-404193D08021}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76DCD5E-2082-3FB3-34BE-E866D303D515}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4618,7 +4663,7 @@
             <xdr:cNvPr id="1041" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD4C7AF-B8DB-1C2E-FF06-941F46B70715}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3666002F-DD64-927D-CA52-49F411A6D2A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4687,7 +4732,7 @@
             <xdr:cNvPr id="1042" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA61F31-C17E-41CF-10EC-2AA3955655F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586CD5F8-88AF-8B00-5DBA-AAD7E297AEB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4756,7 +4801,7 @@
             <xdr:cNvPr id="1043" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287F63AA-EA4B-435D-0FB8-EC0D689DE10D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5663EAC2-22DB-7AE4-A48F-ED8D08A23E6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4825,7 +4870,7 @@
             <xdr:cNvPr id="1044" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1385284-CF8A-473C-193B-C0CB85D64138}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7680AD5-5BB0-2C50-B34B-D72189B190A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4894,7 +4939,7 @@
             <xdr:cNvPr id="1045" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9524DA71-5628-98EE-D5DC-4CF0FA89F798}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DDF07-222B-9E36-8DC3-5093631F893C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4963,7 +5008,7 @@
             <xdr:cNvPr id="1046" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCC357A-569C-F9EB-C1F2-1F0BEB487A4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78ABF189-4FA0-EBF2-F04C-2D882CB353DA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5032,7 +5077,7 @@
             <xdr:cNvPr id="1047" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2DA949-E2BE-19C6-B2C5-F9143302A607}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39E4968-289D-738B-4133-8F3B9BF14678}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5101,7 +5146,7 @@
             <xdr:cNvPr id="1048" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C562452-2CD9-19CD-3231-3EF737252D29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301C106-A1F4-84C5-B2E7-BE2C83A3A82D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5170,7 +5215,7 @@
             <xdr:cNvPr id="1049" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A44A48-A5CA-6002-441A-81BD2717A81A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369C761F-03DF-431B-84E7-EDBEE460A0E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5239,7 +5284,7 @@
             <xdr:cNvPr id="1050" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC89C0-83D6-CCDD-92CA-64E84C19DA18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249FA99F-FBDF-B6EC-56D4-F6B96666B0D6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5308,7 +5353,7 @@
             <xdr:cNvPr id="1051" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC8ABB9-8AC0-DC98-FD37-E185BEF784A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6E9AA9-5CA4-3B72-F579-C5670E94C30E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5377,7 +5422,7 @@
             <xdr:cNvPr id="1052" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D573B2-0A0A-5BFF-9B1E-189A1E491764}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6AC9BB-366C-535C-0795-F06EE0FCEFC6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5446,7 +5491,7 @@
             <xdr:cNvPr id="1053" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A96C86-E8B2-47B5-FF12-BE41A5FC478E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927AD863-0030-AE78-3E80-B2715E41162F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5515,7 +5560,7 @@
             <xdr:cNvPr id="1054" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38251C12-65D4-05F8-8D66-A39D1ECDE815}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90904AD-F05E-55D4-61DE-B9C63715212C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5584,7 +5629,7 @@
             <xdr:cNvPr id="1055" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7929406D-E3D2-A18C-14E1-451CB13ECE23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C841924-1F3D-8353-6D6E-F909CC21AA74}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5653,7 +5698,7 @@
             <xdr:cNvPr id="1056" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41B0AC4-FDA8-93A1-3631-AB12ADF3AC47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5144ABE-14A0-A0B5-2081-D1BCE25672F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5722,7 +5767,7 @@
             <xdr:cNvPr id="1057" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C6CF92-E1ED-4671-DCA1-1A4658A5B32B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E596E1F5-8E74-BAE3-FDE1-52BD6495E00F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5791,7 +5836,7 @@
             <xdr:cNvPr id="1058" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BDACEE-BA6B-1F28-0284-A317AFF7BDB4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E09854-083D-795C-A82E-0C7BD20026F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5860,7 +5905,7 @@
             <xdr:cNvPr id="1059" name="Comment 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A9150-C8DD-9488-762D-81D1F86EF67A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEEAE44-01A9-BA8E-5A5F-B16D5A45953B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5929,7 +5974,7 @@
             <xdr:cNvPr id="1060" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8255FA2-19E5-EB5B-8DAE-AB0CB153BED7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4CF2D0-7736-A7B1-1C1C-46F424BD2591}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5998,7 +6043,7 @@
             <xdr:cNvPr id="1061" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A69831-C12E-1068-2DDC-0703093C1AB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415598E5-AC89-4BC6-9528-A4FA2179A91B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6067,7 +6112,7 @@
             <xdr:cNvPr id="1062" name="Comment 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7A2E1D-7319-51C0-E2A7-B74D472C177E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B791AB-A945-CD30-839A-F9D0699BDDD4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6136,7 +6181,7 @@
             <xdr:cNvPr id="1063" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A287EC8-1425-11BD-2128-E1B8B51CF35E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880A5B9A-71B6-2C4E-F516-206930F81B4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6205,7 +6250,7 @@
             <xdr:cNvPr id="1064" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1FB5DF-003C-6435-308A-B8C8A1508164}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97530642-26C6-7941-4E5E-CA9878025561}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6274,7 +6319,7 @@
             <xdr:cNvPr id="1065" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8685E128-24CB-98FE-B7F2-5F70A9B4B08A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6C33F9-39CE-81DC-10E4-192EC42CACB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6343,7 +6388,7 @@
             <xdr:cNvPr id="1066" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3013314B-3202-27C3-1F59-2D0A61C77CD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A180BAF-91FD-F002-ACB7-E9EE6F5E2923}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6412,7 +6457,7 @@
             <xdr:cNvPr id="1067" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0F7E26-7266-43CA-9DF9-A6F90ACF3174}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BA3376-070B-9096-B9F5-9AD25BCE41B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6481,7 +6526,7 @@
             <xdr:cNvPr id="1068" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A3E8C0-31A7-B4DD-6065-02029111B29C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C8927D-6212-3B9B-388E-9349766845AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6550,7 +6595,7 @@
             <xdr:cNvPr id="1069" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A440C-482A-3E92-FCBE-D41FD43DA032}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049F19BF-7CA7-9688-5902-8260B4C1CCE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6619,7 +6664,7 @@
             <xdr:cNvPr id="1070" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43DC3F3-BCF2-40C3-D817-CA307820211C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65ECBC1-971E-2488-43B5-21796D6FC035}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6688,7 +6733,7 @@
             <xdr:cNvPr id="1071" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFE0B0B-288B-DDFB-58C1-97E8B0D1D57F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998C5BD-1DB9-71A5-9221-3CCF21A5F987}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6757,7 +6802,7 @@
             <xdr:cNvPr id="1072" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2856E1-77C1-C302-C39E-BC775CD232E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9339BC-E399-9DAF-38DC-0B5B19D339D6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6826,7 +6871,7 @@
             <xdr:cNvPr id="1075" name="Comment 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D57F514-C653-BD71-BD14-6FF3157EA8FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6827BCD2-4C04-8780-BA91-C0F3FC0B6BCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6895,7 +6940,7 @@
             <xdr:cNvPr id="1076" name="Comment 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED77797C-0056-8CAA-7753-BF524781380F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59D1463-011D-F414-D17D-9C6A97028DDB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6964,7 +7009,7 @@
             <xdr:cNvPr id="1077" name="Comment 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB9DCDB-02A2-A1EE-7249-0F0109B6B56C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B135EF1-88D1-1514-0FE3-597B79FB019A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7033,7 +7078,7 @@
             <xdr:cNvPr id="1078" name="Comment 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCFEB82-A583-68D2-C331-F496485DD162}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A8926-1A53-7701-E974-DA1B0471A18E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7102,7 +7147,7 @@
             <xdr:cNvPr id="1079" name="Comment 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BA3775-D11C-9A0D-5C67-077A59EBA7C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B40956C-A11D-BBDF-6E19-3EE0D3B33D3A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7171,7 +7216,7 @@
             <xdr:cNvPr id="1080" name="Comment 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E3BAA9-71DD-7852-AA2F-F5F40D971B76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468B046D-5FAB-31D3-BC43-2CA46B23C246}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7240,7 +7285,7 @@
             <xdr:cNvPr id="1082" name="Comment 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCB0733-884D-9F5D-FD30-14BB0F4B3D5D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B1A3A6-8297-1132-56BC-945C106B9E58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7251,6 +7296,75 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="44005500" y="304800"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Comment 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE86CC5A-AC18-B523-3DE4-4CA02E9372F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="16849725" y="7305675"/>
               <a:ext cx="1371600" cy="742950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7633,6 +7747,9 @@
   <threadedComment ref="F26" dT="2025-06-26T20:07:46.09" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{9B5D2C33-04D6-4EFF-BB9D-21DABED3B5F5}">
     <text>Search Warrant with transaction record should be out of scope? If need to keep this transaction, need FO to provide a "Search Warrant with transaction" template/example</text>
   </threadedComment>
+  <threadedComment ref="T38" dT="2025-06-28T20:42:04.57" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{2A6A22BB-51D2-48E3-9F93-C4845EC18077}">
+    <text>56000 -&gt; 50000</text>
+  </threadedComment>
   <threadedComment ref="BF63" dT="2025-06-26T17:57:14.29" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{A3EC3A92-D717-4190-BE2F-64BEE1461758}">
     <text>LLM should ignore WeChat and $170,000</text>
   </threadedComment>
@@ -7767,8 +7884,8 @@
   <dimension ref="A1:BG294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14108,7 +14225,7 @@
         <v>50000</v>
       </c>
       <c r="T38" s="5">
-        <v>56000</v>
+        <v>50000</v>
       </c>
       <c r="U38" s="5">
         <v>50000</v>
@@ -56671,7 +56788,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B294" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG294">
     <sortCondition ref="A2:A294"/>
     <sortCondition ref="B2:B294"/>
@@ -56691,10 +56807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55E947F-7221-1C49-B64E-9FA52A742366}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="C9:E9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -56719,6 +56835,31 @@
         <v>256</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F246CAD9-4DC0-472D-BCE7-710DE246505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{53EC4F8C-E54F-4E65-B09C-B047B3845BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,9 @@
     <author>tc={94C05424-DAC0-4D65-B81D-51EFF7ACB586}</author>
     <author>tc={9BED13F7-064B-4F07-9C5E-3529D3214E08}</author>
     <author>tc={53077205-203A-4664-A44E-262ECD84000E}</author>
-    <author>tc={DF7E57B6-70FF-42DD-9397-F5E5364D0228}</author>
+    <author>tc={C0A0A3DA-DF93-456C-8C52-894A8096A441}</author>
+    <author>tc={95B23DE6-4091-4174-932C-673712BBA1AF}</author>
+    <author>tc={3C217112-DFE3-4AAF-8FA5-180FAD4BEDDD}</author>
     <author>tc={2922773A-70FD-4D1A-A917-B244AA228CDE}</author>
     <author>tc={196220C9-B76D-44C6-8703-347D904F0920}</author>
     <author>tc={94E7B30B-21B6-4E8F-A581-A724B67769EB}</author>
@@ -85,6 +87,7 @@
     <author>tc={F6DFF461-916E-4A17-B02A-760549626797}</author>
     <author>tc={50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}</author>
     <author>tc={0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}</author>
+    <author>tc={69D6FA95-A965-4E9E-8CBB-5110E75D60BF}</author>
     <author>tc={BAE4D323-17EC-4E23-9979-44DC6190FEAC}</author>
     <author>tc={1239B7D1-714D-40A3-AE2A-ECB4E904297B}</author>
     <author>tc={C334E602-D93E-4854-BECE-09DECCD8CC88}</author>
@@ -622,12 +625,70 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AN70" authorId="18" shapeId="1059" xr:uid="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
+    <comment ref="AL70" authorId="18" shapeId="1084" xr:uid="{C0A0A3DA-DF93-456C-8C52-894A8096A441}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Department is LIFE CALL CENTRE (HASE)</t>
+    Department: LIFE CALL CENTRE (HASE)</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="AM70" authorId="19" shapeId="1085" xr:uid="{95B23DE6-4091-4174-932C-673712BBA1AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Department: LIFE CALL CENTRE (HASE)</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>40</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="AN70" authorId="20" shapeId="1086" xr:uid="{3C217112-DFE3-4AAF-8FA5-180FAD4BEDDD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Department: LIFE CALL CENTRE (HASE)</t>
       </text>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="v"/>
@@ -636,22 +697,22 @@
             <anchor>
               <from>
                 <xdr:col>40</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>120</xdr:row>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>45</xdr:col>
+                <xdr:col>41</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>140</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AL79" authorId="19" shapeId="1060" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
+    <comment ref="AL79" authorId="21" shapeId="1060" xr:uid="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -680,7 +741,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="V85" authorId="20" shapeId="1025" xr:uid="{196220C9-B76D-44C6-8703-347D904F0920}">
+    <comment ref="V85" authorId="22" shapeId="1025" xr:uid="{196220C9-B76D-44C6-8703-347D904F0920}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -709,7 +770,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="V86" authorId="21" shapeId="1026" xr:uid="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
+    <comment ref="V86" authorId="23" shapeId="1026" xr:uid="{94E7B30B-21B6-4E8F-A581-A724B67769EB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -738,7 +799,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="P92" authorId="22" shapeId="1061" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
+    <comment ref="P92" authorId="24" shapeId="1061" xr:uid="{8A1D30E8-9476-4896-87F4-1B78F84E2FB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -767,7 +828,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP100" authorId="23" shapeId="1041" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
+    <comment ref="AP100" authorId="25" shapeId="1041" xr:uid="{DB927772-8558-4A28-819E-6607D36D877B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -796,7 +857,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S114" authorId="24" shapeId="1027" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
+    <comment ref="S114" authorId="26" shapeId="1027" xr:uid="{6319BB84-C044-49DC-92A3-4A530C7B7FBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -825,7 +886,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F116" authorId="25" shapeId="1056" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
+    <comment ref="F116" authorId="27" shapeId="1056" xr:uid="{2D04751D-3875-42FC-B038-A7AD4A6617AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -854,7 +915,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D118" authorId="26" shapeId="1028" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
+    <comment ref="D118" authorId="28" shapeId="1028" xr:uid="{176F5DC3-7060-4515-837F-1A41A3605F27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -883,7 +944,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G118" authorId="27" shapeId="1029" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
+    <comment ref="G118" authorId="29" shapeId="1029" xr:uid="{DCBE5D4D-CB86-4A34-96D1-993989B602AE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -912,7 +973,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T118" authorId="28" shapeId="1030" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
+    <comment ref="T118" authorId="30" shapeId="1030" xr:uid="{F1D57455-5D02-4D56-A1ED-9966BF7606D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -941,7 +1002,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR133" authorId="29" shapeId="1031" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
+    <comment ref="AR133" authorId="31" shapeId="1031" xr:uid="{1CE86C88-B9CF-4118-9F2C-A7B6FE2D1EBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -970,7 +1031,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF158" authorId="30" shapeId="1042" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
+    <comment ref="BF158" authorId="32" shapeId="1042" xr:uid="{C56CB912-E65E-4278-B7AA-3920F1263796}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -999,7 +1060,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AF166" authorId="31" shapeId="1062" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
+    <comment ref="AF166" authorId="33" shapeId="1062" xr:uid="{5FED18F2-3DE6-45B2-AF9B-C0F6502F6A5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1028,7 +1089,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AR168" authorId="32" shapeId="1032" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
+    <comment ref="AR168" authorId="34" shapeId="1032" xr:uid="{7B4BDEE1-68E2-40AF-A376-ABC491205995}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1057,7 +1118,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE168" authorId="33" shapeId="1033" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
+    <comment ref="BE168" authorId="35" shapeId="1033" xr:uid="{4117C750-D748-45DB-A58C-9D09163F25D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1086,7 +1147,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T175" authorId="34" shapeId="1063" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
+    <comment ref="T175" authorId="36" shapeId="1063" xr:uid="{F5784825-E0D6-4DEE-B887-500D315B8FCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1115,7 +1176,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA175" authorId="35" shapeId="1064" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
+    <comment ref="AA175" authorId="37" shapeId="1064" xr:uid="{2A88F3B4-30AA-4A4B-8C78-1F4E99D68BFF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1144,7 +1205,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU175" authorId="36" shapeId="1065" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
+    <comment ref="AU175" authorId="38" shapeId="1065" xr:uid="{43A67F06-2A88-47E4-9CC2-098496686932}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1173,7 +1234,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC175" authorId="37" shapeId="1066" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
+    <comment ref="BC175" authorId="39" shapeId="1066" xr:uid="{4EEDFF45-87EE-4559-B6EF-66513266C0F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1202,7 +1263,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T176" authorId="38" shapeId="1067" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
+    <comment ref="T176" authorId="40" shapeId="1067" xr:uid="{DB6D9693-362A-4DFA-9630-05E875B3F632}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1231,7 +1292,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AA176" authorId="39" shapeId="1068" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
+    <comment ref="AA176" authorId="41" shapeId="1068" xr:uid="{ED6BEE2C-A959-4FD3-AEE8-AA81576C18E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1260,7 +1321,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU176" authorId="40" shapeId="1069" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
+    <comment ref="AU176" authorId="42" shapeId="1069" xr:uid="{F6DFF461-916E-4A17-B02A-760549626797}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1289,7 +1350,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BC176" authorId="41" shapeId="1070" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
+    <comment ref="BC176" authorId="43" shapeId="1070" xr:uid="{50CFFE76-EB93-45BB-921C-EA5D3E4F7FD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1318,7 +1379,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AU177" authorId="42" shapeId="1071" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
+    <comment ref="AU177" authorId="44" shapeId="1071" xr:uid="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1347,7 +1408,36 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF187" authorId="43" shapeId="1043" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
+    <comment ref="T179" authorId="45" shapeId="1088" xr:uid="{69D6FA95-A965-4E9E-8CBB-5110E75D60BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    115555 -&gt; 110555</t>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>177</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>181</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="BF187" authorId="46" shapeId="1043" xr:uid="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1376,7 +1466,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="D189" authorId="44" shapeId="1044" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
+    <comment ref="D189" authorId="47" shapeId="1044" xr:uid="{1239B7D1-714D-40A3-AE2A-ECB4E904297B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1405,7 +1495,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="G189" authorId="45" shapeId="1045" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
+    <comment ref="G189" authorId="48" shapeId="1045" xr:uid="{C334E602-D93E-4854-BECE-09DECCD8CC88}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1434,7 +1524,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T189" authorId="46" shapeId="1046" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
+    <comment ref="T189" authorId="49" shapeId="1046" xr:uid="{A7F0A1CB-4527-45BD-B21E-65A95B58A115}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1463,7 +1553,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="AP192" authorId="47" shapeId="1047" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
+    <comment ref="AP192" authorId="50" shapeId="1047" xr:uid="{6E144E3B-7E6C-4235-8F50-1737BAF6EF08}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1492,7 +1582,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BE202" authorId="48" shapeId="1048" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
+    <comment ref="BE202" authorId="51" shapeId="1048" xr:uid="{022613F2-1112-456B-8AF2-7CAE176DBA02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1521,7 +1611,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T211" authorId="49" shapeId="1077" xr:uid="{9ED84B29-ED5F-486C-A404-F0177C800C93}">
+    <comment ref="T211" authorId="52" shapeId="1077" xr:uid="{9ED84B29-ED5F-486C-A404-F0177C800C93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1550,7 +1640,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="K262" authorId="50" shapeId="1049" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
+    <comment ref="K262" authorId="53" shapeId="1049" xr:uid="{0DC0AF37-90D6-4B80-9E2A-E3695C431FCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1579,7 +1669,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="S262" authorId="51" shapeId="1050" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
+    <comment ref="S262" authorId="54" shapeId="1050" xr:uid="{E54FB5C1-F140-483B-9AAD-E1F1D97492A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1608,7 +1698,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF277" authorId="52" shapeId="1051" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
+    <comment ref="BF277" authorId="55" shapeId="1051" xr:uid="{4830B1F5-9953-4024-B4F9-B7DA36158D57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1637,7 +1727,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF282" authorId="53" shapeId="1052" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
+    <comment ref="BF282" authorId="56" shapeId="1052" xr:uid="{2689BE34-C110-4338-8B67-82D45D9A120F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1666,7 +1756,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="BF283" authorId="54" shapeId="1053" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
+    <comment ref="BF283" authorId="57" shapeId="1053" xr:uid="{66F75BF7-84E3-4455-BD0D-A1FEBCD54B97}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1695,7 +1785,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="T286" authorId="55" shapeId="1072" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
+    <comment ref="T286" authorId="58" shapeId="1072" xr:uid="{F711E1B0-DCCE-4DAD-A782-87D6B49D8137}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1729,7 +1819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10648" uniqueCount="378">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10671" uniqueCount="379">
   <si>
     <t>Type</t>
   </si>
@@ -2529,9 +2619,6 @@
     <t>CCB</t>
   </si>
   <si>
-    <t>Heng Seng Bank</t>
-  </si>
-  <si>
     <t>ZA Bank</t>
   </si>
   <si>
@@ -2863,6 +2950,12 @@
   </si>
   <si>
     <t>Case 36: IR shows transactions 3-11 but they do not exist in transaction log or source file (ODFT)</t>
+  </si>
+  <si>
+    <t>241210</t>
+  </si>
+  <si>
+    <t>Heng Sang Bank</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3536,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3475,6 +3568,8 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3559,7 +3654,7 @@
             <xdr:cNvPr id="1025" name="Comment 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D663665C-D6D2-A8B4-67CC-D1510EB306B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694FFF33-8C6F-514E-ECA4-EFE96FD980C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3628,7 +3723,7 @@
             <xdr:cNvPr id="1026" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6CA49B-2BE7-12D9-4350-A611DF2739FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8E01E0-7936-9864-4A65-FC5A1D308331}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3697,7 +3792,7 @@
             <xdr:cNvPr id="1027" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F373240-4C8B-9D13-670D-4C0703FF6F3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7E15AE-99A6-5A3D-E517-05117D4B020A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3766,7 +3861,7 @@
             <xdr:cNvPr id="1028" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D506E58-408A-BA4D-0CA3-53DC89FC7854}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554D95BE-CADC-38B7-5589-456D1585AA63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3835,7 +3930,7 @@
             <xdr:cNvPr id="1029" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955DC625-5922-ABF2-B18F-2360FC386F9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A84E393-B95C-C6A3-2A7B-99BCC6DA5858}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3904,7 +3999,7 @@
             <xdr:cNvPr id="1030" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5597D603-DC3B-D898-091B-FFD7E607F1AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F094FA1-643E-6CBF-7643-B7DF4A101084}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3973,7 +4068,7 @@
             <xdr:cNvPr id="1031" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EDB8BD-12B1-034F-C46D-3F00AFA16928}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F70486A-A9FE-3861-8B9A-D797272557EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4042,7 +4137,7 @@
             <xdr:cNvPr id="1032" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E1731-9F29-4C63-72F9-2729FBD173AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47587CBB-FCF6-4662-FB97-D96B29BFD999}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4111,7 +4206,7 @@
             <xdr:cNvPr id="1033" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4354DA28-3A83-B68D-9767-46332B96CD01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5191A2B-33FA-B35A-5D91-087F477D213D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4180,7 +4275,7 @@
             <xdr:cNvPr id="1034" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32791AFE-DF2B-0613-E486-34DFB34DB884}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14109401-BCEB-3DC6-61E8-83213047790A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4249,7 +4344,7 @@
             <xdr:cNvPr id="1035" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38F34A1-B4A7-F3AF-909B-6454CBE9E912}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9F128E-CF7A-F888-D315-D82ECF2C4AA4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4318,7 +4413,7 @@
             <xdr:cNvPr id="1036" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30E6857-A49A-A9DB-1BEE-8438A797F6B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA0300D-C765-E031-C096-11EA74CFD5BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4387,7 +4482,7 @@
             <xdr:cNvPr id="1037" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDCF3F0-585B-3450-82F7-5C37903A5E6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B0A252-F180-6C6D-CC00-E9DBD5ED92B8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4456,7 +4551,7 @@
             <xdr:cNvPr id="1038" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C4E766-D014-8FCD-983A-0C3CDBC9D5A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2599947F-D174-C370-0F69-ED205F5D73FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4525,7 +4620,7 @@
             <xdr:cNvPr id="1039" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320418DB-9F70-F24B-615D-102474FEB85E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6370EFC0-37CB-458A-E24E-AC92345DFBBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4594,7 +4689,7 @@
             <xdr:cNvPr id="1040" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76DCD5E-2082-3FB3-34BE-E866D303D515}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948C83C7-5DAD-9616-EE00-920589A08517}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4663,7 +4758,7 @@
             <xdr:cNvPr id="1041" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3666002F-DD64-927D-CA52-49F411A6D2A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADBC80D-6B6E-C593-023D-7184ABDA57A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4732,7 +4827,7 @@
             <xdr:cNvPr id="1042" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586CD5F8-88AF-8B00-5DBA-AAD7E297AEB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7765B6ED-9858-78CE-1A1B-16A0BC7700DB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4801,7 +4896,7 @@
             <xdr:cNvPr id="1043" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5663EAC2-22DB-7AE4-A48F-ED8D08A23E6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE09EC7D-801B-E7D4-18FB-4124638F18C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4870,7 +4965,7 @@
             <xdr:cNvPr id="1044" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7680AD5-5BB0-2C50-B34B-D72189B190A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26446CB-2410-7BD9-6E26-3760CB60A041}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4939,7 +5034,7 @@
             <xdr:cNvPr id="1045" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DDF07-222B-9E36-8DC3-5093631F893C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFC80BB-FF3D-CF97-589E-D087F73842DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5008,7 +5103,7 @@
             <xdr:cNvPr id="1046" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78ABF189-4FA0-EBF2-F04C-2D882CB353DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BAEC56-C19C-70CC-71C7-63F4C3AC9A14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5077,7 +5172,7 @@
             <xdr:cNvPr id="1047" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39E4968-289D-738B-4133-8F3B9BF14678}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201BCAA8-A126-7436-A660-AA71F65948F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5146,7 +5241,7 @@
             <xdr:cNvPr id="1048" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301C106-A1F4-84C5-B2E7-BE2C83A3A82D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA84056-0682-10F9-D1C1-BAFF71B51187}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5215,7 +5310,7 @@
             <xdr:cNvPr id="1049" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369C761F-03DF-431B-84E7-EDBEE460A0E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCE1844-AB08-0445-A098-4BBCB5FDB986}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5284,7 +5379,7 @@
             <xdr:cNvPr id="1050" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249FA99F-FBDF-B6EC-56D4-F6B96666B0D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0111E9CA-8FD0-ED22-4A5C-B432319BA36B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5353,7 +5448,7 @@
             <xdr:cNvPr id="1051" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6E9AA9-5CA4-3B72-F579-C5670E94C30E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1402400B-EF6C-3D61-8270-11F0B0BDA3DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5422,7 +5517,7 @@
             <xdr:cNvPr id="1052" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6AC9BB-366C-535C-0795-F06EE0FCEFC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256BF0E4-B571-FDF8-BC06-61AEDBE8A26B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5491,7 +5586,7 @@
             <xdr:cNvPr id="1053" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927AD863-0030-AE78-3E80-B2715E41162F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C1FCFD-39E0-A926-BC7E-4897AE587B72}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5560,7 +5655,7 @@
             <xdr:cNvPr id="1054" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90904AD-F05E-55D4-61DE-B9C63715212C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B3AB22-70E4-192E-C2F1-4EBEAEF40849}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5629,7 +5724,7 @@
             <xdr:cNvPr id="1055" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C841924-1F3D-8353-6D6E-F909CC21AA74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F0FDF7-F951-4D02-B242-CD7B37E835F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5698,7 +5793,7 @@
             <xdr:cNvPr id="1056" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5144ABE-14A0-A0B5-2081-D1BCE25672F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B591B4E-993E-3CB9-0984-850FE6A43341}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5767,7 +5862,7 @@
             <xdr:cNvPr id="1057" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E596E1F5-8E74-BAE3-FDE1-52BD6495E00F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B91582-FA7E-F3D9-7265-0C67EF554667}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5836,7 +5931,7 @@
             <xdr:cNvPr id="1058" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E09854-083D-795C-A82E-0C7BD20026F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E2613D-960D-E72D-E6AC-60B183A1FDC4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5848,75 +5943,6 @@
             <a:xfrm>
               <a:off x="46529625" y="1504950"/>
               <a:ext cx="4705350" cy="11753850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="510000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="510000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>140</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Comment 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEEAE44-01A9-BA8E-5A5F-B16D5A45953B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="33956625" y="24107775"/>
-              <a:ext cx="4714875" cy="3952875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5974,7 +6000,7 @@
             <xdr:cNvPr id="1060" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4CF2D0-7736-A7B1-1C1C-46F424BD2591}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BED295-871D-782E-06D4-DF8D351DF0FC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6043,7 +6069,7 @@
             <xdr:cNvPr id="1061" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415598E5-AC89-4BC6-9528-A4FA2179A91B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59ECA4C-AD4F-22F0-BD5E-ACEC095C6DA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6112,7 +6138,7 @@
             <xdr:cNvPr id="1062" name="Comment 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B791AB-A945-CD30-839A-F9D0699BDDD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530FCE28-9C0C-78CA-C07F-5208078FB151}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6181,7 +6207,7 @@
             <xdr:cNvPr id="1063" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880A5B9A-71B6-2C4E-F516-206930F81B4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBDC7C5-094F-B9A1-DC3E-DE7942CB2D49}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6250,7 +6276,7 @@
             <xdr:cNvPr id="1064" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97530642-26C6-7941-4E5E-CA9878025561}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDA0F3E-175B-5D36-BD8C-A30CDC2598E9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6319,7 +6345,7 @@
             <xdr:cNvPr id="1065" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6C33F9-39CE-81DC-10E4-192EC42CACB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD506497-3FEC-E2AF-82F6-021E025EC212}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6388,7 +6414,7 @@
             <xdr:cNvPr id="1066" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A180BAF-91FD-F002-ACB7-E9EE6F5E2923}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EE95F8-861A-04E5-7897-B19ADB141661}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6457,7 +6483,7 @@
             <xdr:cNvPr id="1067" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BA3376-070B-9096-B9F5-9AD25BCE41B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586811DE-D957-9919-CC85-E5633D289D27}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6526,7 +6552,7 @@
             <xdr:cNvPr id="1068" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C8927D-6212-3B9B-388E-9349766845AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7185C837-F1BB-317D-3AE2-DCE31FD2BF94}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6595,7 +6621,7 @@
             <xdr:cNvPr id="1069" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049F19BF-7CA7-9688-5902-8260B4C1CCE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91332747-AA11-0CC5-A2CE-71B8D3F1264F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6664,7 +6690,7 @@
             <xdr:cNvPr id="1070" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65ECBC1-971E-2488-43B5-21796D6FC035}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9334DC7E-EC69-657B-842F-3A9146C75129}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6733,7 +6759,7 @@
             <xdr:cNvPr id="1071" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998C5BD-1DB9-71A5-9221-3CCF21A5F987}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34ED262-FC0F-065E-3AB1-1249275F0BA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6802,7 +6828,7 @@
             <xdr:cNvPr id="1072" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9339BC-E399-9DAF-38DC-0B5B19D339D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219E50F8-0F1B-0A98-F77D-61987BE2B26B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6871,7 +6897,7 @@
             <xdr:cNvPr id="1075" name="Comment 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6827BCD2-4C04-8780-BA91-C0F3FC0B6BCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3DF00E-2352-B741-F3EE-F7A41EDE110B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6940,7 +6966,7 @@
             <xdr:cNvPr id="1076" name="Comment 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59D1463-011D-F414-D17D-9C6A97028DDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603EB720-F577-A95B-D816-114E4AF22153}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7009,7 +7035,7 @@
             <xdr:cNvPr id="1077" name="Comment 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B135EF1-88D1-1514-0FE3-597B79FB019A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A65E9F1-6515-8B3E-DCA0-4405A9DCBBA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7078,7 +7104,7 @@
             <xdr:cNvPr id="1078" name="Comment 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A8926-1A53-7701-E974-DA1B0471A18E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57EEC2B-BA8D-AF88-9F83-594B890820EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7147,7 +7173,7 @@
             <xdr:cNvPr id="1079" name="Comment 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B40956C-A11D-BBDF-6E19-3EE0D3B33D3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2670940B-0057-C255-419A-783FE7045C4E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7216,7 +7242,7 @@
             <xdr:cNvPr id="1080" name="Comment 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468B046D-5FAB-31D3-BC43-2CA46B23C246}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7934D2-0C9E-A017-42CE-6000DEE89D7C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7285,7 +7311,7 @@
             <xdr:cNvPr id="1082" name="Comment 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B1A3A6-8297-1132-56BC-945C106B9E58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F568750-7833-EB5C-A8CA-0F8795259235}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7354,7 +7380,7 @@
             <xdr:cNvPr id="1083" name="Comment 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE86CC5A-AC18-B523-3DE4-4CA02E9372F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02EB3950-9193-7B3A-DB69-206CA4B78EFB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7365,6 +7391,282 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="16849725" y="7305675"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Comment 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931285D6-8307-295C-2FC3-0BD4CA98084B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="32270700" y="13706475"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>40</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Comment 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F0784A-B501-4964-C2E2-E2ECB12F0621}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="33108900" y="13706475"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>40</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Comment 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1025EF3D-C257-5598-D884-E93887A233EC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="33947100" y="13706475"/>
+              <a:ext cx="1371600" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="510000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="510000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>177</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>181</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Comment 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CE5102-EDDB-784A-CBAB-CFB5FD83C887}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="16849725" y="35490150"/>
               <a:ext cx="1371600" cy="742950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7762,8 +8064,14 @@
   <threadedComment ref="AL66" dT="2025-06-26T18:08:53.77" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{53077205-203A-4664-A44E-262ECD84000E}">
     <text>Not exceptionally difficult, just highlight with this color for clarity</text>
   </threadedComment>
-  <threadedComment ref="AN70" dT="2025-06-26T22:59:08.80" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{DF7E57B6-70FF-42DD-9397-F5E5364D0228}">
-    <text>Department is LIFE CALL CENTRE (HASE)</text>
+  <threadedComment ref="AL70" dT="2025-06-29T15:35:31.40" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{C0A0A3DA-DF93-456C-8C52-894A8096A441}">
+    <text>Department: LIFE CALL CENTRE (HASE)</text>
+  </threadedComment>
+  <threadedComment ref="AM70" dT="2025-06-29T15:35:31.40" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{95B23DE6-4091-4174-932C-673712BBA1AF}">
+    <text>Department: LIFE CALL CENTRE (HASE)</text>
+  </threadedComment>
+  <threadedComment ref="AN70" dT="2025-06-29T15:35:31.40" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{3C217112-DFE3-4AAF-8FA5-180FAD4BEDDD}">
+    <text>Department: LIFE CALL CENTRE (HASE)</text>
   </threadedComment>
   <threadedComment ref="AL79" dT="2025-06-26T23:06:43.03" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{2922773A-70FD-4D1A-A917-B244AA228CDE}">
     <text>Global Function Sub Category is HSBC</text>
@@ -7837,6 +8145,9 @@
   <threadedComment ref="AU177" dT="2025-06-27T00:27:44.42" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{0AADD1F6-5E30-49B1-9ADD-903C2BEB4704}">
     <text>Not existing in source file at all</text>
   </threadedComment>
+  <threadedComment ref="T179" dT="2025-06-29T16:07:48.60" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{69D6FA95-A965-4E9E-8CBB-5110E75D60BF}">
+    <text>115555 -&gt; 110555</text>
+  </threadedComment>
   <threadedComment ref="BF187" dT="2025-06-26T16:32:37.58" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{BAE4D323-17EC-4E23-9979-44DC6190FEAC}">
     <text>LLM should ignore</text>
   </threadedComment>
@@ -7883,9 +8194,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL89" sqref="AL89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7981,10 +8292,10 @@
         <v>18</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AC1" t="s">
         <v>161</v>
@@ -8551,7 +8862,7 @@
         <v>148</v>
       </c>
       <c r="AP4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ4" t="s">
         <v>52</v>
@@ -8906,7 +9217,7 @@
         <v>46</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AS6" t="s">
         <v>47</v>
@@ -8995,7 +9306,7 @@
         <v>2024-07-10</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="2" t="d">
         <v>2024-07-10</v>
@@ -9049,7 +9360,7 @@
         <v>44</v>
       </c>
       <c r="AH7" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI7">
         <v>66666666601</v>
@@ -9061,7 +9372,7 @@
         <v>58</v>
       </c>
       <c r="AL7" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM7" t="s">
         <v>45</v>
@@ -9079,7 +9390,7 @@
         <v>46</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AS7" t="s">
         <v>47</v>
@@ -9097,7 +9408,7 @@
         <v>146</v>
       </c>
       <c r="AX7" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY7" t="s">
         <v>48</v>
@@ -9168,7 +9479,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="2" t="d">
         <v>2024-08-07</v>
@@ -9234,7 +9545,7 @@
         <v>58</v>
       </c>
       <c r="AL8" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM8" t="s">
         <v>58</v>
@@ -10206,7 +10517,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="2" t="d">
         <v>2024-08-07</v>
@@ -10272,7 +10583,7 @@
         <v>58</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM14" t="s">
         <v>58</v>
@@ -10308,7 +10619,7 @@
         <v>146</v>
       </c>
       <c r="AX14" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AY14" t="s">
         <v>48</v>
@@ -10379,7 +10690,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="2" t="d">
         <v>2024-08-07</v>
@@ -10421,7 +10732,7 @@
         <v>62</v>
       </c>
       <c r="AD15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="s">
         <v>62</v>
@@ -10433,7 +10744,7 @@
         <v>63</v>
       </c>
       <c r="AH15" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI15" t="s">
         <v>63</v>
@@ -10445,7 +10756,7 @@
         <v>58</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM15" t="s">
         <v>58</v>
@@ -10481,7 +10792,7 @@
         <v>146</v>
       </c>
       <c r="AX15" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY15" t="s">
         <v>48</v>
@@ -10552,7 +10863,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="2" t="d">
         <v>2024-08-07</v>
@@ -10594,7 +10905,7 @@
         <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE16" t="s">
         <v>62</v>
@@ -10606,7 +10917,7 @@
         <v>63</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI16" t="s">
         <v>63</v>
@@ -10618,7 +10929,7 @@
         <v>58</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM16" t="s">
         <v>58</v>
@@ -10654,7 +10965,7 @@
         <v>146</v>
       </c>
       <c r="AX16" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AY16" t="s">
         <v>48</v>
@@ -10898,7 +11209,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="2" t="d">
         <v>2024-08-07</v>
@@ -10964,7 +11275,7 @@
         <v>58</v>
       </c>
       <c r="AL18" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM18" t="s">
         <v>58</v>
@@ -11000,7 +11311,7 @@
         <v>146</v>
       </c>
       <c r="AX18" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AY18" t="s">
         <v>48</v>
@@ -11071,7 +11382,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="2" t="d">
         <v>2024-08-07</v>
@@ -11137,7 +11448,7 @@
         <v>58</v>
       </c>
       <c r="AL19" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM19" t="s">
         <v>58</v>
@@ -11173,7 +11484,7 @@
         <v>146</v>
       </c>
       <c r="AX19" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY19" t="s">
         <v>48</v>
@@ -11510,7 +11821,7 @@
         <v>47</v>
       </c>
       <c r="AT21" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU21" t="s">
         <v>47</v>
@@ -11713,7 +12024,7 @@
         <v>176</v>
       </c>
       <c r="BC22" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD22" t="s">
         <v>55</v>
@@ -12154,7 +12465,7 @@
         <v>47</v>
       </c>
       <c r="AT25" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU25" t="s">
         <v>47</v>
@@ -12198,11 +12509,17 @@
       <c r="D26">
         <v>17</v>
       </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
       <c r="F26" s="3">
         <v>9</v>
       </c>
       <c r="G26" t="s">
         <v>49</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -13157,7 +13474,7 @@
         <v>2024-11-12</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q32" s="2" t="d">
         <v>2024-11-12</v>
@@ -13223,7 +13540,7 @@
         <v>58</v>
       </c>
       <c r="AL32" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s">
         <v>45</v>
@@ -13259,7 +13576,7 @@
         <v>146</v>
       </c>
       <c r="AX32" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AY32" t="s">
         <v>48</v>
@@ -15621,7 +15938,7 @@
         <v>2024-11-12</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="2" t="d">
         <v>2024-11-12</v>
@@ -15687,7 +16004,7 @@
         <v>58</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM46" t="s">
         <v>45</v>
@@ -15723,7 +16040,7 @@
         <v>146</v>
       </c>
       <c r="AX46" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AY46" t="s">
         <v>48</v>
@@ -15797,7 +16114,7 @@
         <v>2024-11-11</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q47" s="2" t="d">
         <v>2024-11-11</v>
@@ -15863,7 +16180,7 @@
         <v>58</v>
       </c>
       <c r="AL47" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM47" t="s">
         <v>45</v>
@@ -15899,7 +16216,7 @@
         <v>146</v>
       </c>
       <c r="AX47" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AY47" t="s">
         <v>48</v>
@@ -19720,7 +20037,7 @@
         <v>2024-08-21</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q70" s="2" t="d">
         <v>2024-08-21</v>
@@ -19762,7 +20079,7 @@
         <v>85</v>
       </c>
       <c r="AD70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE70" t="s">
         <v>64</v>
@@ -19785,13 +20102,15 @@
       <c r="AK70" t="s">
         <v>49</v>
       </c>
-      <c r="AL70" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM70" s="3" t="s">
+      <c r="AL70" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AN70" s="14"/>
+      <c r="AM70" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN70" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="AO70" t="s">
         <v>93</v>
       </c>
@@ -21207,7 +21526,7 @@
         <v>2024-08-11</v>
       </c>
       <c r="P79" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q79" s="2" t="d">
         <v>2024-08-11</v>
@@ -22694,7 +23013,7 @@
         <v>49</v>
       </c>
       <c r="AL88" s="10" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="AM88" t="s">
         <v>49</v>
@@ -22867,7 +23186,7 @@
         <v>49</v>
       </c>
       <c r="AL89" s="10" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="AM89" t="s">
         <v>49</v>
@@ -23319,7 +23638,9 @@
       <c r="O92" s="2" t="d">
         <v>2024-12-10</v>
       </c>
-      <c r="P92" s="20"/>
+      <c r="P92" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="Q92" s="2" t="d">
         <v>2024-12-10</v>
       </c>
@@ -23384,7 +23705,7 @@
         <v>58</v>
       </c>
       <c r="AL92" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM92" t="s">
         <v>58</v>
@@ -23420,7 +23741,7 @@
         <v>146</v>
       </c>
       <c r="AX92" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY92" t="s">
         <v>48</v>
@@ -24695,7 +25016,7 @@
         <v>55</v>
       </c>
       <c r="BF100" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:59">
@@ -27306,8 +27627,14 @@
       <c r="D116">
         <v>2</v>
       </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
       <c r="F116" s="3">
         <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>49</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -28443,7 +28770,7 @@
         <v>2024-12-03</v>
       </c>
       <c r="P123" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q123" s="2" t="d">
         <v>2024-12-03</v>
@@ -28509,7 +28836,7 @@
         <v>58</v>
       </c>
       <c r="AL123" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM123" t="s">
         <v>45</v>
@@ -28545,7 +28872,7 @@
         <v>146</v>
       </c>
       <c r="AX123" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AY123" t="s">
         <v>48</v>
@@ -28789,7 +29116,7 @@
         <v>2024-12-03</v>
       </c>
       <c r="P125" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q125" s="2" t="d">
         <v>2024-12-03</v>
@@ -28855,7 +29182,7 @@
         <v>58</v>
       </c>
       <c r="AL125" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM125" t="s">
         <v>45</v>
@@ -28891,7 +29218,7 @@
         <v>146</v>
       </c>
       <c r="AX125" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AY125" t="s">
         <v>48</v>
@@ -28962,7 +29289,7 @@
         <v>2024-12-03</v>
       </c>
       <c r="P126" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q126" s="2" t="d">
         <v>2024-12-03</v>
@@ -29028,7 +29355,7 @@
         <v>58</v>
       </c>
       <c r="AL126" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM126" t="s">
         <v>45</v>
@@ -29064,7 +29391,7 @@
         <v>146</v>
       </c>
       <c r="AX126" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AY126" t="s">
         <v>48</v>
@@ -29135,7 +29462,7 @@
         <v>2024-12-03</v>
       </c>
       <c r="P127" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q127" s="2" t="d">
         <v>2024-12-03</v>
@@ -29201,7 +29528,7 @@
         <v>58</v>
       </c>
       <c r="AL127" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM127" t="s">
         <v>45</v>
@@ -29237,7 +29564,7 @@
         <v>146</v>
       </c>
       <c r="AX127" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AY127" t="s">
         <v>48</v>
@@ -29481,7 +29808,7 @@
         <v>2024-12-03</v>
       </c>
       <c r="P129" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q129" s="2" t="d">
         <v>2024-12-03</v>
@@ -29547,7 +29874,7 @@
         <v>58</v>
       </c>
       <c r="AL129" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM129" t="s">
         <v>45</v>
@@ -29583,7 +29910,7 @@
         <v>146</v>
       </c>
       <c r="AX129" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AY129" t="s">
         <v>48</v>
@@ -29932,7 +30259,7 @@
         <v>2024-11-29</v>
       </c>
       <c r="P132" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q132" s="2" t="d">
         <v>2024-11-29</v>
@@ -29998,7 +30325,7 @@
         <v>110</v>
       </c>
       <c r="AL132" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM132" t="s">
         <v>94</v>
@@ -30034,7 +30361,7 @@
         <v>146</v>
       </c>
       <c r="AX132" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AY132" t="s">
         <v>48</v>
@@ -30624,7 +30951,7 @@
         <v>2024-11-29</v>
       </c>
       <c r="P136" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q136" s="2" t="d">
         <v>2024-11-29</v>
@@ -30690,7 +31017,7 @@
         <v>58</v>
       </c>
       <c r="AL136" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM136" t="s">
         <v>45</v>
@@ -30726,7 +31053,7 @@
         <v>146</v>
       </c>
       <c r="AX136" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AY136" t="s">
         <v>48</v>
@@ -30797,7 +31124,7 @@
         <v>2024-11-29</v>
       </c>
       <c r="P137" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q137" s="2" t="d">
         <v>2024-11-29</v>
@@ -30863,7 +31190,7 @@
         <v>58</v>
       </c>
       <c r="AL137" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM137" t="s">
         <v>45</v>
@@ -30899,7 +31226,7 @@
         <v>146</v>
       </c>
       <c r="AX137" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AY137" t="s">
         <v>48</v>
@@ -31316,7 +31643,7 @@
         <v>2024-11-08</v>
       </c>
       <c r="P140" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q140" s="2" t="d">
         <v>2024-11-08</v>
@@ -31382,7 +31709,7 @@
         <v>58</v>
       </c>
       <c r="AL140" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM140" t="s">
         <v>45</v>
@@ -31418,7 +31745,7 @@
         <v>146</v>
       </c>
       <c r="AX140" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AY140" t="s">
         <v>48</v>
@@ -32885,7 +33212,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P149" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q149" s="2" t="d">
         <v>2025-01-03</v>
@@ -32951,7 +33278,7 @@
         <v>58</v>
       </c>
       <c r="AL149" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM149" t="s">
         <v>45</v>
@@ -32987,7 +33314,7 @@
         <v>146</v>
       </c>
       <c r="AX149" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AY149" t="s">
         <v>48</v>
@@ -33058,7 +33385,7 @@
         <v>49</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q150" s="2" t="d">
         <v>2025-01-04</v>
@@ -33124,7 +33451,7 @@
         <v>49</v>
       </c>
       <c r="AL150" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM150" t="s">
         <v>45</v>
@@ -33160,7 +33487,7 @@
         <v>49</v>
       </c>
       <c r="AX150" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AY150" t="s">
         <v>48</v>
@@ -33357,7 +33684,7 @@
         <v>49</v>
       </c>
       <c r="BF151" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BG151" s="4" t="s">
         <v>99</v>
@@ -35526,7 +35853,7 @@
         <v>44</v>
       </c>
       <c r="AK164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM164" t="s">
         <v>103</v>
@@ -35634,7 +35961,7 @@
         <v>44</v>
       </c>
       <c r="AK165" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM165" t="s">
         <v>103</v>
@@ -35720,7 +36047,7 @@
         <v>2024-12-27</v>
       </c>
       <c r="P166" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q166" s="2" t="d">
         <v>2024-12-27</v>
@@ -35783,22 +36110,22 @@
         <v>44</v>
       </c>
       <c r="AK166" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL166" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM166" s="4" t="s">
         <v>103</v>
       </c>
       <c r="AN166" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AO166" t="s">
         <v>159</v>
       </c>
       <c r="AP166" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AQ166" t="s">
         <v>46</v>
@@ -35822,7 +36149,7 @@
         <v>49</v>
       </c>
       <c r="AX166" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AY166" t="s">
         <v>48</v>
@@ -35893,7 +36220,7 @@
         <v>2024-12-27</v>
       </c>
       <c r="P167" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q167" s="2" t="d">
         <v>2024-12-27</v>
@@ -35956,22 +36283,22 @@
         <v>44</v>
       </c>
       <c r="AK167" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL167" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM167" s="4" t="s">
         <v>103</v>
       </c>
       <c r="AN167" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AO167" t="s">
         <v>95</v>
       </c>
       <c r="AP167" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AQ167" t="s">
         <v>46</v>
@@ -35995,7 +36322,7 @@
         <v>49</v>
       </c>
       <c r="AX167" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AY167" t="s">
         <v>48</v>
@@ -36412,7 +36739,7 @@
         <v>2025-01-04</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q170" s="2" t="d">
         <v>2025-01-04</v>
@@ -36478,7 +36805,7 @@
         <v>58</v>
       </c>
       <c r="AL170" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM170" t="s">
         <v>45</v>
@@ -36514,7 +36841,7 @@
         <v>146</v>
       </c>
       <c r="AX170" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AY170" t="s">
         <v>48</v>
@@ -36585,7 +36912,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q171" s="2" t="d">
         <v>2025-01-03</v>
@@ -36651,7 +36978,7 @@
         <v>58</v>
       </c>
       <c r="AL171" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM171" t="s">
         <v>45</v>
@@ -36687,7 +37014,7 @@
         <v>146</v>
       </c>
       <c r="AX171" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AY171" t="s">
         <v>48</v>
@@ -37277,7 +37604,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q175" s="2" t="d">
         <v>2025-01-03</v>
@@ -37343,7 +37670,7 @@
         <v>144</v>
       </c>
       <c r="AL175" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM175" t="s">
         <v>105</v>
@@ -37379,7 +37706,7 @@
         <v>146</v>
       </c>
       <c r="AX175" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AY175" t="s">
         <v>48</v>
@@ -37450,7 +37777,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q176" s="2" t="d">
         <v>2025-01-03</v>
@@ -37516,7 +37843,7 @@
         <v>144</v>
       </c>
       <c r="AL176" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM176" t="s">
         <v>105</v>
@@ -37552,7 +37879,7 @@
         <v>146</v>
       </c>
       <c r="AX176" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AY176" t="s">
         <v>48</v>
@@ -37623,7 +37950,7 @@
         <v>2025-01-05</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q177" s="2" t="d">
         <v>2025-01-05</v>
@@ -37689,7 +38016,7 @@
         <v>58</v>
       </c>
       <c r="AL177" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM177" t="s">
         <v>45</v>
@@ -37725,7 +38052,7 @@
         <v>146</v>
       </c>
       <c r="AX177" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AY177" t="s">
         <v>48</v>
@@ -37984,12 +38311,14 @@
         <v>110555</v>
       </c>
       <c r="T179" s="5">
-        <v>115555</v>
-      </c>
-      <c r="U179" s="5">
         <v>110555</v>
       </c>
-      <c r="V179" s="14"/>
+      <c r="U179" s="28">
+        <v>110555</v>
+      </c>
+      <c r="V179" s="28">
+        <v>110555</v>
+      </c>
       <c r="W179" s="10" t="s">
         <v>136</v>
       </c>
@@ -38716,7 +39045,7 @@
         <v>77</v>
       </c>
       <c r="AH183" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AI183" t="s">
         <v>77</v>
@@ -38728,7 +39057,7 @@
         <v>83</v>
       </c>
       <c r="AL183" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM183" t="s">
         <v>87</v>
@@ -38752,7 +39081,7 @@
         <v>47</v>
       </c>
       <c r="AT183" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU183" t="s">
         <v>47</v>
@@ -38764,7 +39093,7 @@
         <v>146</v>
       </c>
       <c r="AX183" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AY183" t="s">
         <v>48</v>
@@ -38901,7 +39230,7 @@
         <v>83</v>
       </c>
       <c r="AL184" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM184" t="s">
         <v>87</v>
@@ -38937,7 +39266,7 @@
         <v>146</v>
       </c>
       <c r="AX184" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AY184" t="s">
         <v>48</v>
@@ -39008,7 +39337,7 @@
         <v>2025-02-04</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q185" s="2" t="d">
         <v>2025-02-04</v>
@@ -39074,7 +39403,7 @@
         <v>83</v>
       </c>
       <c r="AL185" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM185" t="s">
         <v>87</v>
@@ -39110,7 +39439,7 @@
         <v>146</v>
       </c>
       <c r="AX185" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AY185" t="s">
         <v>48</v>
@@ -39181,7 +39510,7 @@
         <v>2025-02-05</v>
       </c>
       <c r="P186" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q186" s="2" t="d">
         <v>2025-02-05</v>
@@ -39247,7 +39576,7 @@
         <v>145</v>
       </c>
       <c r="AL186" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM186" t="s">
         <v>108</v>
@@ -39283,7 +39612,7 @@
         <v>146</v>
       </c>
       <c r="AX186" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AY186" t="s">
         <v>48</v>
@@ -40580,7 +40909,7 @@
         <v>2024-08-07</v>
       </c>
       <c r="P194" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q194" s="2" t="d">
         <v>2024-08-07</v>
@@ -40646,7 +40975,7 @@
         <v>58</v>
       </c>
       <c r="AL194" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM194" t="s">
         <v>45</v>
@@ -40658,7 +40987,7 @@
         <v>93</v>
       </c>
       <c r="AP194" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ194" t="s">
         <v>46</v>
@@ -40682,7 +41011,7 @@
         <v>146</v>
       </c>
       <c r="AX194" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY194" t="s">
         <v>48</v>
@@ -41448,7 +41777,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P199" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q199" s="2" t="d">
         <v>2025-01-03</v>
@@ -41514,7 +41843,7 @@
         <v>110</v>
       </c>
       <c r="AL199" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM199" t="s">
         <v>110</v>
@@ -41526,7 +41855,7 @@
         <v>93</v>
       </c>
       <c r="AP199" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ199" t="s">
         <v>46</v>
@@ -41550,7 +41879,7 @@
         <v>146</v>
       </c>
       <c r="AX199" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AY199" t="s">
         <v>48</v>
@@ -43671,7 +44000,7 @@
         <v>59</v>
       </c>
       <c r="BF211" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="212" spans="1:59">
@@ -43847,7 +44176,7 @@
         <v>59</v>
       </c>
       <c r="BF212" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:59">
@@ -43863,8 +44192,14 @@
       <c r="D213">
         <v>1</v>
       </c>
+      <c r="E213" t="s">
+        <v>49</v>
+      </c>
       <c r="F213" s="3">
         <v>3</v>
+      </c>
+      <c r="G213" t="s">
+        <v>49</v>
       </c>
       <c r="J213" t="b">
         <v>1</v>
@@ -43926,8 +44261,14 @@
       <c r="D214">
         <v>1</v>
       </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
       <c r="F214" s="3">
         <v>4</v>
+      </c>
+      <c r="G214" t="s">
+        <v>49</v>
       </c>
       <c r="J214" t="b">
         <v>1</v>
@@ -43989,8 +44330,14 @@
       <c r="D215">
         <v>1</v>
       </c>
+      <c r="E215" t="s">
+        <v>49</v>
+      </c>
       <c r="F215" s="3">
         <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>49</v>
       </c>
       <c r="J215" t="b">
         <v>1</v>
@@ -44052,8 +44399,14 @@
       <c r="D216">
         <v>1</v>
       </c>
+      <c r="E216" t="s">
+        <v>49</v>
+      </c>
       <c r="F216" s="3">
         <v>6</v>
+      </c>
+      <c r="G216" t="s">
+        <v>49</v>
       </c>
       <c r="J216" t="b">
         <v>1</v>
@@ -44115,8 +44468,14 @@
       <c r="D217">
         <v>1</v>
       </c>
+      <c r="E217" t="s">
+        <v>49</v>
+      </c>
       <c r="F217" s="3">
         <v>7</v>
+      </c>
+      <c r="G217" t="s">
+        <v>49</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -44178,8 +44537,14 @@
       <c r="D218">
         <v>1</v>
       </c>
+      <c r="E218" t="s">
+        <v>49</v>
+      </c>
       <c r="F218" s="3">
         <v>8</v>
+      </c>
+      <c r="G218" t="s">
+        <v>49</v>
       </c>
       <c r="J218" t="b">
         <v>1</v>
@@ -44241,8 +44606,14 @@
       <c r="D219">
         <v>1</v>
       </c>
+      <c r="E219" t="s">
+        <v>49</v>
+      </c>
       <c r="F219" s="3">
         <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>49</v>
       </c>
       <c r="J219" t="b">
         <v>1</v>
@@ -44304,8 +44675,14 @@
       <c r="D220">
         <v>1</v>
       </c>
+      <c r="E220" t="s">
+        <v>49</v>
+      </c>
       <c r="F220" s="3">
         <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>49</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -44367,8 +44744,14 @@
       <c r="D221">
         <v>1</v>
       </c>
+      <c r="E221" t="s">
+        <v>49</v>
+      </c>
       <c r="F221" s="3">
         <v>11</v>
+      </c>
+      <c r="G221" t="s">
+        <v>49</v>
       </c>
       <c r="J221" t="b">
         <v>1</v>
@@ -45329,7 +45712,7 @@
         <v>2025-01-02</v>
       </c>
       <c r="P227" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q227" s="2" t="d">
         <v>2025-01-02</v>
@@ -45371,7 +45754,7 @@
         <v>86</v>
       </c>
       <c r="AD227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE227" t="s">
         <v>86</v>
@@ -45395,7 +45778,7 @@
         <v>58</v>
       </c>
       <c r="AL227" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM227" t="s">
         <v>45</v>
@@ -45431,7 +45814,7 @@
         <v>146</v>
       </c>
       <c r="AX227" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY227" t="s">
         <v>48</v>
@@ -45502,7 +45885,7 @@
         <v>2025-01-02</v>
       </c>
       <c r="P228" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q228" s="2" t="d">
         <v>2025-01-02</v>
@@ -45568,7 +45951,7 @@
         <v>110</v>
       </c>
       <c r="AL228" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM228" t="s">
         <v>110</v>
@@ -45604,7 +45987,7 @@
         <v>146</v>
       </c>
       <c r="AX228" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AY228" t="s">
         <v>48</v>
@@ -46021,7 +46404,7 @@
         <v>2024-12-29</v>
       </c>
       <c r="P231" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q231" s="2" t="d">
         <v>2024-12-29</v>
@@ -46087,7 +46470,7 @@
         <v>58</v>
       </c>
       <c r="AL231" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM231" t="s">
         <v>45</v>
@@ -46123,7 +46506,7 @@
         <v>146</v>
       </c>
       <c r="AX231" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AY231" t="s">
         <v>48</v>
@@ -49481,7 +49864,7 @@
         <v>2025-01-04</v>
       </c>
       <c r="P251" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q251" s="2" t="d">
         <v>2025-01-04</v>
@@ -49547,7 +49930,7 @@
         <v>58</v>
       </c>
       <c r="AL251" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM251" t="s">
         <v>45</v>
@@ -49583,7 +49966,7 @@
         <v>146</v>
       </c>
       <c r="AX251" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AY251" t="s">
         <v>48</v>
@@ -49827,7 +50210,7 @@
         <v>2025-01-03</v>
       </c>
       <c r="P253" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q253" s="2" t="d">
         <v>2025-01-03</v>
@@ -49893,7 +50276,7 @@
         <v>120</v>
       </c>
       <c r="AL253" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM253" t="s">
         <v>120</v>
@@ -49929,7 +50312,7 @@
         <v>146</v>
       </c>
       <c r="AX253" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY253" t="s">
         <v>48</v>
@@ -50066,7 +50449,7 @@
         <v>120</v>
       </c>
       <c r="AL254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM254" t="s">
         <v>120</v>
@@ -50577,7 +50960,7 @@
         <v>78</v>
       </c>
       <c r="BF257" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:59">
@@ -50753,7 +51136,7 @@
         <v>78</v>
       </c>
       <c r="BF258" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:59">
@@ -51448,7 +51831,7 @@
         <v>55</v>
       </c>
       <c r="BF262" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:59">
@@ -52199,7 +52582,7 @@
         <v>2024-12-23</v>
       </c>
       <c r="P267" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q267" s="2" t="d">
         <v>2024-12-23</v>
@@ -52265,7 +52648,7 @@
         <v>110</v>
       </c>
       <c r="AL267" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AM267" t="s">
         <v>122</v>
@@ -52301,7 +52684,7 @@
         <v>146</v>
       </c>
       <c r="AX267" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY267" t="s">
         <v>48</v>
@@ -54466,7 +54849,7 @@
         <v>2025-01-18</v>
       </c>
       <c r="P280" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q280" s="2" t="d">
         <v>2025-01-18</v>
@@ -54532,7 +54915,7 @@
         <v>58</v>
       </c>
       <c r="AL280" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM280" t="s">
         <v>45</v>
@@ -54568,7 +54951,7 @@
         <v>146</v>
       </c>
       <c r="AX280" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AY280" t="s">
         <v>48</v>
@@ -55340,7 +55723,7 @@
         <v>2025-01-16</v>
       </c>
       <c r="P285" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q285" s="2" t="d">
         <v>2025-01-16</v>
@@ -55403,16 +55786,16 @@
         <v>77</v>
       </c>
       <c r="AK285" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL285" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM285" s="4" t="s">
         <v>127</v>
       </c>
       <c r="AN285" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AO285" t="s">
         <v>93</v>
@@ -55442,7 +55825,7 @@
         <v>49</v>
       </c>
       <c r="AX285" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AY285" t="s">
         <v>48</v>
@@ -55513,7 +55896,7 @@
         <v>2025-01-16</v>
       </c>
       <c r="P286" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q286" s="2" t="d">
         <v>2025-01-16</v>
@@ -55576,16 +55959,16 @@
         <v>88</v>
       </c>
       <c r="AK286" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL286" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM286" s="4" t="s">
         <v>105</v>
       </c>
       <c r="AN286" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AO286" t="s">
         <v>93</v>
@@ -55615,7 +55998,7 @@
         <v>49</v>
       </c>
       <c r="AX286" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AY286" t="s">
         <v>48</v>
@@ -55708,7 +56091,7 @@
         <v>88</v>
       </c>
       <c r="AK287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM287" t="s">
         <v>105</v>
@@ -56837,27 +57220,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FCB557A-C042-4883-A483-85950DD4500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75256725-9FD5-4AA9-8854-559DB77711EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4991,7 +4991,7 @@
             <xdr:cNvPr id="1025" name="Comment 64" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28123DF7-0811-E63F-CF75-7E77296D7DB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182A976-29BD-5713-4E64-5A96AE3D2B53}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5060,7 +5060,7 @@
             <xdr:cNvPr id="1026" name="Comment 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0535537-067D-1C6A-B783-2F63CBFC902E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE13005-89F7-A2D1-8856-839A240F0C05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5129,7 +5129,7 @@
             <xdr:cNvPr id="1027" name="Comment 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C692F37-A262-C9C2-A37A-ABC8DD8195A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36065CA-EDE3-2217-FD4E-5FAE6D884F1C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5198,7 +5198,7 @@
             <xdr:cNvPr id="1028" name="Comment 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8C2EB5-EB6D-C403-14C8-5D79D63D592B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2F2A87-66C2-7B30-8A3A-B094F1B744A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5267,7 +5267,7 @@
             <xdr:cNvPr id="1029" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47531CB-332A-F0E6-C302-0216DD0B8E92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8755CA4D-3DBC-DC67-D0E0-43871DE822DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5336,7 +5336,7 @@
             <xdr:cNvPr id="1030" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C555EBFD-6D4A-C853-E493-3717FCFBB2EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BA24F6-5AE5-28C5-18EA-CFF3CFD16807}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5405,7 +5405,7 @@
             <xdr:cNvPr id="1031" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1684B949-DF44-516E-BDA1-F7B28A6D736F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B070089-896E-1D31-0496-A37EBA10AC39}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5474,7 +5474,7 @@
             <xdr:cNvPr id="1032" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82008676-D5A5-CB88-958A-7BC65FDAAFA2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D80F93-4843-892A-2BFB-EC4627FA1F6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5543,7 +5543,7 @@
             <xdr:cNvPr id="1033" name="Comment 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B9EA6E-DDD4-F05A-AF38-852DB31F2880}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146440CF-93FF-25FB-C096-674100380F46}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5612,7 +5612,7 @@
             <xdr:cNvPr id="1034" name="Comment 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83095A95-B613-371F-B7E8-97466DCA0BDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18416075-8886-9A4B-95BE-3CD345CD6D41}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5681,7 +5681,7 @@
             <xdr:cNvPr id="1035" name="Comment 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D23BED-8E43-C2DC-0B68-A5142AE9B5F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE5D709-C756-3E1A-F97C-1997510DE3F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5750,7 +5750,7 @@
             <xdr:cNvPr id="1036" name="Comment 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A8E56E-0A9D-D193-D6D2-60A5EF525755}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17DCF4E-9130-367B-F166-88F194E32FF2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5819,7 +5819,7 @@
             <xdr:cNvPr id="1037" name="Comment 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2FA170-4EF3-109A-CEEE-1BD72487F07B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BF31E1-1193-532D-2D1A-6B181BFD6518}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5888,7 +5888,7 @@
             <xdr:cNvPr id="1038" name="Comment 63" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A5BC20-9A15-950B-40E0-1B599668308E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49919AE2-C62A-CDC8-6C2C-970572122E69}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5957,7 +5957,7 @@
             <xdr:cNvPr id="1039" name="Comment 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3AC39D-58EA-0ABD-A24C-64E84CD89C76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2D0928-C563-EB17-804E-B6F40FA8FFD9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6026,7 +6026,7 @@
             <xdr:cNvPr id="1040" name="Comment 62" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232021D5-6FA2-E001-D2D4-039DD85041E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFF05E1-5A17-855F-397F-1093A727F1C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6095,7 +6095,7 @@
             <xdr:cNvPr id="1041" name="Comment 73" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FBD668-6D70-56C1-2251-8F347C2BC765}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C714D8-DC0C-A42D-FABD-9872CB98E8BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6164,7 +6164,7 @@
             <xdr:cNvPr id="1042" name="Comment 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74851A9-C835-3F3E-6AB7-7B77E0371B81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66F2ABF-4317-3158-7162-8CF26C960244}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6233,7 +6233,7 @@
             <xdr:cNvPr id="1043" name="Comment 68" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD0F153-F082-0C4E-7BD9-B1B965388264}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6424E39-3F81-D7A1-38EE-8D1EF24A38EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6302,7 +6302,7 @@
             <xdr:cNvPr id="1044" name="Comment 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B226A3-16D8-CCE0-485B-EE14551DDA43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354AFAA3-EE36-93E6-9B4E-15F4D3E8A49E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6371,7 +6371,7 @@
             <xdr:cNvPr id="1045" name="Comment 60" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6816B6FE-14DC-4C81-F61D-38FE239ECE50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0469BF9-DB28-9C42-A6FD-CE3BDA039999}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6440,7 +6440,7 @@
             <xdr:cNvPr id="1046" name="Comment 61" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A625B445-0915-30CB-B29B-D8E52F11EEEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B6C6FE-4A36-9978-AF8F-D32DCD781B6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6509,7 +6509,7 @@
             <xdr:cNvPr id="1047" name="Comment 67" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB73632D-467C-7158-B726-CC71D82FFFB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F539E1-7B0D-733B-35C3-6FFC4C0C93BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6578,7 +6578,7 @@
             <xdr:cNvPr id="1048" name="Comment 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0D68D6-266E-3A42-F4FC-159BFFD20439}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC65B6B-396C-988F-D817-2B3E0D0FE670}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6647,7 +6647,7 @@
             <xdr:cNvPr id="1049" name="Comment 65" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA05979-A2AE-7DE8-C8E6-A680AD3344FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B567E53A-F506-10F6-7E73-747B32424133}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6716,7 +6716,7 @@
             <xdr:cNvPr id="1050" name="Comment 66" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686A3B-5477-2B76-6AEC-53A8ABB66978}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5627AB-62F6-612E-C3AE-01846A05DDA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6785,7 +6785,7 @@
             <xdr:cNvPr id="1051" name="Comment 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7386101-D91A-213F-9AD4-5DE3F4EB7944}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F30A76F-CD4C-2F39-B467-A79E4100BDBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6854,7 +6854,7 @@
             <xdr:cNvPr id="1052" name="Comment 70" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EF8A61-6DB9-71FC-2365-E5A3A93B5127}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F4D17-746B-6DE8-961B-F6428453C241}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6923,7 +6923,7 @@
             <xdr:cNvPr id="1053" name="Comment 71" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A629BE-7559-4A71-2AB4-E8729F4DC19B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2257FA01-E299-9618-F1D2-D3B502548057}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6992,7 +6992,7 @@
             <xdr:cNvPr id="1054" name="Comment 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7842F3A1-2393-9BFD-4007-FE86EC252AD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214A1E7A-2DC0-741A-60D4-83A2661F5418}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7061,7 +7061,7 @@
             <xdr:cNvPr id="1055" name="Comment 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7874BAC9-854D-7FED-D0F7-DA5F1F018DE5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFFF249-9FA2-BAC1-FBFF-E95F02A93323}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7130,7 +7130,7 @@
             <xdr:cNvPr id="1056" name="Comment 75" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BA9F4E-FA37-2E4E-6472-DA79050E727D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7CE9B3-5276-2BEC-F779-84F183B269EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7199,7 +7199,7 @@
             <xdr:cNvPr id="1057" name="Comment 76" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9251A33-753D-356E-D13A-131D991BF004}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAC2B0E-C059-C542-6C10-F05D5CD5BC44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7268,7 +7268,7 @@
             <xdr:cNvPr id="1058" name="Comment 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B785C71-F7A5-15CE-5C08-97EFAAD58C03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60A236E-6CB2-1D64-4056-2AA040E42380}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7337,7 +7337,7 @@
             <xdr:cNvPr id="1059" name="Comment 79" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B311AD6-1480-57F6-38B8-000EFF5D80C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B457BB-88F0-8FA9-8A6C-F9F4ABF1E997}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7406,7 +7406,7 @@
             <xdr:cNvPr id="1060" name="Comment 78" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A5968B-48C8-9853-CEAD-F0D0C864F809}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DADA9D-D967-5CDF-806D-81A33CDF7F3F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7475,7 +7475,7 @@
             <xdr:cNvPr id="1061" name="Comment 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4AE680-3CCB-EDCB-CAB5-9A15BE110B57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D37E543-EA77-87C7-F187-51BB555EC989}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7544,7 +7544,7 @@
             <xdr:cNvPr id="1062" name="Comment 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530D1C4C-E0C4-37EE-5CA3-6B73E20CB866}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B25F28-3CC4-CD20-DD4D-955163256493}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7613,7 +7613,7 @@
             <xdr:cNvPr id="1063" name="Comment 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBCB189-6569-367B-9CDD-A0DAF1A414C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12458391-7A39-87F3-B14C-241C90091C4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7682,7 +7682,7 @@
             <xdr:cNvPr id="1064" name="Comment 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D56A8D-0B52-564E-44DD-867A00286744}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5952073C-9CF7-E239-2F23-661555503A68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7751,7 +7751,7 @@
             <xdr:cNvPr id="1065" name="Comment 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170E04D0-9AF7-2977-DCA5-64BAA27B8BCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406BFFD6-4981-04CE-08E8-E426FFAC8C63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7820,7 +7820,7 @@
             <xdr:cNvPr id="1066" name="Comment 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F54C653-3892-079D-7B18-ED69E3BFC526}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBBF8C7-A562-5BF5-5CBD-818BAFEA2C4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7889,7 +7889,7 @@
             <xdr:cNvPr id="1067" name="Comment 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209DD4D2-8707-29CF-4E83-AB9E32A38F22}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9F0D3-D7A7-2AC1-F4FF-02C0261258EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7958,7 +7958,7 @@
             <xdr:cNvPr id="1068" name="Comment 90" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74719DB7-D7E8-111A-CEA0-3BC491985B34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58651256-3F04-8C08-F93D-5E7015048BA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8027,7 +8027,7 @@
             <xdr:cNvPr id="1069" name="Comment 91" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E29259E-04F2-3159-9C04-8F1F82B39226}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20557C06-46AC-9121-A103-F746E9790275}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8096,7 +8096,7 @@
             <xdr:cNvPr id="1070" name="Comment 89" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2324EDF6-328A-8DA8-988B-B0B7DB535498}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62E9570-AAB5-5C2D-A459-30824842DA12}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8165,7 +8165,7 @@
             <xdr:cNvPr id="1071" name="Comment 88" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4810EA-F562-4B27-447E-BE72262B06E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3B4A8-958F-0DFD-A601-DDD3A7F46352}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8234,7 +8234,7 @@
             <xdr:cNvPr id="1072" name="Comment 92" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01374D86-A3EF-957E-3FDF-8E375088E543}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C61964D-58F5-A555-81D8-02DEC6F82426}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8303,7 +8303,7 @@
             <xdr:cNvPr id="1073" name="Comment 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A53B08-396A-5C6A-241A-B67CA0659A4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C5199A-0A1D-0889-BFA5-A8DEAE131D33}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8372,7 +8372,7 @@
             <xdr:cNvPr id="1074" name="Comment 93" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC53990-BBEA-8331-22CD-3A0FD409A4C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A735D6D2-0536-4A23-E977-C903E0BDAD54}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8441,7 +8441,7 @@
             <xdr:cNvPr id="1075" name="Comment 94" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839F7DAE-E778-C9F8-C6CB-DF6260DA8C99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CD21A8-4586-0A01-4E54-3FCF86D88B8F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8510,7 +8510,7 @@
             <xdr:cNvPr id="1076" name="Comment 95" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC602EDC-1BD2-662D-85D7-82B921C5FCCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8B71D3-BE05-EFCD-A3C3-0D38A4D20688}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8579,7 +8579,7 @@
             <xdr:cNvPr id="1077" name="Comment 96" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1475BBB-D54A-61F5-2060-46E80F666455}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B3E4BF-E780-1B0E-F31F-1F77289013EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8648,7 +8648,7 @@
             <xdr:cNvPr id="1078" name="Comment 97" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E562FD3-F469-4D0C-041F-122EBFB1B6C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725755E1-F369-4B40-8160-2C02988D720C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8717,7 +8717,7 @@
             <xdr:cNvPr id="1079" name="Comment 101" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62924862-5B44-E023-D8DD-78205A57BFD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DE4C61-1837-E57B-CCCF-CDC60335484B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8786,7 +8786,7 @@
             <xdr:cNvPr id="1080" name="Comment 102" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E2400A-0C28-8407-1C18-919A10B1E354}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C0EB2F-B74F-FD62-C9F3-200570039C38}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8855,7 +8855,7 @@
             <xdr:cNvPr id="1081" name="Comment 103" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD6729C-BED0-192C-C054-1F8F99395C7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09BF751-7164-C3C9-1DCD-EE7A7F02ACCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8924,7 +8924,7 @@
             <xdr:cNvPr id="1082" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E25060-6CC3-B231-DC87-AA91A357F99E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A437DF-DD45-E146-BC2E-BDC7EE40C7AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8993,7 +8993,7 @@
             <xdr:cNvPr id="1083" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294AD938-3F71-A580-7951-CD9475D8ECEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDAFD06-D829-F7D0-952F-E62DC34DEA86}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9062,7 +9062,7 @@
             <xdr:cNvPr id="1084" name="Comment 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD68CFA8-D7A4-55A1-5E7E-7C3B81464EAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9008EFE0-FC1D-8029-5566-3595C6C1DE18}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9131,7 +9131,7 @@
             <xdr:cNvPr id="1085" name="Comment 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCEA638-1674-4D3E-CE7A-5DDD0AF468FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCEA725-52E0-3C2C-C30A-999396F4777E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9200,7 +9200,7 @@
             <xdr:cNvPr id="1086" name="Comment 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32011B85-5A7B-3845-59B6-C00EB44A5C4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F357CF4B-037D-D95E-4F08-5C3FE5123846}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9269,7 +9269,7 @@
             <xdr:cNvPr id="1087" name="Comment 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF40C10-C53D-6183-C269-3A6A66A77147}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58965A8B-65D4-2A75-6A3A-A119E55960B6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9338,7 +9338,7 @@
             <xdr:cNvPr id="1088" name="Comment 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C0D14E-19C3-D3F3-4C9B-D3BD0835A0FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA796BE-48C0-D06D-4E34-D304AC758DE2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9407,7 +9407,7 @@
             <xdr:cNvPr id="1089" name="Comment 98" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B441893-9307-FFF9-5DB4-C89B7172C928}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC36DD1E-4153-9F16-5AAA-7091F2E756A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9476,7 +9476,7 @@
             <xdr:cNvPr id="1090" name="Comment 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7B9A8C-0D0A-A452-D68D-16B0EBFC8781}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13362479-7D49-3B6D-15F4-E8452C2AF46C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9545,7 +9545,7 @@
             <xdr:cNvPr id="1091" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835F04BF-3625-AAF7-B809-A8B12881429E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE2D12C-8533-C9A8-9AAF-F62056637AB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9614,7 +9614,7 @@
             <xdr:cNvPr id="1092" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30C2C11-706F-F6DF-18E5-A14142A9FBC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46477A50-4BC9-7F8C-883E-6DDE10C0DE1B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9683,7 +9683,7 @@
             <xdr:cNvPr id="1093" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC92C8F-9680-F50D-9581-22FDF09C9533}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9007AA67-80B4-C13C-F9A3-5619F9A0EB5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9752,7 +9752,7 @@
             <xdr:cNvPr id="1094" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBEA10C-5ED8-38AF-7D98-A0A581AC789A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23A07C5-DEE1-2C4F-E20B-A52AA1CD41CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9821,7 +9821,7 @@
             <xdr:cNvPr id="1095" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176E2E62-14C1-4457-77F6-80CD071A119C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D12474-59A6-F267-7189-3F04940FBF52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9887,10 +9887,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Comment 24" hidden="1">
+            <xdr:cNvPr id="1096" name="Comment 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6F5876-F89A-207E-3E47-9876BE30E05D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF5AE55-F820-C385-2CB7-AD468CF30071}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9959,7 +9959,7 @@
             <xdr:cNvPr id="1097" name="Comment 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134A0922-47F8-C1D3-30F3-2AD79F892E21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABE2851-7D02-3893-CBBE-C01A44204AA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10028,7 +10028,7 @@
             <xdr:cNvPr id="1098" name="Comment 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE76FAC6-D3BF-74EB-0053-A2028DF4A4D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3206A311-DCCA-50BA-5EA0-E62A8307E0DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10097,7 +10097,7 @@
             <xdr:cNvPr id="1099" name="Comment 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EA8D8E-B6B0-08B4-00F9-C351412AF9BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CCC213-C10D-C3F5-0008-D71FF96A013E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10166,7 +10166,7 @@
             <xdr:cNvPr id="1100" name="Comment 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C9D8D3-4E85-91C8-4CBD-0535EC8BCE41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F72589E-E518-3B02-85AD-E5BC4D99B72F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10235,7 +10235,7 @@
             <xdr:cNvPr id="1101" name="Comment 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A63582-887F-F568-CDB5-08922CF8A991}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01FBC55-6815-F4AD-B1FA-F670B2A96F2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10304,7 +10304,7 @@
             <xdr:cNvPr id="1102" name="Comment 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A377DA2-BE22-F0A8-66CA-62553DBCE105}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C708FAA-8435-56A0-9620-E4FFFEDB53B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10373,7 +10373,7 @@
             <xdr:cNvPr id="1103" name="Comment 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A7D560-DB9B-39B0-1B2C-A793E9D7125A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9110205F-AEAB-DFA4-C52C-50C93ED4F330}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10442,7 +10442,7 @@
             <xdr:cNvPr id="1104" name="Comment 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3679AC15-3037-F9B4-9D44-C74102919530}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF013143-233D-FC9B-28FA-A713AE98D4CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10511,7 +10511,7 @@
             <xdr:cNvPr id="1105" name="Comment 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE1E83C-7158-70A2-0359-FC288C072F34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4015B308-F3F5-B650-F51B-EDB87B26E2AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10580,7 +10580,7 @@
             <xdr:cNvPr id="1106" name="Comment 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F381DBDB-2455-9CC9-3E74-EDE733CF60F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC09AB1A-C33A-2346-0B73-CE0B993F28C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10649,7 +10649,7 @@
             <xdr:cNvPr id="1107" name="Comment 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE2FF88-71A4-BCF4-27FA-21D4ACE7E3AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47C402E-CFAE-7820-2718-6113B6193751}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10718,7 +10718,7 @@
             <xdr:cNvPr id="1108" name="Comment 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B932B13-1BA9-4757-84A9-0A1188F1C0C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D40F298-D3EF-A79F-92F2-2CA98B28A80C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10787,7 +10787,7 @@
             <xdr:cNvPr id="1109" name="Comment 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E8EA70-BD7A-D329-5575-80284BE2C365}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAC6FC3-90F2-5ED7-3B83-B8E52F74E653}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10856,7 +10856,7 @@
             <xdr:cNvPr id="1110" name="Comment 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7848219-7FAC-A87B-E338-AD28F8CA77B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6269B970-A8DC-9779-CAB1-EE29AE7E2FF9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10925,7 +10925,7 @@
             <xdr:cNvPr id="1111" name="Comment 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4587349F-B6B0-6344-A883-5849B3FB397D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BA0C31-F736-35C3-A1F0-9BB51773FA52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10994,7 +10994,7 @@
             <xdr:cNvPr id="1112" name="Comment 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF71E87-E251-6611-91EB-8C60F21E40E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBD9AF6-43EF-E89E-1AD2-7FC791EAABB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11063,7 +11063,7 @@
             <xdr:cNvPr id="1113" name="Comment 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD91A86C-04E1-4CA5-0036-F0808A010A33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BF6B08-F0DB-5478-B1CC-0045E765101C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11132,7 +11132,7 @@
             <xdr:cNvPr id="1114" name="Comment 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A812DB49-9010-F309-FD6A-64FE59E78ADF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1588F56-B7EE-93A5-1F4A-8257857124EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11201,7 +11201,7 @@
             <xdr:cNvPr id="1115" name="Comment 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA682A17-5EE2-394B-EC4D-E6C0F86D7FBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8648F8-8D37-19F1-294E-1518BA364165}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11270,7 +11270,7 @@
             <xdr:cNvPr id="1116" name="Comment 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4C05B8-DD96-4594-817C-05CE51988B3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D9F8EA-A31E-B06A-5E10-FF8D598C7595}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11339,7 +11339,7 @@
             <xdr:cNvPr id="1117" name="Comment 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1135C9D6-5C57-AD1D-610F-4FFB9A72C582}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC882CB-154E-2378-6034-CF28DE608CA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11408,7 +11408,7 @@
             <xdr:cNvPr id="1118" name="Comment 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBCC955-6E23-E230-AB08-4092F29C4D2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0FF7D2-3907-B41B-328D-A78935D0E1F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11477,7 +11477,7 @@
             <xdr:cNvPr id="1119" name="Comment 95" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D07C51-BF96-0740-EA33-40417EE0A6D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3C36C2-BE89-D9AB-1B8F-753FA395B075}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11546,7 +11546,7 @@
             <xdr:cNvPr id="1120" name="Comment 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24122F3-C843-D37E-CA70-843DE3AE96F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97CB720-D68D-D3E9-C6C5-1CE84D3F26EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11615,7 +11615,7 @@
             <xdr:cNvPr id="1121" name="Comment 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E91A34-9E26-7050-E54D-12376F431662}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E86EBAE-5575-D52C-D85B-A628FE954AFF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11684,7 +11684,7 @@
             <xdr:cNvPr id="1122" name="Comment 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B7F987-1924-76D1-51BF-E13257D24FBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D25FD8F-682B-FBBB-C7B4-C779245CC00D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11753,7 +11753,7 @@
             <xdr:cNvPr id="1123" name="Comment 99" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C0C228-739B-C689-360A-F94B3F785EA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643C34B9-2F51-9566-55B0-2F04A1DDB7D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11822,7 +11822,7 @@
             <xdr:cNvPr id="1124" name="Comment 100" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E0DD97-B4F4-5D7F-DE8F-87B24E802BA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020F41B5-DC14-E8EA-8DA8-83C631929C4F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11888,10 +11888,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1125" name="Comment 100" hidden="1">
+            <xdr:cNvPr id="1125" name="Comment 101" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C345F1-7DC5-50A8-F29B-0F914B3425CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F73B73-9C23-B6D6-03A9-561F3FE273D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11957,10 +11957,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1126" name="Comment 99" hidden="1">
+            <xdr:cNvPr id="1126" name="Comment 102" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C977163-14A8-3D0A-951A-BD7310F0F111}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDAC5F1-CF0B-680B-FEBC-AC977A9D8F2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12635,7 +12635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH1" sqref="BH1"/>
+      <selection pane="bottomLeft" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -62412,7 +62412,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13684F46-4F9D-4ABF-BA73-8C36BFE803C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE414F2-9F00-47FC-ADAE-80092CD9EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10854" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10868" uniqueCount="395">
   <si>
     <t>Type</t>
   </si>
@@ -2727,7 +2727,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2762,6 +2762,7 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3446,8 +3447,8 @@
   <dimension ref="A1:BG294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G188" sqref="G188:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6083,8 +6084,8 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
+      <c r="G16" t="s">
+        <v>184</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -6256,8 +6257,8 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>2</v>
+      <c r="G17" t="s">
+        <v>185</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -6429,8 +6430,8 @@
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>3</v>
+      <c r="G18" t="s">
+        <v>186</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -6602,8 +6603,8 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>4</v>
+      <c r="G19" t="s">
+        <v>187</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -11965,8 +11966,8 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>1</v>
+      <c r="G50" t="s">
+        <v>195</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -12141,8 +12142,8 @@
       <c r="F51">
         <v>2</v>
       </c>
-      <c r="G51">
-        <v>2</v>
+      <c r="G51" t="s">
+        <v>196</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -22555,8 +22556,8 @@
       <c r="F111">
         <v>2</v>
       </c>
-      <c r="G111" s="7">
-        <v>2</v>
+      <c r="G111" t="s">
+        <v>208</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -22728,8 +22729,8 @@
       <c r="F112">
         <v>2</v>
       </c>
-      <c r="G112" s="7">
-        <v>2</v>
+      <c r="G112" t="s">
+        <v>208</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -26925,8 +26926,8 @@
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="G136">
-        <v>1</v>
+      <c r="G136" t="s">
+        <v>195</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
@@ -27101,8 +27102,8 @@
       <c r="F137">
         <v>2</v>
       </c>
-      <c r="G137">
-        <v>2</v>
+      <c r="G137" t="s">
+        <v>196</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
@@ -28527,7 +28528,7 @@
       <c r="O145" s="2">
         <v>45490</v>
       </c>
-      <c r="P145" s="28" t="s">
+      <c r="P145" s="30" t="s">
         <v>364</v>
       </c>
       <c r="Q145" s="2">
@@ -31263,7 +31264,7 @@
       <c r="O166" s="2">
         <v>45673</v>
       </c>
-      <c r="P166" s="28" t="s">
+      <c r="P166" s="30" t="s">
         <v>379</v>
       </c>
       <c r="Q166" s="2">
@@ -35054,8 +35055,8 @@
       <c r="F188">
         <v>1</v>
       </c>
-      <c r="G188">
-        <v>1</v>
+      <c r="G188" t="s">
+        <v>184</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
@@ -35230,8 +35231,8 @@
       <c r="F189">
         <v>2</v>
       </c>
-      <c r="G189">
-        <v>2</v>
+      <c r="G189" t="s">
+        <v>185</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -35406,8 +35407,8 @@
       <c r="F190">
         <v>3</v>
       </c>
-      <c r="G190">
-        <v>3</v>
+      <c r="G190" t="s">
+        <v>186</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -35582,8 +35583,8 @@
       <c r="F191">
         <v>4</v>
       </c>
-      <c r="G191">
-        <v>4</v>
+      <c r="G191" t="s">
+        <v>187</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B66D11-5BB5-43D3-A30B-7DD53F3BD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A902C7B-EDCB-47C2-899A-0F7FDDD765B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction_From_IR_and_Source" sheetId="1" r:id="rId1"/>
@@ -4058,7 +4058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4229,12 +4229,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="41">
@@ -5799,9 +5793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL1" sqref="BL1"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BL49" sqref="BL49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -15321,13 +15315,13 @@
         <v>162</v>
       </c>
       <c r="BJ49" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BK49" t="s">
         <v>37</v>
       </c>
       <c r="BL49" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:66">
@@ -15909,7 +15903,7 @@
         <v>162</v>
       </c>
       <c r="BJ52" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BK52" t="s">
         <v>37</v>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A902C7B-EDCB-47C2-899A-0F7FDDD765B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CD27C2-CECA-4700-9CE7-D84609BDD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Questions to FO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaction_From_IR_and_Source!$BH$1:$BH$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transaction_From_IR_and_Source!$BL$1:$BL$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -546,7 +546,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    No other clues, assume matching without the date is out of scope, and therefore 2024-07-24 -&gt; 2024-07-17</t>
+    No other clues, requiring LLM to check for previous transactions 2024-07-24 -&gt; 2024-07-17</t>
       </text>
     </comment>
     <comment ref="AP145" authorId="32" shapeId="0" xr:uid="{F37F381E-E0F3-4BC3-A9D2-2DCAF482C0C2}">
@@ -1054,7 +1054,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    No other clues, assume matching without the date is out of scope, and therefore 2025-02-24 -&gt; 2025-01-16</t>
+    No other clues, requiring LLM to check for previous transactions 2025-02-24 -&gt; 2025-01-16</t>
       </text>
     </comment>
     <comment ref="V166" authorId="95" shapeId="0" xr:uid="{03D1E447-9D1D-453D-BE49-98C7C987E802}">
@@ -4231,7 +4231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4459,6 +4459,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4623,7 +4629,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4658,8 +4664,9 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5118,7 +5125,7 @@
     <text>No clue for victim ODFT, assume all are HASE</text>
   </threadedComment>
   <threadedComment ref="Q145" dT="2025-06-29T16:37:23.09" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{7DE81C23-49B8-465A-BC7B-3CCA520D1473}">
-    <text>No other clues, assume matching without the date is out of scope, and therefore 2024-07-24 -&gt; 2024-07-17</text>
+    <text>No other clues, requiring LLM to check for previous transactions 2024-07-24 -&gt; 2024-07-17</text>
   </threadedComment>
   <threadedComment ref="AP145" dT="2025-06-29T16:41:01.39" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{F37F381E-E0F3-4BC3-A9D2-2DCAF482C0C2}">
     <text>恆生銀行客人CHEUNG先生B000001</text>
@@ -5313,7 +5320,7 @@
     <text>按照朋友的指定户口通过网上银行转账</text>
   </threadedComment>
   <threadedComment ref="Q166" dT="2025-06-29T18:29:35.19" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{7C4A95C3-9FAF-48E7-8383-0BD61BC3EB9D}">
-    <text>No other clues, assume matching without the date is out of scope, and therefore 2025-02-24 -&gt; 2025-01-16</text>
+    <text>No other clues, requiring LLM to check for previous transactions 2025-02-24 -&gt; 2025-01-16</text>
   </threadedComment>
   <threadedComment ref="V166" dT="2025-06-29T18:40:54.95" personId="{5C47F922-E6E3-4288-AF53-7EBE8E578CFC}" id="{03D1E447-9D1D-453D-BE49-98C7C987E802}">
     <text>Ignore 投资了4万后</text>
@@ -5793,9 +5800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL49" sqref="BL49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6422,7 +6429,7 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>395</v>
       </c>
       <c r="I4" t="b">
@@ -28587,7 +28594,7 @@
       <c r="G118">
         <v>2</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="30" t="s">
         <v>494</v>
       </c>
       <c r="I118" t="b">
@@ -33903,11 +33910,11 @@
       <c r="P145" s="2">
         <v>45490</v>
       </c>
-      <c r="Q145" s="30" t="s">
+      <c r="Q145" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="R145" s="2">
-        <v>45490</v>
+      <c r="R145" s="32">
+        <v>45497</v>
       </c>
       <c r="S145" s="2">
         <v>45490</v>
@@ -37134,11 +37141,11 @@
       <c r="P166" s="2">
         <v>45673</v>
       </c>
-      <c r="Q166" s="30" t="s">
+      <c r="Q166" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="R166" s="2">
-        <v>45673</v>
+      <c r="R166" s="32">
+        <v>45712</v>
       </c>
       <c r="S166" s="2">
         <v>45673</v>
@@ -37304,7 +37311,7 @@
       <c r="G167">
         <v>3</v>
       </c>
-      <c r="H167" s="31" t="s">
+      <c r="H167" s="30" t="s">
         <v>525</v>
       </c>
       <c r="I167" t="b">
@@ -37467,13 +37474,13 @@
         <v>160</v>
       </c>
       <c r="BJ167" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK167" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK167" s="31" t="s">
         <v>39</v>
       </c>
       <c r="BL167" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="BM167" t="s">
         <v>231</v>
@@ -38446,7 +38453,7 @@
         <v>167</v>
       </c>
       <c r="BJ172" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK172" t="s">
         <v>66</v>
@@ -38837,13 +38844,13 @@
         <v>165</v>
       </c>
       <c r="BJ174" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK174" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK174" s="31" t="s">
         <v>39</v>
       </c>
       <c r="BL174" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:66">
@@ -39225,7 +39232,7 @@
         <v>165</v>
       </c>
       <c r="BJ176" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK176" t="s">
         <v>66</v>
@@ -39419,7 +39426,7 @@
         <v>165</v>
       </c>
       <c r="BJ177" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK177" t="s">
         <v>66</v>
@@ -39807,7 +39814,7 @@
         <v>165</v>
       </c>
       <c r="BJ179" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK179" t="s">
         <v>66</v>
@@ -40777,7 +40784,7 @@
         <v>165</v>
       </c>
       <c r="BJ184" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK184" t="s">
         <v>66</v>
@@ -41552,7 +41559,7 @@
         <v>160</v>
       </c>
       <c r="BJ188" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK188" t="s">
         <v>66</v>
@@ -41749,7 +41756,7 @@
         <v>160</v>
       </c>
       <c r="BJ189" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK189" t="s">
         <v>66</v>
@@ -41946,7 +41953,7 @@
         <v>160</v>
       </c>
       <c r="BJ190" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK190" t="s">
         <v>66</v>
@@ -42143,7 +42150,7 @@
         <v>160</v>
       </c>
       <c r="BJ191" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK191" t="s">
         <v>66</v>
@@ -42340,7 +42347,7 @@
         <v>160</v>
       </c>
       <c r="BJ192" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK192" t="s">
         <v>66</v>
@@ -42537,7 +42544,7 @@
         <v>37</v>
       </c>
       <c r="BJ193" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK193" t="s">
         <v>66</v>
@@ -42734,13 +42741,13 @@
         <v>165</v>
       </c>
       <c r="BJ194" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK194" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK194" s="4" t="s">
         <v>95</v>
       </c>
       <c r="BL194" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="BM194" s="4" t="s">
         <v>235</v>
@@ -43750,7 +43757,7 @@
       <c r="G200">
         <v>5</v>
       </c>
-      <c r="H200" s="31" t="s">
+      <c r="H200" s="30" t="s">
         <v>544</v>
       </c>
       <c r="I200" t="b">
@@ -45077,7 +45084,7 @@
         <v>165</v>
       </c>
       <c r="BJ206" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK206" t="s">
         <v>66</v>
@@ -45274,7 +45281,7 @@
         <v>165</v>
       </c>
       <c r="BJ207" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK207" t="s">
         <v>66</v>
@@ -46056,7 +46063,7 @@
         <v>165</v>
       </c>
       <c r="BJ211" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK211" t="s">
         <v>66</v>
@@ -46250,7 +46257,7 @@
         <v>165</v>
       </c>
       <c r="BJ212" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK212" t="s">
         <v>66</v>
@@ -46444,7 +46451,7 @@
         <v>165</v>
       </c>
       <c r="BJ213" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="BK213" t="s">
         <v>66</v>
@@ -46832,13 +46839,13 @@
         <v>160</v>
       </c>
       <c r="BJ215" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK215" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK215" s="4" t="s">
         <v>112</v>
       </c>
       <c r="BL215" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="BM215" s="13" t="s">
         <v>246</v>
@@ -47029,13 +47036,13 @@
         <v>174</v>
       </c>
       <c r="BJ216" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK216" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK216" s="31" t="s">
         <v>114</v>
       </c>
       <c r="BL216" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="BM216" s="4" t="s">
         <v>247</v>
@@ -57538,7 +57545,7 @@
       <c r="G272">
         <v>2</v>
       </c>
-      <c r="H272" s="31" t="s">
+      <c r="H272" s="30" t="s">
         <v>494</v>
       </c>
       <c r="I272" t="b">

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CD27C2-CECA-4700-9CE7-D84609BDD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F4D39-34A8-4B5F-882D-E8B7A18EAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2318,7 +2318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12726" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12726" uniqueCount="575">
   <si>
     <t>Type</t>
   </si>
@@ -4025,12 +4025,6 @@
   </si>
   <si>
     <t>e24ea88d-95b8-4bd7-b672-7361b0c888f9</t>
-  </si>
-  <si>
-    <t>2904669d-89b2-4f79-b854-62b167048737;c046e1ea-2b63-4d3c-a527-79a9a1e0f1df</t>
-  </si>
-  <si>
-    <t>b156f110-dc5e-4bfb-baab-138657fbe70e;1c70bce5-a46e-4791-9d2b-3414ff04fe26;7b54a738-9500-4076-bc9f-e766d451a5b0;74a2ff0a-8532-4f51-a9e4-8c13d12d5d75</t>
   </si>
   <si>
     <t>SourceOnlyGroundTruth_Transaction Date (value)</t>
@@ -5801,8 +5795,8 @@
   <dimension ref="A1:BN294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R145" sqref="R145"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M210" sqref="M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5872,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>9</v>
@@ -5917,7 +5911,7 @@
         <v>14</v>
       </c>
       <c r="AG1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AH1" t="s">
         <v>15</v>
@@ -5932,7 +5926,7 @@
         <v>16</v>
       </c>
       <c r="AL1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM1" t="s">
         <v>17</v>
@@ -5947,7 +5941,7 @@
         <v>18</v>
       </c>
       <c r="AQ1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AR1" t="s">
         <v>19</v>
@@ -5986,7 +5980,7 @@
         <v>24</v>
       </c>
       <c r="BD1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="BE1" t="s">
         <v>25</v>
@@ -5995,7 +5989,7 @@
         <v>390</v>
       </c>
       <c r="BG1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="BH1" t="s">
         <v>155</v>
@@ -37899,14 +37893,14 @@
       <c r="G170" t="s">
         <v>233</v>
       </c>
-      <c r="H170" t="s">
-        <v>569</v>
+      <c r="H170" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
       </c>
-      <c r="J170" t="b">
-        <v>1</v>
+      <c r="J170" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="K170" t="b">
         <v>1</v>
@@ -37914,8 +37908,8 @@
       <c r="L170" t="b">
         <v>1</v>
       </c>
-      <c r="M170" t="b">
-        <v>1</v>
+      <c r="M170" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N170">
         <v>1</v>
@@ -45703,14 +45697,14 @@
       <c r="G210">
         <v>1</v>
       </c>
-      <c r="H210" t="s">
-        <v>570</v>
+      <c r="H210" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
-      <c r="J210" t="b">
-        <v>1</v>
+      <c r="J210" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="K210" t="b">
         <v>1</v>
@@ -45718,8 +45712,8 @@
       <c r="L210" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="M210" s="3" t="b">
-        <v>1</v>
+      <c r="M210" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N210">
         <v>1</v>

--- a/Input Data Summary/Transaction_From_IR_and_Source.xlsx
+++ b/Input Data Summary/Transaction_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F4D39-34A8-4B5F-882D-E8B7A18EAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5EDCA0-F959-47A3-8D2C-FF4B8FD031F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2318,7 +2318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12726" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12725" uniqueCount="575">
   <si>
     <t>Type</t>
   </si>
@@ -4623,7 +4623,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4661,6 +4661,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5794,9 +5795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M210" sqref="M210"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6117,7 +6118,7 @@
         <v>52</v>
       </c>
       <c r="AI2" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s">
         <v>65</v>
@@ -6311,7 +6312,7 @@
         <v>52</v>
       </c>
       <c r="AI3" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s">
         <v>65</v>
@@ -6505,7 +6506,7 @@
         <v>52</v>
       </c>
       <c r="AI4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s">
         <v>53</v>
@@ -6699,7 +6700,7 @@
         <v>52</v>
       </c>
       <c r="AI5" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s">
         <v>53</v>
@@ -6893,7 +6894,7 @@
         <v>52</v>
       </c>
       <c r="AI6" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s">
         <v>53</v>
@@ -7087,7 +7088,7 @@
         <v>52</v>
       </c>
       <c r="AI7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s">
         <v>53</v>
@@ -7281,7 +7282,7 @@
         <v>52</v>
       </c>
       <c r="AI8" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s">
         <v>37</v>
@@ -7475,7 +7476,7 @@
         <v>52</v>
       </c>
       <c r="AI9" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s">
         <v>65</v>
@@ -7669,7 +7670,7 @@
         <v>52</v>
       </c>
       <c r="AI10" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s">
         <v>53</v>
@@ -30176,8 +30177,8 @@
       <c r="P126" s="2">
         <v>45662</v>
       </c>
-      <c r="Q126" s="13" t="s">
-        <v>221</v>
+      <c r="Q126" s="33">
+        <v>45662</v>
       </c>
       <c r="R126" s="2">
         <v>45662</v>
